--- a/lib/PHPExcel/templates/OT_PS.xlsx
+++ b/lib/PHPExcel/templates/OT_PS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -186,11 +186,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-40C]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0##"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -733,7 +734,7 @@
     <xf numFmtId="40" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -900,13 +901,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -956,9 +950,6 @@
     <xf numFmtId="2" fontId="9" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="1" fontId="9" fillId="4" borderId="32" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -992,71 +983,84 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="40" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers 2" xfId="1"/>
@@ -1692,7 +1696,7 @@
   <dimension ref="A1:DI56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1861,162 +1865,162 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="102" t="s">
+      <c r="J2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="102" t="s">
+      <c r="T2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="106" t="str">
+      <c r="U2" s="113"/>
+      <c r="V2" s="108" t="str">
         <f t="shared" ref="V2:V3" si="0">IF(ISBLANK(L2),"",L2)</f>
         <v/>
       </c>
-      <c r="W2" s="107"/>
+      <c r="W2" s="109"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-      <c r="AD2" s="102" t="s">
+      <c r="AD2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="106" t="str">
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="108" t="str">
         <f t="shared" ref="AF2:AF3" si="1">IF(ISBLANK(V2),"",V2)</f>
         <v/>
       </c>
-      <c r="AG2" s="107"/>
+      <c r="AG2" s="109"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-      <c r="AN2" s="102" t="s">
+      <c r="AN2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="103"/>
-      <c r="AP2" s="106" t="str">
+      <c r="AO2" s="113"/>
+      <c r="AP2" s="108" t="str">
         <f t="shared" ref="AP2:AP3" si="2">IF(ISBLANK(AF2),"",AF2)</f>
         <v/>
       </c>
-      <c r="AQ2" s="107"/>
+      <c r="AQ2" s="109"/>
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-      <c r="AX2" s="102" t="s">
+      <c r="AX2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="AY2" s="103"/>
-      <c r="AZ2" s="106" t="str">
+      <c r="AY2" s="113"/>
+      <c r="AZ2" s="108" t="str">
         <f t="shared" ref="AZ2:AZ3" si="3">IF(ISBLANK(AP2),"",AP2)</f>
         <v/>
       </c>
-      <c r="BA2" s="107"/>
+      <c r="BA2" s="109"/>
       <c r="BB2" s="1"/>
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="102" t="s">
+      <c r="BH2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BI2" s="103"/>
-      <c r="BJ2" s="106" t="str">
+      <c r="BI2" s="113"/>
+      <c r="BJ2" s="108" t="str">
         <f t="shared" ref="BJ2:BJ3" si="4">IF(ISBLANK(AZ2),"",AZ2)</f>
         <v/>
       </c>
-      <c r="BK2" s="107"/>
+      <c r="BK2" s="109"/>
       <c r="BL2" s="1"/>
       <c r="BM2" s="1"/>
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
       <c r="BQ2" s="1"/>
-      <c r="BR2" s="102" t="s">
+      <c r="BR2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="BS2" s="103"/>
-      <c r="BT2" s="106" t="str">
+      <c r="BS2" s="113"/>
+      <c r="BT2" s="108" t="str">
         <f t="shared" ref="BT2:BT3" si="5">IF(ISBLANK(BJ2),"",BJ2)</f>
         <v/>
       </c>
-      <c r="BU2" s="107"/>
+      <c r="BU2" s="109"/>
       <c r="BV2" s="1"/>
       <c r="BW2" s="1"/>
       <c r="BX2" s="1"/>
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
       <c r="CA2" s="1"/>
-      <c r="CB2" s="102" t="s">
+      <c r="CB2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="CC2" s="103"/>
-      <c r="CD2" s="106" t="str">
+      <c r="CC2" s="113"/>
+      <c r="CD2" s="108" t="str">
         <f t="shared" ref="CD2:CD3" si="6">IF(ISBLANK(BT2),"",BT2)</f>
         <v/>
       </c>
-      <c r="CE2" s="107"/>
+      <c r="CE2" s="109"/>
       <c r="CF2" s="1"/>
       <c r="CG2" s="1"/>
       <c r="CH2" s="1"/>
       <c r="CI2" s="1"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
-      <c r="CL2" s="102" t="s">
+      <c r="CL2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="CM2" s="103"/>
-      <c r="CN2" s="106" t="str">
+      <c r="CM2" s="113"/>
+      <c r="CN2" s="108" t="str">
         <f t="shared" ref="CN2:CN3" si="7">IF(ISBLANK(CD2),"",CD2)</f>
         <v/>
       </c>
-      <c r="CO2" s="107"/>
+      <c r="CO2" s="109"/>
       <c r="CP2" s="1"/>
       <c r="CQ2" s="1"/>
       <c r="CR2" s="1"/>
       <c r="CS2" s="1"/>
       <c r="CT2" s="1"/>
       <c r="CU2" s="1"/>
-      <c r="CV2" s="102" t="s">
+      <c r="CV2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="CW2" s="103"/>
-      <c r="CX2" s="106" t="str">
+      <c r="CW2" s="113"/>
+      <c r="CX2" s="108" t="str">
         <f t="shared" ref="CX2:CX3" si="8">IF(ISBLANK(CN2),"",CN2)</f>
         <v/>
       </c>
-      <c r="CY2" s="107"/>
+      <c r="CY2" s="109"/>
       <c r="CZ2" s="1"/>
       <c r="DA2" s="1"/>
       <c r="DB2" s="1"/>
       <c r="DC2" s="1"/>
       <c r="DD2" s="1"/>
       <c r="DE2" s="1"/>
-      <c r="DF2" s="102" t="s">
+      <c r="DF2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="DG2" s="103"/>
-      <c r="DH2" s="106" t="str">
+      <c r="DG2" s="113"/>
+      <c r="DH2" s="108" t="str">
         <f t="shared" ref="DH2:DH3" si="9">IF(ISBLANK(CX2),"",CX2)</f>
         <v/>
       </c>
-      <c r="DI2" s="107"/>
+      <c r="DI2" s="109"/>
     </row>
     <row r="3" spans="1:113" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -2028,140 +2032,140 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="109"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="108" t="str">
+      <c r="T3" s="103"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="110" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W3" s="109"/>
+      <c r="W3" s="111"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="108" t="str">
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="110" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG3" s="109"/>
+      <c r="AG3" s="111"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
-      <c r="AN3" s="104"/>
-      <c r="AO3" s="105"/>
-      <c r="AP3" s="108" t="str">
+      <c r="AN3" s="103"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="110" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AQ3" s="109"/>
+      <c r="AQ3" s="111"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-      <c r="AX3" s="104"/>
-      <c r="AY3" s="105"/>
-      <c r="AZ3" s="108" t="str">
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="114"/>
+      <c r="AZ3" s="110" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="BA3" s="109"/>
+      <c r="BA3" s="111"/>
       <c r="BB3" s="1"/>
       <c r="BC3" s="1"/>
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="104"/>
-      <c r="BI3" s="105"/>
-      <c r="BJ3" s="108" t="str">
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="114"/>
+      <c r="BJ3" s="110" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="BK3" s="109"/>
+      <c r="BK3" s="111"/>
       <c r="BL3" s="1"/>
       <c r="BM3" s="1"/>
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
       <c r="BQ3" s="1"/>
-      <c r="BR3" s="104"/>
-      <c r="BS3" s="105"/>
-      <c r="BT3" s="108" t="str">
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="114"/>
+      <c r="BT3" s="110" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BU3" s="109"/>
+      <c r="BU3" s="111"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
       <c r="CA3" s="1"/>
-      <c r="CB3" s="104"/>
-      <c r="CC3" s="105"/>
-      <c r="CD3" s="108" t="str">
+      <c r="CB3" s="103"/>
+      <c r="CC3" s="114"/>
+      <c r="CD3" s="110" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="CE3" s="109"/>
+      <c r="CE3" s="111"/>
       <c r="CF3" s="1"/>
       <c r="CG3" s="1"/>
       <c r="CH3" s="1"/>
       <c r="CI3" s="1"/>
       <c r="CJ3" s="1"/>
       <c r="CK3" s="1"/>
-      <c r="CL3" s="104"/>
-      <c r="CM3" s="105"/>
-      <c r="CN3" s="108" t="str">
+      <c r="CL3" s="103"/>
+      <c r="CM3" s="114"/>
+      <c r="CN3" s="110" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="CO3" s="109"/>
+      <c r="CO3" s="111"/>
       <c r="CP3" s="1"/>
       <c r="CQ3" s="1"/>
       <c r="CR3" s="1"/>
       <c r="CS3" s="1"/>
       <c r="CT3" s="1"/>
       <c r="CU3" s="1"/>
-      <c r="CV3" s="104"/>
-      <c r="CW3" s="105"/>
-      <c r="CX3" s="108" t="str">
+      <c r="CV3" s="103"/>
+      <c r="CW3" s="114"/>
+      <c r="CX3" s="110" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="CY3" s="109"/>
+      <c r="CY3" s="111"/>
       <c r="CZ3" s="1"/>
       <c r="DA3" s="1"/>
       <c r="DB3" s="1"/>
       <c r="DC3" s="1"/>
       <c r="DD3" s="1"/>
       <c r="DE3" s="1"/>
-      <c r="DF3" s="104"/>
-      <c r="DG3" s="105"/>
-      <c r="DH3" s="108" t="str">
+      <c r="DF3" s="103"/>
+      <c r="DG3" s="114"/>
+      <c r="DH3" s="110" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="DI3" s="109"/>
+      <c r="DI3" s="111"/>
     </row>
     <row r="4" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -2174,214 +2178,214 @@
         <v>0</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="114"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
       <c r="M4" s="7"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="110" t="str">
+      <c r="Q4" s="105" t="str">
         <f>IF(ISBLANK(G4),"",G4)</f>
         <v/>
       </c>
-      <c r="R4" s="110"/>
+      <c r="R4" s="105"/>
       <c r="S4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="111" t="str">
+      <c r="U4" s="107" t="str">
         <f t="shared" ref="U4:U6" si="10">IF(ISBLANK(K4),"",K4)</f>
         <v/>
       </c>
-      <c r="V4" s="111"/>
+      <c r="V4" s="107"/>
       <c r="W4" s="7"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="110" t="str">
+      <c r="AA4" s="105" t="str">
         <f>IF(ISBLANK(Q4),"",Q4)</f>
         <v/>
       </c>
-      <c r="AB4" s="110"/>
+      <c r="AB4" s="105"/>
       <c r="AC4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="111" t="str">
+      <c r="AE4" s="107" t="str">
         <f t="shared" ref="AE4:AE6" si="11">IF(ISBLANK(U4),"",U4)</f>
         <v/>
       </c>
-      <c r="AF4" s="111"/>
+      <c r="AF4" s="107"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="110" t="str">
+      <c r="AK4" s="105" t="str">
         <f>IF(ISBLANK(AA4),"",AA4)</f>
         <v/>
       </c>
-      <c r="AL4" s="110"/>
+      <c r="AL4" s="105"/>
       <c r="AM4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AN4" s="1"/>
-      <c r="AO4" s="111" t="str">
+      <c r="AO4" s="107" t="str">
         <f t="shared" ref="AO4:AO6" si="12">IF(ISBLANK(AE4),"",AE4)</f>
         <v/>
       </c>
-      <c r="AP4" s="111"/>
+      <c r="AP4" s="107"/>
       <c r="AQ4" s="7"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AT4" s="1"/>
-      <c r="AU4" s="110" t="str">
+      <c r="AU4" s="105" t="str">
         <f>IF(ISBLANK(AK4),"",AK4)</f>
         <v/>
       </c>
-      <c r="AV4" s="110"/>
+      <c r="AV4" s="105"/>
       <c r="AW4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AX4" s="1"/>
-      <c r="AY4" s="111" t="str">
+      <c r="AY4" s="107" t="str">
         <f t="shared" ref="AY4:AY6" si="13">IF(ISBLANK(AO4),"",AO4)</f>
         <v/>
       </c>
-      <c r="AZ4" s="111"/>
+      <c r="AZ4" s="107"/>
       <c r="BA4" s="7"/>
       <c r="BB4" s="1"/>
       <c r="BC4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BD4" s="1"/>
-      <c r="BE4" s="110" t="str">
+      <c r="BE4" s="105" t="str">
         <f>IF(ISBLANK(AU4),"",AU4)</f>
         <v/>
       </c>
-      <c r="BF4" s="110"/>
+      <c r="BF4" s="105"/>
       <c r="BG4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BH4" s="1"/>
-      <c r="BI4" s="111" t="str">
+      <c r="BI4" s="107" t="str">
         <f t="shared" ref="BI4:BI6" si="14">IF(ISBLANK(AY4),"",AY4)</f>
         <v/>
       </c>
-      <c r="BJ4" s="111"/>
+      <c r="BJ4" s="107"/>
       <c r="BK4" s="7"/>
       <c r="BL4" s="1"/>
       <c r="BM4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BN4" s="1"/>
-      <c r="BO4" s="110" t="str">
+      <c r="BO4" s="105" t="str">
         <f>IF(ISBLANK(BE4),"",BE4)</f>
         <v/>
       </c>
-      <c r="BP4" s="110"/>
+      <c r="BP4" s="105"/>
       <c r="BQ4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BR4" s="1"/>
-      <c r="BS4" s="111" t="str">
+      <c r="BS4" s="107" t="str">
         <f t="shared" ref="BS4:BS6" si="15">IF(ISBLANK(BI4),"",BI4)</f>
         <v/>
       </c>
-      <c r="BT4" s="111"/>
+      <c r="BT4" s="107"/>
       <c r="BU4" s="7"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BX4" s="1"/>
-      <c r="BY4" s="110" t="str">
+      <c r="BY4" s="105" t="str">
         <f>IF(ISBLANK(BO4),"",BO4)</f>
         <v/>
       </c>
-      <c r="BZ4" s="110"/>
+      <c r="BZ4" s="105"/>
       <c r="CA4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="CB4" s="1"/>
-      <c r="CC4" s="111" t="str">
+      <c r="CC4" s="107" t="str">
         <f t="shared" ref="CC4:CC6" si="16">IF(ISBLANK(BS4),"",BS4)</f>
         <v/>
       </c>
-      <c r="CD4" s="111"/>
+      <c r="CD4" s="107"/>
       <c r="CE4" s="7"/>
       <c r="CF4" s="1"/>
       <c r="CG4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CH4" s="1"/>
-      <c r="CI4" s="110" t="str">
+      <c r="CI4" s="105" t="str">
         <f>IF(ISBLANK(BY4),"",BY4)</f>
         <v/>
       </c>
-      <c r="CJ4" s="110"/>
+      <c r="CJ4" s="105"/>
       <c r="CK4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="CL4" s="1"/>
-      <c r="CM4" s="111" t="str">
+      <c r="CM4" s="107" t="str">
         <f t="shared" ref="CM4:CM6" si="17">IF(ISBLANK(CC4),"",CC4)</f>
         <v/>
       </c>
-      <c r="CN4" s="111"/>
+      <c r="CN4" s="107"/>
       <c r="CO4" s="7"/>
       <c r="CP4" s="1"/>
       <c r="CQ4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CR4" s="1"/>
-      <c r="CS4" s="110" t="str">
+      <c r="CS4" s="105" t="str">
         <f>IF(ISBLANK(CI4),"",CI4)</f>
         <v/>
       </c>
-      <c r="CT4" s="110"/>
+      <c r="CT4" s="105"/>
       <c r="CU4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="CV4" s="1"/>
-      <c r="CW4" s="111" t="str">
+      <c r="CW4" s="107" t="str">
         <f t="shared" ref="CW4:CW6" si="18">IF(ISBLANK(CM4),"",CM4)</f>
         <v/>
       </c>
-      <c r="CX4" s="111"/>
+      <c r="CX4" s="107"/>
       <c r="CY4" s="7"/>
       <c r="CZ4" s="1"/>
       <c r="DA4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="DB4" s="1"/>
-      <c r="DC4" s="110" t="str">
+      <c r="DC4" s="105" t="str">
         <f>IF(ISBLANK(CS4),"",CS4)</f>
         <v/>
       </c>
-      <c r="DD4" s="110"/>
+      <c r="DD4" s="105"/>
       <c r="DE4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="DF4" s="1"/>
-      <c r="DG4" s="111" t="str">
+      <c r="DG4" s="107" t="str">
         <f t="shared" ref="DG4:DG6" si="19">IF(ISBLANK(CW4),"",CW4)</f>
         <v/>
       </c>
-      <c r="DH4" s="111"/>
+      <c r="DH4" s="107"/>
       <c r="DI4" s="7"/>
     </row>
     <row r="5" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2393,214 +2397,214 @@
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="114"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
       <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
       <c r="M5" s="7"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="112" t="str">
+      <c r="Q5" s="116" t="str">
         <f t="shared" ref="Q5:Q6" si="20">IF(ISBLANK(G5),"",G5)</f>
         <v/>
       </c>
-      <c r="R5" s="112"/>
+      <c r="R5" s="116"/>
       <c r="S5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="101" t="str">
+      <c r="U5" s="117" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V5" s="101"/>
+      <c r="V5" s="117"/>
       <c r="W5" s="7"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="112" t="str">
+      <c r="AA5" s="116" t="str">
         <f t="shared" ref="AA5:AA6" si="21">IF(ISBLANK(Q5),"",Q5)</f>
         <v/>
       </c>
-      <c r="AB5" s="112"/>
+      <c r="AB5" s="116"/>
       <c r="AC5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AD5" s="1"/>
-      <c r="AE5" s="101" t="str">
+      <c r="AE5" s="117" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF5" s="101"/>
+      <c r="AF5" s="117"/>
       <c r="AG5" s="7"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="112" t="str">
+      <c r="AK5" s="116" t="str">
         <f t="shared" ref="AK5:AK6" si="22">IF(ISBLANK(AA5),"",AA5)</f>
         <v/>
       </c>
-      <c r="AL5" s="112"/>
+      <c r="AL5" s="116"/>
       <c r="AM5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AN5" s="1"/>
-      <c r="AO5" s="101" t="str">
+      <c r="AO5" s="117" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP5" s="101"/>
+      <c r="AP5" s="117"/>
       <c r="AQ5" s="7"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="AT5" s="1"/>
-      <c r="AU5" s="112" t="str">
+      <c r="AU5" s="116" t="str">
         <f t="shared" ref="AU5:AU6" si="23">IF(ISBLANK(AK5),"",AK5)</f>
         <v/>
       </c>
-      <c r="AV5" s="112"/>
+      <c r="AV5" s="116"/>
       <c r="AW5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="AX5" s="1"/>
-      <c r="AY5" s="101" t="str">
+      <c r="AY5" s="117" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ5" s="101"/>
+      <c r="AZ5" s="117"/>
       <c r="BA5" s="7"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BD5" s="1"/>
-      <c r="BE5" s="112" t="str">
+      <c r="BE5" s="116" t="str">
         <f t="shared" ref="BE5:BE6" si="24">IF(ISBLANK(AU5),"",AU5)</f>
         <v/>
       </c>
-      <c r="BF5" s="112"/>
+      <c r="BF5" s="116"/>
       <c r="BG5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BH5" s="1"/>
-      <c r="BI5" s="101" t="str">
+      <c r="BI5" s="117" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ5" s="101"/>
+      <c r="BJ5" s="117"/>
       <c r="BK5" s="7"/>
       <c r="BL5" s="1"/>
       <c r="BM5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BN5" s="1"/>
-      <c r="BO5" s="112" t="str">
+      <c r="BO5" s="116" t="str">
         <f t="shared" ref="BO5:BO6" si="25">IF(ISBLANK(BE5),"",BE5)</f>
         <v/>
       </c>
-      <c r="BP5" s="112"/>
+      <c r="BP5" s="116"/>
       <c r="BQ5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BR5" s="1"/>
-      <c r="BS5" s="101" t="str">
+      <c r="BS5" s="117" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT5" s="101"/>
+      <c r="BT5" s="117"/>
       <c r="BU5" s="7"/>
       <c r="BV5" s="1"/>
       <c r="BW5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="BX5" s="1"/>
-      <c r="BY5" s="112" t="str">
+      <c r="BY5" s="116" t="str">
         <f t="shared" ref="BY5:BY6" si="26">IF(ISBLANK(BO5),"",BO5)</f>
         <v/>
       </c>
-      <c r="BZ5" s="112"/>
+      <c r="BZ5" s="116"/>
       <c r="CA5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="CB5" s="1"/>
-      <c r="CC5" s="101" t="str">
+      <c r="CC5" s="117" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD5" s="101"/>
+      <c r="CD5" s="117"/>
       <c r="CE5" s="7"/>
       <c r="CF5" s="1"/>
       <c r="CG5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CH5" s="1"/>
-      <c r="CI5" s="112" t="str">
+      <c r="CI5" s="116" t="str">
         <f t="shared" ref="CI5:CI6" si="27">IF(ISBLANK(BY5),"",BY5)</f>
         <v/>
       </c>
-      <c r="CJ5" s="112"/>
+      <c r="CJ5" s="116"/>
       <c r="CK5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="CL5" s="1"/>
-      <c r="CM5" s="101" t="str">
+      <c r="CM5" s="117" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN5" s="101"/>
+      <c r="CN5" s="117"/>
       <c r="CO5" s="7"/>
       <c r="CP5" s="1"/>
       <c r="CQ5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="CR5" s="1"/>
-      <c r="CS5" s="112" t="str">
+      <c r="CS5" s="116" t="str">
         <f t="shared" ref="CS5:CS6" si="28">IF(ISBLANK(CI5),"",CI5)</f>
         <v/>
       </c>
-      <c r="CT5" s="112"/>
+      <c r="CT5" s="116"/>
       <c r="CU5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="CV5" s="1"/>
-      <c r="CW5" s="101" t="str">
+      <c r="CW5" s="117" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX5" s="101"/>
+      <c r="CX5" s="117"/>
       <c r="CY5" s="7"/>
       <c r="CZ5" s="1"/>
       <c r="DA5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="DB5" s="1"/>
-      <c r="DC5" s="112" t="str">
+      <c r="DC5" s="116" t="str">
         <f t="shared" ref="DC5:DC6" si="29">IF(ISBLANK(CS5),"",CS5)</f>
         <v/>
       </c>
-      <c r="DD5" s="112"/>
+      <c r="DD5" s="116"/>
       <c r="DE5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="DF5" s="1"/>
-      <c r="DG5" s="101" t="str">
+      <c r="DG5" s="117" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH5" s="101"/>
+      <c r="DH5" s="117"/>
       <c r="DI5" s="7"/>
     </row>
     <row r="6" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2614,214 +2618,214 @@
         <v>2</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
       <c r="I6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
       <c r="M6" s="7"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="100" t="str">
+      <c r="Q6" s="118" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="R6" s="100"/>
+      <c r="R6" s="118"/>
       <c r="S6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="101" t="str">
+      <c r="U6" s="117" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="V6" s="101"/>
+      <c r="V6" s="117"/>
       <c r="W6" s="7"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="100" t="str">
+      <c r="AA6" s="118" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="AB6" s="100"/>
+      <c r="AB6" s="118"/>
       <c r="AC6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AD6" s="1"/>
-      <c r="AE6" s="101" t="str">
+      <c r="AE6" s="117" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AF6" s="101"/>
+      <c r="AF6" s="117"/>
       <c r="AG6" s="7"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="100" t="str">
+      <c r="AK6" s="118" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="AL6" s="100"/>
+      <c r="AL6" s="118"/>
       <c r="AM6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AN6" s="1"/>
-      <c r="AO6" s="101" t="str">
+      <c r="AO6" s="117" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AP6" s="101"/>
+      <c r="AP6" s="117"/>
       <c r="AQ6" s="7"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="100" t="str">
+      <c r="AU6" s="118" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="AV6" s="100"/>
+      <c r="AV6" s="118"/>
       <c r="AW6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="AX6" s="1"/>
-      <c r="AY6" s="101" t="str">
+      <c r="AY6" s="117" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AZ6" s="101"/>
+      <c r="AZ6" s="117"/>
       <c r="BA6" s="7"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BD6" s="1"/>
-      <c r="BE6" s="100" t="str">
+      <c r="BE6" s="118" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BF6" s="100"/>
+      <c r="BF6" s="118"/>
       <c r="BG6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BH6" s="1"/>
-      <c r="BI6" s="101" t="str">
+      <c r="BI6" s="117" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ6" s="101"/>
+      <c r="BJ6" s="117"/>
       <c r="BK6" s="7"/>
       <c r="BL6" s="1"/>
       <c r="BM6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BN6" s="1"/>
-      <c r="BO6" s="100" t="str">
+      <c r="BO6" s="118" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BP6" s="100"/>
+      <c r="BP6" s="118"/>
       <c r="BQ6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="BR6" s="1"/>
-      <c r="BS6" s="101" t="str">
+      <c r="BS6" s="117" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BT6" s="101"/>
+      <c r="BT6" s="117"/>
       <c r="BU6" s="7"/>
       <c r="BV6" s="1"/>
       <c r="BW6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BX6" s="1"/>
-      <c r="BY6" s="100" t="str">
+      <c r="BY6" s="118" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BZ6" s="100"/>
+      <c r="BZ6" s="118"/>
       <c r="CA6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CB6" s="1"/>
-      <c r="CC6" s="101" t="str">
+      <c r="CC6" s="117" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="CD6" s="101"/>
+      <c r="CD6" s="117"/>
       <c r="CE6" s="7"/>
       <c r="CF6" s="1"/>
       <c r="CG6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CH6" s="1"/>
-      <c r="CI6" s="100" t="str">
+      <c r="CI6" s="118" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="CJ6" s="100"/>
+      <c r="CJ6" s="118"/>
       <c r="CK6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CL6" s="1"/>
-      <c r="CM6" s="101" t="str">
+      <c r="CM6" s="117" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="CN6" s="101"/>
+      <c r="CN6" s="117"/>
       <c r="CO6" s="7"/>
       <c r="CP6" s="1"/>
       <c r="CQ6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="CR6" s="1"/>
-      <c r="CS6" s="100" t="str">
+      <c r="CS6" s="118" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="CT6" s="100"/>
+      <c r="CT6" s="118"/>
       <c r="CU6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="CV6" s="1"/>
-      <c r="CW6" s="101" t="str">
+      <c r="CW6" s="117" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="CX6" s="101"/>
+      <c r="CX6" s="117"/>
       <c r="CY6" s="7"/>
       <c r="CZ6" s="1"/>
       <c r="DA6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="DB6" s="1"/>
-      <c r="DC6" s="100" t="str">
+      <c r="DC6" s="118" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="DD6" s="100"/>
+      <c r="DD6" s="118"/>
       <c r="DE6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="DF6" s="1"/>
-      <c r="DG6" s="101" t="str">
+      <c r="DG6" s="117" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="DH6" s="101"/>
+      <c r="DH6" s="117"/>
       <c r="DI6" s="7"/>
     </row>
     <row r="7" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2940,465 +2944,465 @@
       <c r="DI7" s="7"/>
     </row>
     <row r="8" spans="1:113" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="93"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="92"/>
-      <c r="AJ8" s="92"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="92"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="92"/>
-      <c r="BE8" s="92"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="92"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="92"/>
-      <c r="BL8" s="92"/>
-      <c r="BM8" s="92"/>
-      <c r="BN8" s="92"/>
-      <c r="BO8" s="92"/>
-      <c r="BP8" s="92"/>
-      <c r="BQ8" s="92"/>
-      <c r="BR8" s="92"/>
-      <c r="BS8" s="92"/>
-      <c r="BT8" s="92"/>
-      <c r="BU8" s="92"/>
-      <c r="BV8" s="92"/>
-      <c r="BW8" s="92"/>
-      <c r="BX8" s="92"/>
-      <c r="BY8" s="92"/>
-      <c r="BZ8" s="92"/>
-      <c r="CA8" s="92"/>
-      <c r="CB8" s="92"/>
-      <c r="CC8" s="92"/>
-      <c r="CD8" s="92"/>
-      <c r="CE8" s="92"/>
-      <c r="CF8" s="92"/>
-      <c r="CG8" s="92"/>
-      <c r="CH8" s="92"/>
-      <c r="CI8" s="92"/>
-      <c r="CJ8" s="92"/>
-      <c r="CK8" s="92"/>
-      <c r="CL8" s="92"/>
-      <c r="CM8" s="92"/>
-      <c r="CN8" s="92"/>
-      <c r="CO8" s="92"/>
-      <c r="CP8" s="92"/>
-      <c r="CQ8" s="92"/>
-      <c r="CR8" s="92"/>
-      <c r="CS8" s="92"/>
-      <c r="CT8" s="92"/>
-      <c r="CU8" s="92"/>
-      <c r="CV8" s="92"/>
-      <c r="CW8" s="92"/>
-      <c r="CX8" s="92"/>
-      <c r="CY8" s="92"/>
-      <c r="CZ8" s="92"/>
-      <c r="DA8" s="92"/>
-      <c r="DB8" s="92"/>
-      <c r="DC8" s="92"/>
-      <c r="DD8" s="92"/>
-      <c r="DE8" s="92"/>
-      <c r="DF8" s="92"/>
-      <c r="DG8" s="92"/>
-      <c r="DH8" s="92"/>
-      <c r="DI8" s="92"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="88"/>
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
+      <c r="BA8" s="88"/>
+      <c r="BB8" s="88"/>
+      <c r="BC8" s="88"/>
+      <c r="BD8" s="88"/>
+      <c r="BE8" s="88"/>
+      <c r="BF8" s="88"/>
+      <c r="BG8" s="88"/>
+      <c r="BH8" s="88"/>
+      <c r="BI8" s="88"/>
+      <c r="BJ8" s="88"/>
+      <c r="BK8" s="88"/>
+      <c r="BL8" s="88"/>
+      <c r="BM8" s="88"/>
+      <c r="BN8" s="88"/>
+      <c r="BO8" s="88"/>
+      <c r="BP8" s="88"/>
+      <c r="BQ8" s="88"/>
+      <c r="BR8" s="88"/>
+      <c r="BS8" s="88"/>
+      <c r="BT8" s="88"/>
+      <c r="BU8" s="88"/>
+      <c r="BV8" s="88"/>
+      <c r="BW8" s="88"/>
+      <c r="BX8" s="88"/>
+      <c r="BY8" s="88"/>
+      <c r="BZ8" s="88"/>
+      <c r="CA8" s="88"/>
+      <c r="CB8" s="88"/>
+      <c r="CC8" s="88"/>
+      <c r="CD8" s="88"/>
+      <c r="CE8" s="88"/>
+      <c r="CF8" s="88"/>
+      <c r="CG8" s="88"/>
+      <c r="CH8" s="88"/>
+      <c r="CI8" s="88"/>
+      <c r="CJ8" s="88"/>
+      <c r="CK8" s="88"/>
+      <c r="CL8" s="88"/>
+      <c r="CM8" s="88"/>
+      <c r="CN8" s="88"/>
+      <c r="CO8" s="88"/>
+      <c r="CP8" s="88"/>
+      <c r="CQ8" s="88"/>
+      <c r="CR8" s="88"/>
+      <c r="CS8" s="88"/>
+      <c r="CT8" s="88"/>
+      <c r="CU8" s="88"/>
+      <c r="CV8" s="88"/>
+      <c r="CW8" s="88"/>
+      <c r="CX8" s="88"/>
+      <c r="CY8" s="88"/>
+      <c r="CZ8" s="88"/>
+      <c r="DA8" s="88"/>
+      <c r="DB8" s="88"/>
+      <c r="DC8" s="88"/>
+      <c r="DD8" s="88"/>
+      <c r="DE8" s="88"/>
+      <c r="DF8" s="88"/>
+      <c r="DG8" s="88"/>
+      <c r="DH8" s="88"/>
+      <c r="DI8" s="88"/>
     </row>
     <row r="9" spans="1:113" s="20" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="120" t="s">
+      <c r="A9" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="122" t="s">
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="96" t="s">
+      <c r="G9" s="95"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="122" t="str">
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="98" t="str">
         <f>F9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="Q9" s="99" t="str">
+      <c r="Q9" s="95" t="str">
         <f>IF(G9="","",G9)</f>
         <v/>
       </c>
-      <c r="R9" s="92"/>
-      <c r="S9" s="96" t="s">
+      <c r="R9" s="88"/>
+      <c r="S9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="115" t="str">
+      <c r="T9" s="99" t="str">
         <f>IF(J9="","",J9)</f>
         <v/>
       </c>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="122" t="str">
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="98" t="str">
         <f>P9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="AA9" s="99" t="str">
+      <c r="AA9" s="95" t="str">
         <f>IF(Q9="","",Q9)</f>
         <v/>
       </c>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="96" t="s">
+      <c r="AB9" s="88"/>
+      <c r="AC9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AD9" s="115" t="str">
+      <c r="AD9" s="99" t="str">
         <f>IF(T9="","",T9)</f>
         <v/>
       </c>
-      <c r="AE9" s="115"/>
-      <c r="AF9" s="115"/>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="92"/>
-      <c r="AJ9" s="122" t="str">
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="99"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="88"/>
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="98" t="str">
         <f>Z9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="AK9" s="99" t="str">
+      <c r="AK9" s="95" t="str">
         <f>IF(AA9="","",AA9)</f>
         <v/>
       </c>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="96" t="s">
+      <c r="AL9" s="88"/>
+      <c r="AM9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AN9" s="115" t="str">
+      <c r="AN9" s="99" t="str">
         <f>IF(AD9="","",AD9)</f>
         <v/>
       </c>
-      <c r="AO9" s="115"/>
-      <c r="AP9" s="115"/>
-      <c r="AQ9" s="115"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="122" t="str">
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="99"/>
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="88"/>
+      <c r="AS9" s="88"/>
+      <c r="AT9" s="98" t="str">
         <f>AJ9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="AU9" s="99" t="str">
+      <c r="AU9" s="95" t="str">
         <f>IF(AK9="","",AK9)</f>
         <v/>
       </c>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="96" t="s">
+      <c r="AV9" s="88"/>
+      <c r="AW9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="AX9" s="115" t="str">
+      <c r="AX9" s="99" t="str">
         <f>IF(AN9="","",AN9)</f>
         <v/>
       </c>
-      <c r="AY9" s="115"/>
-      <c r="AZ9" s="115"/>
-      <c r="BA9" s="115"/>
-      <c r="BB9" s="92"/>
-      <c r="BC9" s="92"/>
-      <c r="BD9" s="122" t="str">
+      <c r="AY9" s="99"/>
+      <c r="AZ9" s="99"/>
+      <c r="BA9" s="99"/>
+      <c r="BB9" s="88"/>
+      <c r="BC9" s="88"/>
+      <c r="BD9" s="98" t="str">
         <f>AT9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="BE9" s="99" t="str">
+      <c r="BE9" s="95" t="str">
         <f>IF(AU9="","",AU9)</f>
         <v/>
       </c>
-      <c r="BF9" s="92"/>
-      <c r="BG9" s="96" t="s">
+      <c r="BF9" s="88"/>
+      <c r="BG9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="BH9" s="115" t="str">
+      <c r="BH9" s="99" t="str">
         <f>IF(AX9="","",AX9)</f>
         <v/>
       </c>
-      <c r="BI9" s="115"/>
-      <c r="BJ9" s="115"/>
-      <c r="BK9" s="115"/>
-      <c r="BL9" s="92"/>
-      <c r="BM9" s="92"/>
-      <c r="BN9" s="122" t="str">
+      <c r="BI9" s="99"/>
+      <c r="BJ9" s="99"/>
+      <c r="BK9" s="99"/>
+      <c r="BL9" s="88"/>
+      <c r="BM9" s="88"/>
+      <c r="BN9" s="98" t="str">
         <f>BD9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="BO9" s="99" t="str">
+      <c r="BO9" s="95" t="str">
         <f>IF(BE9="","",BE9)</f>
         <v/>
       </c>
-      <c r="BP9" s="92"/>
-      <c r="BQ9" s="96" t="s">
+      <c r="BP9" s="88"/>
+      <c r="BQ9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="BR9" s="115" t="str">
+      <c r="BR9" s="99" t="str">
         <f>IF(BH9="","",BH9)</f>
         <v/>
       </c>
-      <c r="BS9" s="115"/>
-      <c r="BT9" s="115"/>
-      <c r="BU9" s="115"/>
-      <c r="BV9" s="92"/>
-      <c r="BW9" s="92"/>
-      <c r="BX9" s="122" t="str">
+      <c r="BS9" s="99"/>
+      <c r="BT9" s="99"/>
+      <c r="BU9" s="99"/>
+      <c r="BV9" s="88"/>
+      <c r="BW9" s="88"/>
+      <c r="BX9" s="98" t="str">
         <f>BN9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="BY9" s="99" t="str">
+      <c r="BY9" s="95" t="str">
         <f>IF(BO9="","",BO9)</f>
         <v/>
       </c>
-      <c r="BZ9" s="92"/>
-      <c r="CA9" s="96" t="s">
+      <c r="BZ9" s="88"/>
+      <c r="CA9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="CB9" s="115" t="str">
+      <c r="CB9" s="99" t="str">
         <f>IF(BR9="","",BR9)</f>
         <v/>
       </c>
-      <c r="CC9" s="115"/>
-      <c r="CD9" s="115"/>
-      <c r="CE9" s="115"/>
-      <c r="CF9" s="92"/>
-      <c r="CG9" s="92"/>
-      <c r="CH9" s="122" t="str">
+      <c r="CC9" s="99"/>
+      <c r="CD9" s="99"/>
+      <c r="CE9" s="99"/>
+      <c r="CF9" s="88"/>
+      <c r="CG9" s="88"/>
+      <c r="CH9" s="98" t="str">
         <f>BX9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="CI9" s="99" t="str">
+      <c r="CI9" s="95" t="str">
         <f>IF(BY9="","",BY9)</f>
         <v/>
       </c>
-      <c r="CJ9" s="92"/>
-      <c r="CK9" s="96" t="s">
+      <c r="CJ9" s="88"/>
+      <c r="CK9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="CL9" s="115" t="str">
+      <c r="CL9" s="99" t="str">
         <f>IF(CB9="","",CB9)</f>
         <v/>
       </c>
-      <c r="CM9" s="115"/>
-      <c r="CN9" s="115"/>
-      <c r="CO9" s="115"/>
-      <c r="CP9" s="92"/>
-      <c r="CQ9" s="92"/>
-      <c r="CR9" s="122" t="str">
+      <c r="CM9" s="99"/>
+      <c r="CN9" s="99"/>
+      <c r="CO9" s="99"/>
+      <c r="CP9" s="88"/>
+      <c r="CQ9" s="88"/>
+      <c r="CR9" s="98" t="str">
         <f>CH9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="CS9" s="99" t="str">
+      <c r="CS9" s="95" t="str">
         <f>IF(CI9="","",CI9)</f>
         <v/>
       </c>
-      <c r="CT9" s="92"/>
-      <c r="CU9" s="96" t="s">
+      <c r="CT9" s="88"/>
+      <c r="CU9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="CV9" s="115" t="str">
+      <c r="CV9" s="99" t="str">
         <f>IF(CL9="","",CL9)</f>
         <v/>
       </c>
-      <c r="CW9" s="115"/>
-      <c r="CX9" s="115"/>
-      <c r="CY9" s="115"/>
-      <c r="CZ9" s="92"/>
-      <c r="DA9" s="92"/>
-      <c r="DB9" s="122" t="str">
+      <c r="CW9" s="99"/>
+      <c r="CX9" s="99"/>
+      <c r="CY9" s="99"/>
+      <c r="CZ9" s="88"/>
+      <c r="DA9" s="88"/>
+      <c r="DB9" s="98" t="str">
         <f>CR9</f>
         <v xml:space="preserve">Orientation change : </v>
       </c>
-      <c r="DC9" s="99" t="str">
+      <c r="DC9" s="95" t="str">
         <f>IF(CS9="","",CS9)</f>
         <v/>
       </c>
-      <c r="DD9" s="92"/>
-      <c r="DE9" s="96" t="s">
+      <c r="DD9" s="88"/>
+      <c r="DE9" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="DF9" s="115" t="str">
+      <c r="DF9" s="99" t="str">
         <f>IF(CV9="","",CV9)</f>
         <v/>
       </c>
-      <c r="DG9" s="115"/>
-      <c r="DH9" s="115"/>
-      <c r="DI9" s="115"/>
+      <c r="DG9" s="99"/>
+      <c r="DH9" s="99"/>
+      <c r="DI9" s="99"/>
     </row>
     <row r="10" spans="1:113" s="20" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="93"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-      <c r="AF10" s="92"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="92"/>
-      <c r="AJ10" s="92"/>
-      <c r="AK10" s="92"/>
-      <c r="AL10" s="92"/>
-      <c r="AM10" s="92"/>
-      <c r="AN10" s="92"/>
-      <c r="AO10" s="92"/>
-      <c r="AP10" s="92"/>
-      <c r="AQ10" s="92"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="92"/>
-      <c r="AW10" s="92"/>
-      <c r="AX10" s="92"/>
-      <c r="AY10" s="92"/>
-      <c r="AZ10" s="92"/>
-      <c r="BA10" s="92"/>
-      <c r="BB10" s="92"/>
-      <c r="BC10" s="92"/>
-      <c r="BD10" s="92"/>
-      <c r="BE10" s="92"/>
-      <c r="BF10" s="92"/>
-      <c r="BG10" s="92"/>
-      <c r="BH10" s="92"/>
-      <c r="BI10" s="92"/>
-      <c r="BJ10" s="92"/>
-      <c r="BK10" s="92"/>
-      <c r="BL10" s="92"/>
-      <c r="BM10" s="92"/>
-      <c r="BN10" s="92"/>
-      <c r="BO10" s="92"/>
-      <c r="BP10" s="92"/>
-      <c r="BQ10" s="92"/>
-      <c r="BR10" s="92"/>
-      <c r="BS10" s="92"/>
-      <c r="BT10" s="92"/>
-      <c r="BU10" s="92"/>
-      <c r="BV10" s="92"/>
-      <c r="BW10" s="92"/>
-      <c r="BX10" s="92"/>
-      <c r="BY10" s="92"/>
-      <c r="BZ10" s="92"/>
-      <c r="CA10" s="92"/>
-      <c r="CB10" s="92"/>
-      <c r="CC10" s="92"/>
-      <c r="CD10" s="92"/>
-      <c r="CE10" s="92"/>
-      <c r="CF10" s="92"/>
-      <c r="CG10" s="92"/>
-      <c r="CH10" s="92"/>
-      <c r="CI10" s="92"/>
-      <c r="CJ10" s="92"/>
-      <c r="CK10" s="92"/>
-      <c r="CL10" s="92"/>
-      <c r="CM10" s="92"/>
-      <c r="CN10" s="92"/>
-      <c r="CO10" s="92"/>
-      <c r="CP10" s="92"/>
-      <c r="CQ10" s="92"/>
-      <c r="CR10" s="92"/>
-      <c r="CS10" s="92"/>
-      <c r="CT10" s="92"/>
-      <c r="CU10" s="92"/>
-      <c r="CV10" s="92"/>
-      <c r="CW10" s="92"/>
-      <c r="CX10" s="92"/>
-      <c r="CY10" s="92"/>
-      <c r="CZ10" s="92"/>
-      <c r="DA10" s="92"/>
-      <c r="DB10" s="92"/>
-      <c r="DC10" s="92"/>
-      <c r="DD10" s="92"/>
-      <c r="DE10" s="92"/>
-      <c r="DF10" s="92"/>
-      <c r="DG10" s="92"/>
-      <c r="DH10" s="92"/>
-      <c r="DI10" s="92"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="88"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="88"/>
+      <c r="Z10" s="88"/>
+      <c r="AA10" s="88"/>
+      <c r="AB10" s="88"/>
+      <c r="AC10" s="88"/>
+      <c r="AD10" s="88"/>
+      <c r="AE10" s="88"/>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="88"/>
+      <c r="AJ10" s="88"/>
+      <c r="AK10" s="88"/>
+      <c r="AL10" s="88"/>
+      <c r="AM10" s="88"/>
+      <c r="AN10" s="88"/>
+      <c r="AO10" s="88"/>
+      <c r="AP10" s="88"/>
+      <c r="AQ10" s="88"/>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="88"/>
+      <c r="AT10" s="88"/>
+      <c r="AU10" s="88"/>
+      <c r="AV10" s="88"/>
+      <c r="AW10" s="88"/>
+      <c r="AX10" s="88"/>
+      <c r="AY10" s="88"/>
+      <c r="AZ10" s="88"/>
+      <c r="BA10" s="88"/>
+      <c r="BB10" s="88"/>
+      <c r="BC10" s="88"/>
+      <c r="BD10" s="88"/>
+      <c r="BE10" s="88"/>
+      <c r="BF10" s="88"/>
+      <c r="BG10" s="88"/>
+      <c r="BH10" s="88"/>
+      <c r="BI10" s="88"/>
+      <c r="BJ10" s="88"/>
+      <c r="BK10" s="88"/>
+      <c r="BL10" s="88"/>
+      <c r="BM10" s="88"/>
+      <c r="BN10" s="88"/>
+      <c r="BO10" s="88"/>
+      <c r="BP10" s="88"/>
+      <c r="BQ10" s="88"/>
+      <c r="BR10" s="88"/>
+      <c r="BS10" s="88"/>
+      <c r="BT10" s="88"/>
+      <c r="BU10" s="88"/>
+      <c r="BV10" s="88"/>
+      <c r="BW10" s="88"/>
+      <c r="BX10" s="88"/>
+      <c r="BY10" s="88"/>
+      <c r="BZ10" s="88"/>
+      <c r="CA10" s="88"/>
+      <c r="CB10" s="88"/>
+      <c r="CC10" s="88"/>
+      <c r="CD10" s="88"/>
+      <c r="CE10" s="88"/>
+      <c r="CF10" s="88"/>
+      <c r="CG10" s="88"/>
+      <c r="CH10" s="88"/>
+      <c r="CI10" s="88"/>
+      <c r="CJ10" s="88"/>
+      <c r="CK10" s="88"/>
+      <c r="CL10" s="88"/>
+      <c r="CM10" s="88"/>
+      <c r="CN10" s="88"/>
+      <c r="CO10" s="88"/>
+      <c r="CP10" s="88"/>
+      <c r="CQ10" s="88"/>
+      <c r="CR10" s="88"/>
+      <c r="CS10" s="88"/>
+      <c r="CT10" s="88"/>
+      <c r="CU10" s="88"/>
+      <c r="CV10" s="88"/>
+      <c r="CW10" s="88"/>
+      <c r="CX10" s="88"/>
+      <c r="CY10" s="88"/>
+      <c r="CZ10" s="88"/>
+      <c r="DA10" s="88"/>
+      <c r="DB10" s="88"/>
+      <c r="DC10" s="88"/>
+      <c r="DD10" s="88"/>
+      <c r="DE10" s="88"/>
+      <c r="DF10" s="88"/>
+      <c r="DG10" s="88"/>
+      <c r="DH10" s="88"/>
+      <c r="DI10" s="88"/>
     </row>
     <row r="11" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -3755,116 +3759,116 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="79"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
-      <c r="AC14" s="80"/>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="80"/>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="79"/>
-      <c r="AI14" s="79"/>
-      <c r="AJ14" s="80"/>
-      <c r="AK14" s="80"/>
-      <c r="AL14" s="80"/>
-      <c r="AM14" s="80"/>
-      <c r="AN14" s="80"/>
-      <c r="AO14" s="80"/>
-      <c r="AP14" s="80"/>
-      <c r="AQ14" s="80"/>
-      <c r="AR14" s="79"/>
-      <c r="AS14" s="79"/>
-      <c r="AT14" s="80"/>
-      <c r="AU14" s="80"/>
-      <c r="AV14" s="80"/>
-      <c r="AW14" s="80"/>
-      <c r="AX14" s="80"/>
-      <c r="AY14" s="80"/>
-      <c r="AZ14" s="80"/>
-      <c r="BA14" s="80"/>
-      <c r="BB14" s="79"/>
-      <c r="BC14" s="79"/>
-      <c r="BD14" s="80"/>
-      <c r="BE14" s="80"/>
-      <c r="BF14" s="80"/>
-      <c r="BG14" s="80"/>
-      <c r="BH14" s="80"/>
-      <c r="BI14" s="80"/>
-      <c r="BJ14" s="80"/>
-      <c r="BK14" s="80"/>
-      <c r="BL14" s="79"/>
-      <c r="BM14" s="79"/>
-      <c r="BN14" s="80"/>
-      <c r="BO14" s="80"/>
-      <c r="BP14" s="80"/>
-      <c r="BQ14" s="80"/>
-      <c r="BR14" s="80"/>
-      <c r="BS14" s="80"/>
-      <c r="BT14" s="80"/>
-      <c r="BU14" s="80"/>
-      <c r="BV14" s="79"/>
-      <c r="BW14" s="79"/>
-      <c r="BX14" s="80"/>
-      <c r="BY14" s="80"/>
-      <c r="BZ14" s="80"/>
-      <c r="CA14" s="80"/>
-      <c r="CB14" s="80"/>
-      <c r="CC14" s="80"/>
-      <c r="CD14" s="80"/>
-      <c r="CE14" s="80"/>
-      <c r="CF14" s="79"/>
-      <c r="CG14" s="79"/>
-      <c r="CH14" s="80"/>
-      <c r="CI14" s="80"/>
-      <c r="CJ14" s="80"/>
-      <c r="CK14" s="80"/>
-      <c r="CL14" s="80"/>
-      <c r="CM14" s="80"/>
-      <c r="CN14" s="80"/>
-      <c r="CO14" s="80"/>
-      <c r="CP14" s="79"/>
-      <c r="CQ14" s="79"/>
-      <c r="CR14" s="80"/>
-      <c r="CS14" s="80"/>
-      <c r="CT14" s="80"/>
-      <c r="CU14" s="80"/>
-      <c r="CV14" s="80"/>
-      <c r="CW14" s="80"/>
-      <c r="CX14" s="80"/>
-      <c r="CY14" s="80"/>
-      <c r="CZ14" s="79"/>
-      <c r="DA14" s="79"/>
-      <c r="DB14" s="80"/>
-      <c r="DC14" s="80"/>
-      <c r="DD14" s="80"/>
-      <c r="DE14" s="80"/>
-      <c r="DF14" s="80"/>
-      <c r="DG14" s="80"/>
-      <c r="DH14" s="80"/>
-      <c r="DI14" s="80"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="77"/>
+      <c r="AK14" s="77"/>
+      <c r="AL14" s="77"/>
+      <c r="AM14" s="77"/>
+      <c r="AN14" s="77"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="77"/>
+      <c r="AU14" s="77"/>
+      <c r="AV14" s="77"/>
+      <c r="AW14" s="77"/>
+      <c r="AX14" s="77"/>
+      <c r="AY14" s="77"/>
+      <c r="AZ14" s="77"/>
+      <c r="BA14" s="77"/>
+      <c r="BB14" s="76"/>
+      <c r="BC14" s="76"/>
+      <c r="BD14" s="77"/>
+      <c r="BE14" s="77"/>
+      <c r="BF14" s="77"/>
+      <c r="BG14" s="77"/>
+      <c r="BH14" s="77"/>
+      <c r="BI14" s="77"/>
+      <c r="BJ14" s="77"/>
+      <c r="BK14" s="77"/>
+      <c r="BL14" s="76"/>
+      <c r="BM14" s="76"/>
+      <c r="BN14" s="77"/>
+      <c r="BO14" s="77"/>
+      <c r="BP14" s="77"/>
+      <c r="BQ14" s="77"/>
+      <c r="BR14" s="77"/>
+      <c r="BS14" s="77"/>
+      <c r="BT14" s="77"/>
+      <c r="BU14" s="77"/>
+      <c r="BV14" s="76"/>
+      <c r="BW14" s="76"/>
+      <c r="BX14" s="77"/>
+      <c r="BY14" s="77"/>
+      <c r="BZ14" s="77"/>
+      <c r="CA14" s="77"/>
+      <c r="CB14" s="77"/>
+      <c r="CC14" s="77"/>
+      <c r="CD14" s="77"/>
+      <c r="CE14" s="77"/>
+      <c r="CF14" s="76"/>
+      <c r="CG14" s="76"/>
+      <c r="CH14" s="77"/>
+      <c r="CI14" s="77"/>
+      <c r="CJ14" s="77"/>
+      <c r="CK14" s="77"/>
+      <c r="CL14" s="77"/>
+      <c r="CM14" s="77"/>
+      <c r="CN14" s="77"/>
+      <c r="CO14" s="77"/>
+      <c r="CP14" s="76"/>
+      <c r="CQ14" s="76"/>
+      <c r="CR14" s="77"/>
+      <c r="CS14" s="77"/>
+      <c r="CT14" s="77"/>
+      <c r="CU14" s="77"/>
+      <c r="CV14" s="77"/>
+      <c r="CW14" s="77"/>
+      <c r="CX14" s="77"/>
+      <c r="CY14" s="77"/>
+      <c r="CZ14" s="76"/>
+      <c r="DA14" s="76"/>
+      <c r="DB14" s="77"/>
+      <c r="DC14" s="77"/>
+      <c r="DD14" s="77"/>
+      <c r="DE14" s="77"/>
+      <c r="DF14" s="77"/>
+      <c r="DG14" s="77"/>
+      <c r="DH14" s="77"/>
+      <c r="DI14" s="77"/>
     </row>
     <row r="15" spans="1:113" s="17" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
@@ -3872,116 +3876,116 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="79"/>
-      <c r="Z15" s="80"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
-      <c r="AC15" s="80"/>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="80"/>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="79"/>
-      <c r="AI15" s="79"/>
-      <c r="AJ15" s="80"/>
-      <c r="AK15" s="80"/>
-      <c r="AL15" s="80"/>
-      <c r="AM15" s="80"/>
-      <c r="AN15" s="80"/>
-      <c r="AO15" s="80"/>
-      <c r="AP15" s="80"/>
-      <c r="AQ15" s="80"/>
-      <c r="AR15" s="79"/>
-      <c r="AS15" s="79"/>
-      <c r="AT15" s="80"/>
-      <c r="AU15" s="80"/>
-      <c r="AV15" s="80"/>
-      <c r="AW15" s="80"/>
-      <c r="AX15" s="80"/>
-      <c r="AY15" s="80"/>
-      <c r="AZ15" s="80"/>
-      <c r="BA15" s="80"/>
-      <c r="BB15" s="79"/>
-      <c r="BC15" s="79"/>
-      <c r="BD15" s="80"/>
-      <c r="BE15" s="80"/>
-      <c r="BF15" s="80"/>
-      <c r="BG15" s="80"/>
-      <c r="BH15" s="80"/>
-      <c r="BI15" s="80"/>
-      <c r="BJ15" s="80"/>
-      <c r="BK15" s="80"/>
-      <c r="BL15" s="79"/>
-      <c r="BM15" s="79"/>
-      <c r="BN15" s="80"/>
-      <c r="BO15" s="80"/>
-      <c r="BP15" s="80"/>
-      <c r="BQ15" s="80"/>
-      <c r="BR15" s="80"/>
-      <c r="BS15" s="80"/>
-      <c r="BT15" s="80"/>
-      <c r="BU15" s="80"/>
-      <c r="BV15" s="79"/>
-      <c r="BW15" s="79"/>
-      <c r="BX15" s="80"/>
-      <c r="BY15" s="80"/>
-      <c r="BZ15" s="80"/>
-      <c r="CA15" s="80"/>
-      <c r="CB15" s="80"/>
-      <c r="CC15" s="80"/>
-      <c r="CD15" s="80"/>
-      <c r="CE15" s="80"/>
-      <c r="CF15" s="79"/>
-      <c r="CG15" s="79"/>
-      <c r="CH15" s="80"/>
-      <c r="CI15" s="80"/>
-      <c r="CJ15" s="80"/>
-      <c r="CK15" s="80"/>
-      <c r="CL15" s="80"/>
-      <c r="CM15" s="80"/>
-      <c r="CN15" s="80"/>
-      <c r="CO15" s="80"/>
-      <c r="CP15" s="79"/>
-      <c r="CQ15" s="79"/>
-      <c r="CR15" s="80"/>
-      <c r="CS15" s="80"/>
-      <c r="CT15" s="80"/>
-      <c r="CU15" s="80"/>
-      <c r="CV15" s="80"/>
-      <c r="CW15" s="80"/>
-      <c r="CX15" s="80"/>
-      <c r="CY15" s="80"/>
-      <c r="CZ15" s="79"/>
-      <c r="DA15" s="79"/>
-      <c r="DB15" s="80"/>
-      <c r="DC15" s="80"/>
-      <c r="DD15" s="80"/>
-      <c r="DE15" s="80"/>
-      <c r="DF15" s="80"/>
-      <c r="DG15" s="80"/>
-      <c r="DH15" s="80"/>
-      <c r="DI15" s="80"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="77"/>
+      <c r="AK15" s="77"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="77"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="77"/>
+      <c r="AU15" s="77"/>
+      <c r="AV15" s="77"/>
+      <c r="AW15" s="77"/>
+      <c r="AX15" s="77"/>
+      <c r="AY15" s="77"/>
+      <c r="AZ15" s="77"/>
+      <c r="BA15" s="77"/>
+      <c r="BB15" s="76"/>
+      <c r="BC15" s="76"/>
+      <c r="BD15" s="77"/>
+      <c r="BE15" s="77"/>
+      <c r="BF15" s="77"/>
+      <c r="BG15" s="77"/>
+      <c r="BH15" s="77"/>
+      <c r="BI15" s="77"/>
+      <c r="BJ15" s="77"/>
+      <c r="BK15" s="77"/>
+      <c r="BL15" s="76"/>
+      <c r="BM15" s="76"/>
+      <c r="BN15" s="77"/>
+      <c r="BO15" s="77"/>
+      <c r="BP15" s="77"/>
+      <c r="BQ15" s="77"/>
+      <c r="BR15" s="77"/>
+      <c r="BS15" s="77"/>
+      <c r="BT15" s="77"/>
+      <c r="BU15" s="77"/>
+      <c r="BV15" s="76"/>
+      <c r="BW15" s="76"/>
+      <c r="BX15" s="77"/>
+      <c r="BY15" s="77"/>
+      <c r="BZ15" s="77"/>
+      <c r="CA15" s="77"/>
+      <c r="CB15" s="77"/>
+      <c r="CC15" s="77"/>
+      <c r="CD15" s="77"/>
+      <c r="CE15" s="77"/>
+      <c r="CF15" s="76"/>
+      <c r="CG15" s="76"/>
+      <c r="CH15" s="77"/>
+      <c r="CI15" s="77"/>
+      <c r="CJ15" s="77"/>
+      <c r="CK15" s="77"/>
+      <c r="CL15" s="77"/>
+      <c r="CM15" s="77"/>
+      <c r="CN15" s="77"/>
+      <c r="CO15" s="77"/>
+      <c r="CP15" s="76"/>
+      <c r="CQ15" s="76"/>
+      <c r="CR15" s="77"/>
+      <c r="CS15" s="77"/>
+      <c r="CT15" s="77"/>
+      <c r="CU15" s="77"/>
+      <c r="CV15" s="77"/>
+      <c r="CW15" s="77"/>
+      <c r="CX15" s="77"/>
+      <c r="CY15" s="77"/>
+      <c r="CZ15" s="76"/>
+      <c r="DA15" s="76"/>
+      <c r="DB15" s="77"/>
+      <c r="DC15" s="77"/>
+      <c r="DD15" s="77"/>
+      <c r="DE15" s="77"/>
+      <c r="DF15" s="77"/>
+      <c r="DG15" s="77"/>
+      <c r="DH15" s="77"/>
+      <c r="DI15" s="77"/>
     </row>
     <row r="16" spans="1:113" s="20" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -3989,116 +3993,116 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="80"/>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="80"/>
-      <c r="AH16" s="79"/>
-      <c r="AI16" s="79"/>
-      <c r="AJ16" s="80"/>
-      <c r="AK16" s="80"/>
-      <c r="AL16" s="80"/>
-      <c r="AM16" s="80"/>
-      <c r="AN16" s="80"/>
-      <c r="AO16" s="80"/>
-      <c r="AP16" s="80"/>
-      <c r="AQ16" s="80"/>
-      <c r="AR16" s="79"/>
-      <c r="AS16" s="79"/>
-      <c r="AT16" s="80"/>
-      <c r="AU16" s="80"/>
-      <c r="AV16" s="80"/>
-      <c r="AW16" s="80"/>
-      <c r="AX16" s="80"/>
-      <c r="AY16" s="80"/>
-      <c r="AZ16" s="80"/>
-      <c r="BA16" s="80"/>
-      <c r="BB16" s="79"/>
-      <c r="BC16" s="79"/>
-      <c r="BD16" s="80"/>
-      <c r="BE16" s="80"/>
-      <c r="BF16" s="80"/>
-      <c r="BG16" s="80"/>
-      <c r="BH16" s="80"/>
-      <c r="BI16" s="80"/>
-      <c r="BJ16" s="80"/>
-      <c r="BK16" s="80"/>
-      <c r="BL16" s="79"/>
-      <c r="BM16" s="79"/>
-      <c r="BN16" s="80"/>
-      <c r="BO16" s="80"/>
-      <c r="BP16" s="80"/>
-      <c r="BQ16" s="80"/>
-      <c r="BR16" s="80"/>
-      <c r="BS16" s="80"/>
-      <c r="BT16" s="80"/>
-      <c r="BU16" s="80"/>
-      <c r="BV16" s="79"/>
-      <c r="BW16" s="79"/>
-      <c r="BX16" s="80"/>
-      <c r="BY16" s="80"/>
-      <c r="BZ16" s="80"/>
-      <c r="CA16" s="80"/>
-      <c r="CB16" s="80"/>
-      <c r="CC16" s="80"/>
-      <c r="CD16" s="80"/>
-      <c r="CE16" s="80"/>
-      <c r="CF16" s="79"/>
-      <c r="CG16" s="79"/>
-      <c r="CH16" s="80"/>
-      <c r="CI16" s="80"/>
-      <c r="CJ16" s="80"/>
-      <c r="CK16" s="80"/>
-      <c r="CL16" s="80"/>
-      <c r="CM16" s="80"/>
-      <c r="CN16" s="80"/>
-      <c r="CO16" s="80"/>
-      <c r="CP16" s="79"/>
-      <c r="CQ16" s="79"/>
-      <c r="CR16" s="80"/>
-      <c r="CS16" s="80"/>
-      <c r="CT16" s="80"/>
-      <c r="CU16" s="80"/>
-      <c r="CV16" s="80"/>
-      <c r="CW16" s="80"/>
-      <c r="CX16" s="80"/>
-      <c r="CY16" s="80"/>
-      <c r="CZ16" s="79"/>
-      <c r="DA16" s="79"/>
-      <c r="DB16" s="80"/>
-      <c r="DC16" s="80"/>
-      <c r="DD16" s="80"/>
-      <c r="DE16" s="80"/>
-      <c r="DF16" s="80"/>
-      <c r="DG16" s="80"/>
-      <c r="DH16" s="80"/>
-      <c r="DI16" s="80"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="77"/>
+      <c r="AK16" s="77"/>
+      <c r="AL16" s="77"/>
+      <c r="AM16" s="77"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="77"/>
+      <c r="AU16" s="77"/>
+      <c r="AV16" s="77"/>
+      <c r="AW16" s="77"/>
+      <c r="AX16" s="77"/>
+      <c r="AY16" s="77"/>
+      <c r="AZ16" s="77"/>
+      <c r="BA16" s="77"/>
+      <c r="BB16" s="76"/>
+      <c r="BC16" s="76"/>
+      <c r="BD16" s="77"/>
+      <c r="BE16" s="77"/>
+      <c r="BF16" s="77"/>
+      <c r="BG16" s="77"/>
+      <c r="BH16" s="77"/>
+      <c r="BI16" s="77"/>
+      <c r="BJ16" s="77"/>
+      <c r="BK16" s="77"/>
+      <c r="BL16" s="76"/>
+      <c r="BM16" s="76"/>
+      <c r="BN16" s="77"/>
+      <c r="BO16" s="77"/>
+      <c r="BP16" s="77"/>
+      <c r="BQ16" s="77"/>
+      <c r="BR16" s="77"/>
+      <c r="BS16" s="77"/>
+      <c r="BT16" s="77"/>
+      <c r="BU16" s="77"/>
+      <c r="BV16" s="76"/>
+      <c r="BW16" s="76"/>
+      <c r="BX16" s="77"/>
+      <c r="BY16" s="77"/>
+      <c r="BZ16" s="77"/>
+      <c r="CA16" s="77"/>
+      <c r="CB16" s="77"/>
+      <c r="CC16" s="77"/>
+      <c r="CD16" s="77"/>
+      <c r="CE16" s="77"/>
+      <c r="CF16" s="76"/>
+      <c r="CG16" s="76"/>
+      <c r="CH16" s="77"/>
+      <c r="CI16" s="77"/>
+      <c r="CJ16" s="77"/>
+      <c r="CK16" s="77"/>
+      <c r="CL16" s="77"/>
+      <c r="CM16" s="77"/>
+      <c r="CN16" s="77"/>
+      <c r="CO16" s="77"/>
+      <c r="CP16" s="76"/>
+      <c r="CQ16" s="76"/>
+      <c r="CR16" s="77"/>
+      <c r="CS16" s="77"/>
+      <c r="CT16" s="77"/>
+      <c r="CU16" s="77"/>
+      <c r="CV16" s="77"/>
+      <c r="CW16" s="77"/>
+      <c r="CX16" s="77"/>
+      <c r="CY16" s="77"/>
+      <c r="CZ16" s="76"/>
+      <c r="DA16" s="76"/>
+      <c r="DB16" s="77"/>
+      <c r="DC16" s="77"/>
+      <c r="DD16" s="77"/>
+      <c r="DE16" s="77"/>
+      <c r="DF16" s="77"/>
+      <c r="DG16" s="77"/>
+      <c r="DH16" s="77"/>
+      <c r="DI16" s="77"/>
     </row>
     <row r="17" spans="1:113" s="17" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
@@ -4106,233 +4110,233 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
-      <c r="AC17" s="80"/>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="80"/>
-      <c r="AF17" s="80"/>
-      <c r="AG17" s="80"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="80"/>
-      <c r="AK17" s="80"/>
-      <c r="AL17" s="80"/>
-      <c r="AM17" s="80"/>
-      <c r="AN17" s="80"/>
-      <c r="AO17" s="80"/>
-      <c r="AP17" s="80"/>
-      <c r="AQ17" s="80"/>
-      <c r="AR17" s="79"/>
-      <c r="AS17" s="79"/>
-      <c r="AT17" s="80"/>
-      <c r="AU17" s="80"/>
-      <c r="AV17" s="80"/>
-      <c r="AW17" s="80"/>
-      <c r="AX17" s="80"/>
-      <c r="AY17" s="80"/>
-      <c r="AZ17" s="80"/>
-      <c r="BA17" s="80"/>
-      <c r="BB17" s="79"/>
-      <c r="BC17" s="79"/>
-      <c r="BD17" s="80"/>
-      <c r="BE17" s="80"/>
-      <c r="BF17" s="80"/>
-      <c r="BG17" s="80"/>
-      <c r="BH17" s="80"/>
-      <c r="BI17" s="80"/>
-      <c r="BJ17" s="80"/>
-      <c r="BK17" s="80"/>
-      <c r="BL17" s="79"/>
-      <c r="BM17" s="79"/>
-      <c r="BN17" s="80"/>
-      <c r="BO17" s="80"/>
-      <c r="BP17" s="80"/>
-      <c r="BQ17" s="80"/>
-      <c r="BR17" s="80"/>
-      <c r="BS17" s="80"/>
-      <c r="BT17" s="80"/>
-      <c r="BU17" s="80"/>
-      <c r="BV17" s="79"/>
-      <c r="BW17" s="79"/>
-      <c r="BX17" s="80"/>
-      <c r="BY17" s="80"/>
-      <c r="BZ17" s="80"/>
-      <c r="CA17" s="80"/>
-      <c r="CB17" s="80"/>
-      <c r="CC17" s="80"/>
-      <c r="CD17" s="80"/>
-      <c r="CE17" s="80"/>
-      <c r="CF17" s="79"/>
-      <c r="CG17" s="79"/>
-      <c r="CH17" s="80"/>
-      <c r="CI17" s="80"/>
-      <c r="CJ17" s="80"/>
-      <c r="CK17" s="80"/>
-      <c r="CL17" s="80"/>
-      <c r="CM17" s="80"/>
-      <c r="CN17" s="80"/>
-      <c r="CO17" s="80"/>
-      <c r="CP17" s="79"/>
-      <c r="CQ17" s="79"/>
-      <c r="CR17" s="80"/>
-      <c r="CS17" s="80"/>
-      <c r="CT17" s="80"/>
-      <c r="CU17" s="80"/>
-      <c r="CV17" s="80"/>
-      <c r="CW17" s="80"/>
-      <c r="CX17" s="80"/>
-      <c r="CY17" s="80"/>
-      <c r="CZ17" s="79"/>
-      <c r="DA17" s="79"/>
-      <c r="DB17" s="80"/>
-      <c r="DC17" s="80"/>
-      <c r="DD17" s="80"/>
-      <c r="DE17" s="80"/>
-      <c r="DF17" s="80"/>
-      <c r="DG17" s="80"/>
-      <c r="DH17" s="80"/>
-      <c r="DI17" s="80"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="77"/>
+      <c r="AK17" s="77"/>
+      <c r="AL17" s="77"/>
+      <c r="AM17" s="77"/>
+      <c r="AN17" s="77"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="77"/>
+      <c r="AU17" s="77"/>
+      <c r="AV17" s="77"/>
+      <c r="AW17" s="77"/>
+      <c r="AX17" s="77"/>
+      <c r="AY17" s="77"/>
+      <c r="AZ17" s="77"/>
+      <c r="BA17" s="77"/>
+      <c r="BB17" s="76"/>
+      <c r="BC17" s="76"/>
+      <c r="BD17" s="77"/>
+      <c r="BE17" s="77"/>
+      <c r="BF17" s="77"/>
+      <c r="BG17" s="77"/>
+      <c r="BH17" s="77"/>
+      <c r="BI17" s="77"/>
+      <c r="BJ17" s="77"/>
+      <c r="BK17" s="77"/>
+      <c r="BL17" s="76"/>
+      <c r="BM17" s="76"/>
+      <c r="BN17" s="77"/>
+      <c r="BO17" s="77"/>
+      <c r="BP17" s="77"/>
+      <c r="BQ17" s="77"/>
+      <c r="BR17" s="77"/>
+      <c r="BS17" s="77"/>
+      <c r="BT17" s="77"/>
+      <c r="BU17" s="77"/>
+      <c r="BV17" s="76"/>
+      <c r="BW17" s="76"/>
+      <c r="BX17" s="77"/>
+      <c r="BY17" s="77"/>
+      <c r="BZ17" s="77"/>
+      <c r="CA17" s="77"/>
+      <c r="CB17" s="77"/>
+      <c r="CC17" s="77"/>
+      <c r="CD17" s="77"/>
+      <c r="CE17" s="77"/>
+      <c r="CF17" s="76"/>
+      <c r="CG17" s="76"/>
+      <c r="CH17" s="77"/>
+      <c r="CI17" s="77"/>
+      <c r="CJ17" s="77"/>
+      <c r="CK17" s="77"/>
+      <c r="CL17" s="77"/>
+      <c r="CM17" s="77"/>
+      <c r="CN17" s="77"/>
+      <c r="CO17" s="77"/>
+      <c r="CP17" s="76"/>
+      <c r="CQ17" s="76"/>
+      <c r="CR17" s="77"/>
+      <c r="CS17" s="77"/>
+      <c r="CT17" s="77"/>
+      <c r="CU17" s="77"/>
+      <c r="CV17" s="77"/>
+      <c r="CW17" s="77"/>
+      <c r="CX17" s="77"/>
+      <c r="CY17" s="77"/>
+      <c r="CZ17" s="76"/>
+      <c r="DA17" s="76"/>
+      <c r="DB17" s="77"/>
+      <c r="DC17" s="77"/>
+      <c r="DD17" s="77"/>
+      <c r="DE17" s="77"/>
+      <c r="DF17" s="77"/>
+      <c r="DG17" s="77"/>
+      <c r="DH17" s="77"/>
+      <c r="DI17" s="77"/>
     </row>
     <row r="18" spans="1:113" s="13" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="72" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="78"/>
-      <c r="R18" s="78"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
-      <c r="W18" s="78"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="78"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="78"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="78"/>
-      <c r="AG18" s="78"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="78"/>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="77"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="78"/>
-      <c r="AY18" s="78"/>
-      <c r="AZ18" s="78"/>
-      <c r="BA18" s="78"/>
-      <c r="BB18" s="77"/>
-      <c r="BC18" s="77"/>
-      <c r="BD18" s="78"/>
-      <c r="BE18" s="78"/>
-      <c r="BF18" s="78"/>
-      <c r="BG18" s="78"/>
-      <c r="BH18" s="78"/>
-      <c r="BI18" s="78"/>
-      <c r="BJ18" s="78"/>
-      <c r="BK18" s="78"/>
-      <c r="BL18" s="77"/>
-      <c r="BM18" s="77"/>
-      <c r="BN18" s="78"/>
-      <c r="BO18" s="78"/>
-      <c r="BP18" s="78"/>
-      <c r="BQ18" s="78"/>
-      <c r="BR18" s="78"/>
-      <c r="BS18" s="78"/>
-      <c r="BT18" s="78"/>
-      <c r="BU18" s="78"/>
-      <c r="BV18" s="77"/>
-      <c r="BW18" s="77"/>
-      <c r="BX18" s="78"/>
-      <c r="BY18" s="78"/>
-      <c r="BZ18" s="78"/>
-      <c r="CA18" s="78"/>
-      <c r="CB18" s="78"/>
-      <c r="CC18" s="78"/>
-      <c r="CD18" s="78"/>
-      <c r="CE18" s="78"/>
-      <c r="CF18" s="77"/>
-      <c r="CG18" s="77"/>
-      <c r="CH18" s="78"/>
-      <c r="CI18" s="78"/>
-      <c r="CJ18" s="78"/>
-      <c r="CK18" s="78"/>
-      <c r="CL18" s="78"/>
-      <c r="CM18" s="78"/>
-      <c r="CN18" s="78"/>
-      <c r="CO18" s="78"/>
-      <c r="CP18" s="77"/>
-      <c r="CQ18" s="77"/>
-      <c r="CR18" s="78"/>
-      <c r="CS18" s="78"/>
-      <c r="CT18" s="78"/>
-      <c r="CU18" s="78"/>
-      <c r="CV18" s="78"/>
-      <c r="CW18" s="78"/>
-      <c r="CX18" s="78"/>
-      <c r="CY18" s="78"/>
-      <c r="CZ18" s="77"/>
-      <c r="DA18" s="77"/>
-      <c r="DB18" s="78"/>
-      <c r="DC18" s="78"/>
-      <c r="DD18" s="78"/>
-      <c r="DE18" s="78"/>
-      <c r="DF18" s="78"/>
-      <c r="DG18" s="78"/>
-      <c r="DH18" s="78"/>
-      <c r="DI18" s="78"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="74"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="75"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="75"/>
+      <c r="AQ18" s="75"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="75"/>
+      <c r="AV18" s="75"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="75"/>
+      <c r="BA18" s="75"/>
+      <c r="BB18" s="74"/>
+      <c r="BC18" s="74"/>
+      <c r="BD18" s="75"/>
+      <c r="BE18" s="75"/>
+      <c r="BF18" s="75"/>
+      <c r="BG18" s="75"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
+      <c r="BJ18" s="75"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="74"/>
+      <c r="BM18" s="74"/>
+      <c r="BN18" s="75"/>
+      <c r="BO18" s="75"/>
+      <c r="BP18" s="75"/>
+      <c r="BQ18" s="75"/>
+      <c r="BR18" s="75"/>
+      <c r="BS18" s="75"/>
+      <c r="BT18" s="75"/>
+      <c r="BU18" s="75"/>
+      <c r="BV18" s="74"/>
+      <c r="BW18" s="74"/>
+      <c r="BX18" s="75"/>
+      <c r="BY18" s="75"/>
+      <c r="BZ18" s="75"/>
+      <c r="CA18" s="75"/>
+      <c r="CB18" s="75"/>
+      <c r="CC18" s="75"/>
+      <c r="CD18" s="75"/>
+      <c r="CE18" s="75"/>
+      <c r="CF18" s="74"/>
+      <c r="CG18" s="74"/>
+      <c r="CH18" s="75"/>
+      <c r="CI18" s="75"/>
+      <c r="CJ18" s="75"/>
+      <c r="CK18" s="75"/>
+      <c r="CL18" s="75"/>
+      <c r="CM18" s="75"/>
+      <c r="CN18" s="75"/>
+      <c r="CO18" s="75"/>
+      <c r="CP18" s="74"/>
+      <c r="CQ18" s="74"/>
+      <c r="CR18" s="75"/>
+      <c r="CS18" s="75"/>
+      <c r="CT18" s="75"/>
+      <c r="CU18" s="75"/>
+      <c r="CV18" s="75"/>
+      <c r="CW18" s="75"/>
+      <c r="CX18" s="75"/>
+      <c r="CY18" s="75"/>
+      <c r="CZ18" s="74"/>
+      <c r="DA18" s="74"/>
+      <c r="DB18" s="75"/>
+      <c r="DC18" s="75"/>
+      <c r="DD18" s="75"/>
+      <c r="DE18" s="75"/>
+      <c r="DF18" s="75"/>
+      <c r="DG18" s="75"/>
+      <c r="DH18" s="75"/>
+      <c r="DI18" s="75"/>
     </row>
     <row r="19" spans="1:113" s="20" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
@@ -4342,116 +4346,116 @@
       <c r="C19" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
-      <c r="AB19" s="81"/>
-      <c r="AC19" s="81"/>
-      <c r="AD19" s="81"/>
-      <c r="AE19" s="81"/>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
-      <c r="AI19" s="81"/>
-      <c r="AJ19" s="81"/>
-      <c r="AK19" s="81"/>
-      <c r="AL19" s="81"/>
-      <c r="AM19" s="81"/>
-      <c r="AN19" s="81"/>
-      <c r="AO19" s="81"/>
-      <c r="AP19" s="81"/>
-      <c r="AQ19" s="81"/>
-      <c r="AR19" s="81"/>
-      <c r="AS19" s="81"/>
-      <c r="AT19" s="81"/>
-      <c r="AU19" s="81"/>
-      <c r="AV19" s="81"/>
-      <c r="AW19" s="81"/>
-      <c r="AX19" s="81"/>
-      <c r="AY19" s="81"/>
-      <c r="AZ19" s="81"/>
-      <c r="BA19" s="81"/>
-      <c r="BB19" s="81"/>
-      <c r="BC19" s="81"/>
-      <c r="BD19" s="81"/>
-      <c r="BE19" s="81"/>
-      <c r="BF19" s="81"/>
-      <c r="BG19" s="81"/>
-      <c r="BH19" s="81"/>
-      <c r="BI19" s="81"/>
-      <c r="BJ19" s="81"/>
-      <c r="BK19" s="81"/>
-      <c r="BL19" s="81"/>
-      <c r="BM19" s="81"/>
-      <c r="BN19" s="81"/>
-      <c r="BO19" s="81"/>
-      <c r="BP19" s="81"/>
-      <c r="BQ19" s="81"/>
-      <c r="BR19" s="81"/>
-      <c r="BS19" s="81"/>
-      <c r="BT19" s="81"/>
-      <c r="BU19" s="81"/>
-      <c r="BV19" s="81"/>
-      <c r="BW19" s="81"/>
-      <c r="BX19" s="81"/>
-      <c r="BY19" s="81"/>
-      <c r="BZ19" s="81"/>
-      <c r="CA19" s="81"/>
-      <c r="CB19" s="81"/>
-      <c r="CC19" s="81"/>
-      <c r="CD19" s="81"/>
-      <c r="CE19" s="81"/>
-      <c r="CF19" s="81"/>
-      <c r="CG19" s="81"/>
-      <c r="CH19" s="81"/>
-      <c r="CI19" s="81"/>
-      <c r="CJ19" s="81"/>
-      <c r="CK19" s="81"/>
-      <c r="CL19" s="81"/>
-      <c r="CM19" s="81"/>
-      <c r="CN19" s="81"/>
-      <c r="CO19" s="81"/>
-      <c r="CP19" s="81"/>
-      <c r="CQ19" s="81"/>
-      <c r="CR19" s="81"/>
-      <c r="CS19" s="81"/>
-      <c r="CT19" s="81"/>
-      <c r="CU19" s="81"/>
-      <c r="CV19" s="81"/>
-      <c r="CW19" s="81"/>
-      <c r="CX19" s="81"/>
-      <c r="CY19" s="81"/>
-      <c r="CZ19" s="81"/>
-      <c r="DA19" s="81"/>
-      <c r="DB19" s="81"/>
-      <c r="DC19" s="81"/>
-      <c r="DD19" s="81"/>
-      <c r="DE19" s="81"/>
-      <c r="DF19" s="81"/>
-      <c r="DG19" s="81"/>
-      <c r="DH19" s="81"/>
-      <c r="DI19" s="81"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
+      <c r="T19" s="78"/>
+      <c r="U19" s="78"/>
+      <c r="V19" s="78"/>
+      <c r="W19" s="78"/>
+      <c r="X19" s="78"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="78"/>
+      <c r="AC19" s="78"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="78"/>
+      <c r="AG19" s="78"/>
+      <c r="AH19" s="78"/>
+      <c r="AI19" s="78"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="78"/>
+      <c r="AN19" s="78"/>
+      <c r="AO19" s="78"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="78"/>
+      <c r="AR19" s="78"/>
+      <c r="AS19" s="78"/>
+      <c r="AT19" s="78"/>
+      <c r="AU19" s="78"/>
+      <c r="AV19" s="78"/>
+      <c r="AW19" s="78"/>
+      <c r="AX19" s="78"/>
+      <c r="AY19" s="78"/>
+      <c r="AZ19" s="78"/>
+      <c r="BA19" s="78"/>
+      <c r="BB19" s="78"/>
+      <c r="BC19" s="78"/>
+      <c r="BD19" s="78"/>
+      <c r="BE19" s="78"/>
+      <c r="BF19" s="78"/>
+      <c r="BG19" s="78"/>
+      <c r="BH19" s="78"/>
+      <c r="BI19" s="78"/>
+      <c r="BJ19" s="78"/>
+      <c r="BK19" s="78"/>
+      <c r="BL19" s="78"/>
+      <c r="BM19" s="78"/>
+      <c r="BN19" s="78"/>
+      <c r="BO19" s="78"/>
+      <c r="BP19" s="78"/>
+      <c r="BQ19" s="78"/>
+      <c r="BR19" s="78"/>
+      <c r="BS19" s="78"/>
+      <c r="BT19" s="78"/>
+      <c r="BU19" s="78"/>
+      <c r="BV19" s="78"/>
+      <c r="BW19" s="78"/>
+      <c r="BX19" s="78"/>
+      <c r="BY19" s="78"/>
+      <c r="BZ19" s="78"/>
+      <c r="CA19" s="78"/>
+      <c r="CB19" s="78"/>
+      <c r="CC19" s="78"/>
+      <c r="CD19" s="78"/>
+      <c r="CE19" s="78"/>
+      <c r="CF19" s="78"/>
+      <c r="CG19" s="78"/>
+      <c r="CH19" s="78"/>
+      <c r="CI19" s="78"/>
+      <c r="CJ19" s="78"/>
+      <c r="CK19" s="78"/>
+      <c r="CL19" s="78"/>
+      <c r="CM19" s="78"/>
+      <c r="CN19" s="78"/>
+      <c r="CO19" s="78"/>
+      <c r="CP19" s="78"/>
+      <c r="CQ19" s="78"/>
+      <c r="CR19" s="78"/>
+      <c r="CS19" s="78"/>
+      <c r="CT19" s="78"/>
+      <c r="CU19" s="78"/>
+      <c r="CV19" s="78"/>
+      <c r="CW19" s="78"/>
+      <c r="CX19" s="78"/>
+      <c r="CY19" s="78"/>
+      <c r="CZ19" s="78"/>
+      <c r="DA19" s="78"/>
+      <c r="DB19" s="78"/>
+      <c r="DC19" s="78"/>
+      <c r="DD19" s="78"/>
+      <c r="DE19" s="78"/>
+      <c r="DF19" s="78"/>
+      <c r="DG19" s="78"/>
+      <c r="DH19" s="78"/>
+      <c r="DI19" s="78"/>
     </row>
     <row r="20" spans="1:113" s="20" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
@@ -4578,116 +4582,116 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-      <c r="X21" s="82"/>
-      <c r="Y21" s="82"/>
-      <c r="Z21" s="82"/>
-      <c r="AA21" s="82"/>
-      <c r="AB21" s="82"/>
-      <c r="AC21" s="82"/>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="82"/>
-      <c r="AF21" s="82"/>
-      <c r="AG21" s="82"/>
-      <c r="AH21" s="82"/>
-      <c r="AI21" s="82"/>
-      <c r="AJ21" s="82"/>
-      <c r="AK21" s="82"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="82"/>
-      <c r="AS21" s="82"/>
-      <c r="AT21" s="82"/>
-      <c r="AU21" s="82"/>
-      <c r="AV21" s="82"/>
-      <c r="AW21" s="82"/>
-      <c r="AX21" s="82"/>
-      <c r="AY21" s="82"/>
-      <c r="AZ21" s="82"/>
-      <c r="BA21" s="82"/>
-      <c r="BB21" s="82"/>
-      <c r="BC21" s="82"/>
-      <c r="BD21" s="82"/>
-      <c r="BE21" s="82"/>
-      <c r="BF21" s="82"/>
-      <c r="BG21" s="82"/>
-      <c r="BH21" s="82"/>
-      <c r="BI21" s="82"/>
-      <c r="BJ21" s="82"/>
-      <c r="BK21" s="82"/>
-      <c r="BL21" s="82"/>
-      <c r="BM21" s="82"/>
-      <c r="BN21" s="82"/>
-      <c r="BO21" s="82"/>
-      <c r="BP21" s="82"/>
-      <c r="BQ21" s="82"/>
-      <c r="BR21" s="82"/>
-      <c r="BS21" s="82"/>
-      <c r="BT21" s="82"/>
-      <c r="BU21" s="82"/>
-      <c r="BV21" s="82"/>
-      <c r="BW21" s="82"/>
-      <c r="BX21" s="82"/>
-      <c r="BY21" s="82"/>
-      <c r="BZ21" s="82"/>
-      <c r="CA21" s="82"/>
-      <c r="CB21" s="82"/>
-      <c r="CC21" s="82"/>
-      <c r="CD21" s="82"/>
-      <c r="CE21" s="82"/>
-      <c r="CF21" s="82"/>
-      <c r="CG21" s="82"/>
-      <c r="CH21" s="82"/>
-      <c r="CI21" s="82"/>
-      <c r="CJ21" s="82"/>
-      <c r="CK21" s="82"/>
-      <c r="CL21" s="82"/>
-      <c r="CM21" s="82"/>
-      <c r="CN21" s="82"/>
-      <c r="CO21" s="82"/>
-      <c r="CP21" s="82"/>
-      <c r="CQ21" s="82"/>
-      <c r="CR21" s="82"/>
-      <c r="CS21" s="82"/>
-      <c r="CT21" s="82"/>
-      <c r="CU21" s="82"/>
-      <c r="CV21" s="82"/>
-      <c r="CW21" s="82"/>
-      <c r="CX21" s="82"/>
-      <c r="CY21" s="82"/>
-      <c r="CZ21" s="82"/>
-      <c r="DA21" s="82"/>
-      <c r="DB21" s="82"/>
-      <c r="DC21" s="82"/>
-      <c r="DD21" s="82"/>
-      <c r="DE21" s="82"/>
-      <c r="DF21" s="82"/>
-      <c r="DG21" s="82"/>
-      <c r="DH21" s="82"/>
-      <c r="DI21" s="82"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="79"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
+      <c r="AG21" s="79"/>
+      <c r="AH21" s="79"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="79"/>
+      <c r="AK21" s="79"/>
+      <c r="AL21" s="79"/>
+      <c r="AM21" s="79"/>
+      <c r="AN21" s="79"/>
+      <c r="AO21" s="79"/>
+      <c r="AP21" s="79"/>
+      <c r="AQ21" s="79"/>
+      <c r="AR21" s="79"/>
+      <c r="AS21" s="79"/>
+      <c r="AT21" s="79"/>
+      <c r="AU21" s="79"/>
+      <c r="AV21" s="79"/>
+      <c r="AW21" s="79"/>
+      <c r="AX21" s="79"/>
+      <c r="AY21" s="79"/>
+      <c r="AZ21" s="79"/>
+      <c r="BA21" s="79"/>
+      <c r="BB21" s="79"/>
+      <c r="BC21" s="79"/>
+      <c r="BD21" s="79"/>
+      <c r="BE21" s="79"/>
+      <c r="BF21" s="79"/>
+      <c r="BG21" s="79"/>
+      <c r="BH21" s="79"/>
+      <c r="BI21" s="79"/>
+      <c r="BJ21" s="79"/>
+      <c r="BK21" s="79"/>
+      <c r="BL21" s="79"/>
+      <c r="BM21" s="79"/>
+      <c r="BN21" s="79"/>
+      <c r="BO21" s="79"/>
+      <c r="BP21" s="79"/>
+      <c r="BQ21" s="79"/>
+      <c r="BR21" s="79"/>
+      <c r="BS21" s="79"/>
+      <c r="BT21" s="79"/>
+      <c r="BU21" s="79"/>
+      <c r="BV21" s="79"/>
+      <c r="BW21" s="79"/>
+      <c r="BX21" s="79"/>
+      <c r="BY21" s="79"/>
+      <c r="BZ21" s="79"/>
+      <c r="CA21" s="79"/>
+      <c r="CB21" s="79"/>
+      <c r="CC21" s="79"/>
+      <c r="CD21" s="79"/>
+      <c r="CE21" s="79"/>
+      <c r="CF21" s="79"/>
+      <c r="CG21" s="79"/>
+      <c r="CH21" s="79"/>
+      <c r="CI21" s="79"/>
+      <c r="CJ21" s="79"/>
+      <c r="CK21" s="79"/>
+      <c r="CL21" s="79"/>
+      <c r="CM21" s="79"/>
+      <c r="CN21" s="79"/>
+      <c r="CO21" s="79"/>
+      <c r="CP21" s="79"/>
+      <c r="CQ21" s="79"/>
+      <c r="CR21" s="79"/>
+      <c r="CS21" s="79"/>
+      <c r="CT21" s="79"/>
+      <c r="CU21" s="79"/>
+      <c r="CV21" s="79"/>
+      <c r="CW21" s="79"/>
+      <c r="CX21" s="79"/>
+      <c r="CY21" s="79"/>
+      <c r="CZ21" s="79"/>
+      <c r="DA21" s="79"/>
+      <c r="DB21" s="79"/>
+      <c r="DC21" s="79"/>
+      <c r="DD21" s="79"/>
+      <c r="DE21" s="79"/>
+      <c r="DF21" s="79"/>
+      <c r="DG21" s="79"/>
+      <c r="DH21" s="79"/>
+      <c r="DI21" s="79"/>
     </row>
     <row r="22" spans="1:113" s="20" customFormat="1" ht="21.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
@@ -4809,123 +4813,123 @@
       <c r="DI22" s="12"/>
     </row>
     <row r="23" spans="1:113" s="26" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="97" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
-      <c r="R23" s="83"/>
-      <c r="S23" s="83"/>
-      <c r="T23" s="83"/>
-      <c r="U23" s="83"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="83"/>
-      <c r="Y23" s="83"/>
-      <c r="Z23" s="83"/>
-      <c r="AA23" s="83"/>
-      <c r="AB23" s="83"/>
-      <c r="AC23" s="83"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="83"/>
-      <c r="AJ23" s="83"/>
-      <c r="AK23" s="83"/>
-      <c r="AL23" s="83"/>
-      <c r="AM23" s="83"/>
-      <c r="AN23" s="83"/>
-      <c r="AO23" s="83"/>
-      <c r="AP23" s="83"/>
-      <c r="AQ23" s="83"/>
-      <c r="AR23" s="83"/>
-      <c r="AS23" s="83"/>
-      <c r="AT23" s="83"/>
-      <c r="AU23" s="83"/>
-      <c r="AV23" s="83"/>
-      <c r="AW23" s="83"/>
-      <c r="AX23" s="83"/>
-      <c r="AY23" s="83"/>
-      <c r="AZ23" s="83"/>
-      <c r="BA23" s="83"/>
-      <c r="BB23" s="83"/>
-      <c r="BC23" s="83"/>
-      <c r="BD23" s="83"/>
-      <c r="BE23" s="83"/>
-      <c r="BF23" s="83"/>
-      <c r="BG23" s="83"/>
-      <c r="BH23" s="83"/>
-      <c r="BI23" s="83"/>
-      <c r="BJ23" s="83"/>
-      <c r="BK23" s="83"/>
-      <c r="BL23" s="83"/>
-      <c r="BM23" s="83"/>
-      <c r="BN23" s="83"/>
-      <c r="BO23" s="83"/>
-      <c r="BP23" s="83"/>
-      <c r="BQ23" s="83"/>
-      <c r="BR23" s="83"/>
-      <c r="BS23" s="83"/>
-      <c r="BT23" s="83"/>
-      <c r="BU23" s="83"/>
-      <c r="BV23" s="83"/>
-      <c r="BW23" s="83"/>
-      <c r="BX23" s="83"/>
-      <c r="BY23" s="83"/>
-      <c r="BZ23" s="83"/>
-      <c r="CA23" s="83"/>
-      <c r="CB23" s="83"/>
-      <c r="CC23" s="83"/>
-      <c r="CD23" s="83"/>
-      <c r="CE23" s="83"/>
-      <c r="CF23" s="83"/>
-      <c r="CG23" s="83"/>
-      <c r="CH23" s="83"/>
-      <c r="CI23" s="83"/>
-      <c r="CJ23" s="83"/>
-      <c r="CK23" s="83"/>
-      <c r="CL23" s="83"/>
-      <c r="CM23" s="83"/>
-      <c r="CN23" s="83"/>
-      <c r="CO23" s="83"/>
-      <c r="CP23" s="83"/>
-      <c r="CQ23" s="83"/>
-      <c r="CR23" s="83"/>
-      <c r="CS23" s="83"/>
-      <c r="CT23" s="83"/>
-      <c r="CU23" s="83"/>
-      <c r="CV23" s="83"/>
-      <c r="CW23" s="83"/>
-      <c r="CX23" s="83"/>
-      <c r="CY23" s="83"/>
-      <c r="CZ23" s="83"/>
-      <c r="DA23" s="83"/>
-      <c r="DB23" s="83"/>
-      <c r="DC23" s="83"/>
-      <c r="DD23" s="83"/>
-      <c r="DE23" s="83"/>
-      <c r="DF23" s="83"/>
-      <c r="DG23" s="83"/>
-      <c r="DH23" s="83"/>
-      <c r="DI23" s="83"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="80"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="80"/>
+      <c r="U23" s="80"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="80"/>
+      <c r="Y23" s="80"/>
+      <c r="Z23" s="80"/>
+      <c r="AA23" s="80"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="80"/>
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="80"/>
+      <c r="AN23" s="80"/>
+      <c r="AO23" s="80"/>
+      <c r="AP23" s="80"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="80"/>
+      <c r="AS23" s="80"/>
+      <c r="AT23" s="80"/>
+      <c r="AU23" s="80"/>
+      <c r="AV23" s="80"/>
+      <c r="AW23" s="80"/>
+      <c r="AX23" s="80"/>
+      <c r="AY23" s="80"/>
+      <c r="AZ23" s="80"/>
+      <c r="BA23" s="80"/>
+      <c r="BB23" s="80"/>
+      <c r="BC23" s="80"/>
+      <c r="BD23" s="80"/>
+      <c r="BE23" s="80"/>
+      <c r="BF23" s="80"/>
+      <c r="BG23" s="80"/>
+      <c r="BH23" s="80"/>
+      <c r="BI23" s="80"/>
+      <c r="BJ23" s="80"/>
+      <c r="BK23" s="80"/>
+      <c r="BL23" s="80"/>
+      <c r="BM23" s="80"/>
+      <c r="BN23" s="80"/>
+      <c r="BO23" s="80"/>
+      <c r="BP23" s="80"/>
+      <c r="BQ23" s="80"/>
+      <c r="BR23" s="80"/>
+      <c r="BS23" s="80"/>
+      <c r="BT23" s="80"/>
+      <c r="BU23" s="80"/>
+      <c r="BV23" s="80"/>
+      <c r="BW23" s="80"/>
+      <c r="BX23" s="80"/>
+      <c r="BY23" s="80"/>
+      <c r="BZ23" s="80"/>
+      <c r="CA23" s="80"/>
+      <c r="CB23" s="80"/>
+      <c r="CC23" s="80"/>
+      <c r="CD23" s="80"/>
+      <c r="CE23" s="80"/>
+      <c r="CF23" s="80"/>
+      <c r="CG23" s="80"/>
+      <c r="CH23" s="80"/>
+      <c r="CI23" s="80"/>
+      <c r="CJ23" s="80"/>
+      <c r="CK23" s="80"/>
+      <c r="CL23" s="80"/>
+      <c r="CM23" s="80"/>
+      <c r="CN23" s="80"/>
+      <c r="CO23" s="80"/>
+      <c r="CP23" s="80"/>
+      <c r="CQ23" s="80"/>
+      <c r="CR23" s="80"/>
+      <c r="CS23" s="80"/>
+      <c r="CT23" s="80"/>
+      <c r="CU23" s="80"/>
+      <c r="CV23" s="80"/>
+      <c r="CW23" s="80"/>
+      <c r="CX23" s="80"/>
+      <c r="CY23" s="80"/>
+      <c r="CZ23" s="80"/>
+      <c r="DA23" s="80"/>
+      <c r="DB23" s="80"/>
+      <c r="DC23" s="80"/>
+      <c r="DD23" s="80"/>
+      <c r="DE23" s="80"/>
+      <c r="DF23" s="80"/>
+      <c r="DG23" s="80"/>
+      <c r="DH23" s="80"/>
+      <c r="DI23" s="80"/>
     </row>
     <row r="24" spans="1:113" s="26" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
@@ -4935,116 +4939,116 @@
       <c r="C24" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83"/>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83"/>
-      <c r="AE24" s="83"/>
-      <c r="AF24" s="83"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83"/>
-      <c r="AI24" s="83"/>
-      <c r="AJ24" s="83"/>
-      <c r="AK24" s="83"/>
-      <c r="AL24" s="83"/>
-      <c r="AM24" s="83"/>
-      <c r="AN24" s="83"/>
-      <c r="AO24" s="83"/>
-      <c r="AP24" s="83"/>
-      <c r="AQ24" s="83"/>
-      <c r="AR24" s="83"/>
-      <c r="AS24" s="83"/>
-      <c r="AT24" s="83"/>
-      <c r="AU24" s="83"/>
-      <c r="AV24" s="83"/>
-      <c r="AW24" s="83"/>
-      <c r="AX24" s="83"/>
-      <c r="AY24" s="83"/>
-      <c r="AZ24" s="83"/>
-      <c r="BA24" s="83"/>
-      <c r="BB24" s="83"/>
-      <c r="BC24" s="83"/>
-      <c r="BD24" s="83"/>
-      <c r="BE24" s="83"/>
-      <c r="BF24" s="83"/>
-      <c r="BG24" s="83"/>
-      <c r="BH24" s="83"/>
-      <c r="BI24" s="83"/>
-      <c r="BJ24" s="83"/>
-      <c r="BK24" s="83"/>
-      <c r="BL24" s="83"/>
-      <c r="BM24" s="83"/>
-      <c r="BN24" s="83"/>
-      <c r="BO24" s="83"/>
-      <c r="BP24" s="83"/>
-      <c r="BQ24" s="83"/>
-      <c r="BR24" s="83"/>
-      <c r="BS24" s="83"/>
-      <c r="BT24" s="83"/>
-      <c r="BU24" s="83"/>
-      <c r="BV24" s="83"/>
-      <c r="BW24" s="83"/>
-      <c r="BX24" s="83"/>
-      <c r="BY24" s="83"/>
-      <c r="BZ24" s="83"/>
-      <c r="CA24" s="83"/>
-      <c r="CB24" s="83"/>
-      <c r="CC24" s="83"/>
-      <c r="CD24" s="83"/>
-      <c r="CE24" s="83"/>
-      <c r="CF24" s="83"/>
-      <c r="CG24" s="83"/>
-      <c r="CH24" s="83"/>
-      <c r="CI24" s="83"/>
-      <c r="CJ24" s="83"/>
-      <c r="CK24" s="83"/>
-      <c r="CL24" s="83"/>
-      <c r="CM24" s="83"/>
-      <c r="CN24" s="83"/>
-      <c r="CO24" s="83"/>
-      <c r="CP24" s="83"/>
-      <c r="CQ24" s="83"/>
-      <c r="CR24" s="83"/>
-      <c r="CS24" s="83"/>
-      <c r="CT24" s="83"/>
-      <c r="CU24" s="83"/>
-      <c r="CV24" s="83"/>
-      <c r="CW24" s="83"/>
-      <c r="CX24" s="83"/>
-      <c r="CY24" s="83"/>
-      <c r="CZ24" s="83"/>
-      <c r="DA24" s="83"/>
-      <c r="DB24" s="83"/>
-      <c r="DC24" s="83"/>
-      <c r="DD24" s="83"/>
-      <c r="DE24" s="83"/>
-      <c r="DF24" s="83"/>
-      <c r="DG24" s="83"/>
-      <c r="DH24" s="83"/>
-      <c r="DI24" s="83"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="80"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="80"/>
+      <c r="U24" s="80"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="80"/>
+      <c r="X24" s="80"/>
+      <c r="Y24" s="80"/>
+      <c r="Z24" s="80"/>
+      <c r="AA24" s="80"/>
+      <c r="AB24" s="80"/>
+      <c r="AC24" s="80"/>
+      <c r="AD24" s="80"/>
+      <c r="AE24" s="80"/>
+      <c r="AF24" s="80"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="80"/>
+      <c r="AI24" s="80"/>
+      <c r="AJ24" s="80"/>
+      <c r="AK24" s="80"/>
+      <c r="AL24" s="80"/>
+      <c r="AM24" s="80"/>
+      <c r="AN24" s="80"/>
+      <c r="AO24" s="80"/>
+      <c r="AP24" s="80"/>
+      <c r="AQ24" s="80"/>
+      <c r="AR24" s="80"/>
+      <c r="AS24" s="80"/>
+      <c r="AT24" s="80"/>
+      <c r="AU24" s="80"/>
+      <c r="AV24" s="80"/>
+      <c r="AW24" s="80"/>
+      <c r="AX24" s="80"/>
+      <c r="AY24" s="80"/>
+      <c r="AZ24" s="80"/>
+      <c r="BA24" s="80"/>
+      <c r="BB24" s="80"/>
+      <c r="BC24" s="80"/>
+      <c r="BD24" s="80"/>
+      <c r="BE24" s="80"/>
+      <c r="BF24" s="80"/>
+      <c r="BG24" s="80"/>
+      <c r="BH24" s="80"/>
+      <c r="BI24" s="80"/>
+      <c r="BJ24" s="80"/>
+      <c r="BK24" s="80"/>
+      <c r="BL24" s="80"/>
+      <c r="BM24" s="80"/>
+      <c r="BN24" s="80"/>
+      <c r="BO24" s="80"/>
+      <c r="BP24" s="80"/>
+      <c r="BQ24" s="80"/>
+      <c r="BR24" s="80"/>
+      <c r="BS24" s="80"/>
+      <c r="BT24" s="80"/>
+      <c r="BU24" s="80"/>
+      <c r="BV24" s="80"/>
+      <c r="BW24" s="80"/>
+      <c r="BX24" s="80"/>
+      <c r="BY24" s="80"/>
+      <c r="BZ24" s="80"/>
+      <c r="CA24" s="80"/>
+      <c r="CB24" s="80"/>
+      <c r="CC24" s="80"/>
+      <c r="CD24" s="80"/>
+      <c r="CE24" s="80"/>
+      <c r="CF24" s="80"/>
+      <c r="CG24" s="80"/>
+      <c r="CH24" s="80"/>
+      <c r="CI24" s="80"/>
+      <c r="CJ24" s="80"/>
+      <c r="CK24" s="80"/>
+      <c r="CL24" s="80"/>
+      <c r="CM24" s="80"/>
+      <c r="CN24" s="80"/>
+      <c r="CO24" s="80"/>
+      <c r="CP24" s="80"/>
+      <c r="CQ24" s="80"/>
+      <c r="CR24" s="80"/>
+      <c r="CS24" s="80"/>
+      <c r="CT24" s="80"/>
+      <c r="CU24" s="80"/>
+      <c r="CV24" s="80"/>
+      <c r="CW24" s="80"/>
+      <c r="CX24" s="80"/>
+      <c r="CY24" s="80"/>
+      <c r="CZ24" s="80"/>
+      <c r="DA24" s="80"/>
+      <c r="DB24" s="80"/>
+      <c r="DC24" s="80"/>
+      <c r="DD24" s="80"/>
+      <c r="DE24" s="80"/>
+      <c r="DF24" s="80"/>
+      <c r="DG24" s="80"/>
+      <c r="DH24" s="80"/>
+      <c r="DI24" s="80"/>
     </row>
     <row r="25" spans="1:113" s="26" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52" t="s">
@@ -5054,116 +5058,116 @@
       <c r="C25" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-      <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
-      <c r="T25" s="84"/>
-      <c r="U25" s="84"/>
-      <c r="V25" s="84"/>
-      <c r="W25" s="84"/>
-      <c r="X25" s="84"/>
-      <c r="Y25" s="84"/>
-      <c r="Z25" s="84"/>
-      <c r="AA25" s="84"/>
-      <c r="AB25" s="84"/>
-      <c r="AC25" s="84"/>
-      <c r="AD25" s="84"/>
-      <c r="AE25" s="84"/>
-      <c r="AF25" s="84"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="84"/>
-      <c r="AJ25" s="84"/>
-      <c r="AK25" s="84"/>
-      <c r="AL25" s="84"/>
-      <c r="AM25" s="84"/>
-      <c r="AN25" s="84"/>
-      <c r="AO25" s="84"/>
-      <c r="AP25" s="84"/>
-      <c r="AQ25" s="84"/>
-      <c r="AR25" s="84"/>
-      <c r="AS25" s="84"/>
-      <c r="AT25" s="84"/>
-      <c r="AU25" s="84"/>
-      <c r="AV25" s="84"/>
-      <c r="AW25" s="84"/>
-      <c r="AX25" s="84"/>
-      <c r="AY25" s="84"/>
-      <c r="AZ25" s="84"/>
-      <c r="BA25" s="84"/>
-      <c r="BB25" s="84"/>
-      <c r="BC25" s="84"/>
-      <c r="BD25" s="84"/>
-      <c r="BE25" s="84"/>
-      <c r="BF25" s="84"/>
-      <c r="BG25" s="84"/>
-      <c r="BH25" s="84"/>
-      <c r="BI25" s="84"/>
-      <c r="BJ25" s="84"/>
-      <c r="BK25" s="84"/>
-      <c r="BL25" s="84"/>
-      <c r="BM25" s="84"/>
-      <c r="BN25" s="84"/>
-      <c r="BO25" s="84"/>
-      <c r="BP25" s="84"/>
-      <c r="BQ25" s="84"/>
-      <c r="BR25" s="84"/>
-      <c r="BS25" s="84"/>
-      <c r="BT25" s="84"/>
-      <c r="BU25" s="84"/>
-      <c r="BV25" s="84"/>
-      <c r="BW25" s="84"/>
-      <c r="BX25" s="84"/>
-      <c r="BY25" s="84"/>
-      <c r="BZ25" s="84"/>
-      <c r="CA25" s="84"/>
-      <c r="CB25" s="84"/>
-      <c r="CC25" s="84"/>
-      <c r="CD25" s="84"/>
-      <c r="CE25" s="84"/>
-      <c r="CF25" s="84"/>
-      <c r="CG25" s="84"/>
-      <c r="CH25" s="84"/>
-      <c r="CI25" s="84"/>
-      <c r="CJ25" s="84"/>
-      <c r="CK25" s="84"/>
-      <c r="CL25" s="84"/>
-      <c r="CM25" s="84"/>
-      <c r="CN25" s="84"/>
-      <c r="CO25" s="84"/>
-      <c r="CP25" s="84"/>
-      <c r="CQ25" s="84"/>
-      <c r="CR25" s="84"/>
-      <c r="CS25" s="84"/>
-      <c r="CT25" s="84"/>
-      <c r="CU25" s="84"/>
-      <c r="CV25" s="84"/>
-      <c r="CW25" s="84"/>
-      <c r="CX25" s="84"/>
-      <c r="CY25" s="84"/>
-      <c r="CZ25" s="84"/>
-      <c r="DA25" s="84"/>
-      <c r="DB25" s="84"/>
-      <c r="DC25" s="84"/>
-      <c r="DD25" s="84"/>
-      <c r="DE25" s="84"/>
-      <c r="DF25" s="84"/>
-      <c r="DG25" s="84"/>
-      <c r="DH25" s="84"/>
-      <c r="DI25" s="84"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="81"/>
+      <c r="X25" s="81"/>
+      <c r="Y25" s="81"/>
+      <c r="Z25" s="81"/>
+      <c r="AA25" s="81"/>
+      <c r="AB25" s="81"/>
+      <c r="AC25" s="81"/>
+      <c r="AD25" s="81"/>
+      <c r="AE25" s="81"/>
+      <c r="AF25" s="81"/>
+      <c r="AG25" s="81"/>
+      <c r="AH25" s="81"/>
+      <c r="AI25" s="81"/>
+      <c r="AJ25" s="81"/>
+      <c r="AK25" s="81"/>
+      <c r="AL25" s="81"/>
+      <c r="AM25" s="81"/>
+      <c r="AN25" s="81"/>
+      <c r="AO25" s="81"/>
+      <c r="AP25" s="81"/>
+      <c r="AQ25" s="81"/>
+      <c r="AR25" s="81"/>
+      <c r="AS25" s="81"/>
+      <c r="AT25" s="81"/>
+      <c r="AU25" s="81"/>
+      <c r="AV25" s="81"/>
+      <c r="AW25" s="81"/>
+      <c r="AX25" s="81"/>
+      <c r="AY25" s="81"/>
+      <c r="AZ25" s="81"/>
+      <c r="BA25" s="81"/>
+      <c r="BB25" s="81"/>
+      <c r="BC25" s="81"/>
+      <c r="BD25" s="81"/>
+      <c r="BE25" s="81"/>
+      <c r="BF25" s="81"/>
+      <c r="BG25" s="81"/>
+      <c r="BH25" s="81"/>
+      <c r="BI25" s="81"/>
+      <c r="BJ25" s="81"/>
+      <c r="BK25" s="81"/>
+      <c r="BL25" s="81"/>
+      <c r="BM25" s="81"/>
+      <c r="BN25" s="81"/>
+      <c r="BO25" s="81"/>
+      <c r="BP25" s="81"/>
+      <c r="BQ25" s="81"/>
+      <c r="BR25" s="81"/>
+      <c r="BS25" s="81"/>
+      <c r="BT25" s="81"/>
+      <c r="BU25" s="81"/>
+      <c r="BV25" s="81"/>
+      <c r="BW25" s="81"/>
+      <c r="BX25" s="81"/>
+      <c r="BY25" s="81"/>
+      <c r="BZ25" s="81"/>
+      <c r="CA25" s="81"/>
+      <c r="CB25" s="81"/>
+      <c r="CC25" s="81"/>
+      <c r="CD25" s="81"/>
+      <c r="CE25" s="81"/>
+      <c r="CF25" s="81"/>
+      <c r="CG25" s="81"/>
+      <c r="CH25" s="81"/>
+      <c r="CI25" s="81"/>
+      <c r="CJ25" s="81"/>
+      <c r="CK25" s="81"/>
+      <c r="CL25" s="81"/>
+      <c r="CM25" s="81"/>
+      <c r="CN25" s="81"/>
+      <c r="CO25" s="81"/>
+      <c r="CP25" s="81"/>
+      <c r="CQ25" s="81"/>
+      <c r="CR25" s="81"/>
+      <c r="CS25" s="81"/>
+      <c r="CT25" s="81"/>
+      <c r="CU25" s="81"/>
+      <c r="CV25" s="81"/>
+      <c r="CW25" s="81"/>
+      <c r="CX25" s="81"/>
+      <c r="CY25" s="81"/>
+      <c r="CZ25" s="81"/>
+      <c r="DA25" s="81"/>
+      <c r="DB25" s="81"/>
+      <c r="DC25" s="81"/>
+      <c r="DD25" s="81"/>
+      <c r="DE25" s="81"/>
+      <c r="DF25" s="81"/>
+      <c r="DG25" s="81"/>
+      <c r="DH25" s="81"/>
+      <c r="DI25" s="81"/>
     </row>
     <row r="26" spans="1:113" s="67" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="64" t="s">
@@ -5171,116 +5175,116 @@
       </c>
       <c r="B26" s="65"/>
       <c r="C26" s="66"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="85"/>
-      <c r="X26" s="85"/>
-      <c r="Y26" s="85"/>
-      <c r="Z26" s="85"/>
-      <c r="AA26" s="85"/>
-      <c r="AB26" s="85"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="85"/>
-      <c r="AE26" s="85"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="85"/>
-      <c r="AL26" s="85"/>
-      <c r="AM26" s="85"/>
-      <c r="AN26" s="85"/>
-      <c r="AO26" s="85"/>
-      <c r="AP26" s="85"/>
-      <c r="AQ26" s="85"/>
-      <c r="AR26" s="85"/>
-      <c r="AS26" s="85"/>
-      <c r="AT26" s="85"/>
-      <c r="AU26" s="85"/>
-      <c r="AV26" s="85"/>
-      <c r="AW26" s="85"/>
-      <c r="AX26" s="85"/>
-      <c r="AY26" s="85"/>
-      <c r="AZ26" s="85"/>
-      <c r="BA26" s="85"/>
-      <c r="BB26" s="85"/>
-      <c r="BC26" s="85"/>
-      <c r="BD26" s="85"/>
-      <c r="BE26" s="85"/>
-      <c r="BF26" s="85"/>
-      <c r="BG26" s="85"/>
-      <c r="BH26" s="85"/>
-      <c r="BI26" s="85"/>
-      <c r="BJ26" s="85"/>
-      <c r="BK26" s="85"/>
-      <c r="BL26" s="85"/>
-      <c r="BM26" s="85"/>
-      <c r="BN26" s="85"/>
-      <c r="BO26" s="85"/>
-      <c r="BP26" s="85"/>
-      <c r="BQ26" s="85"/>
-      <c r="BR26" s="85"/>
-      <c r="BS26" s="85"/>
-      <c r="BT26" s="85"/>
-      <c r="BU26" s="85"/>
-      <c r="BV26" s="85"/>
-      <c r="BW26" s="85"/>
-      <c r="BX26" s="85"/>
-      <c r="BY26" s="85"/>
-      <c r="BZ26" s="85"/>
-      <c r="CA26" s="85"/>
-      <c r="CB26" s="85"/>
-      <c r="CC26" s="85"/>
-      <c r="CD26" s="85"/>
-      <c r="CE26" s="85"/>
-      <c r="CF26" s="85"/>
-      <c r="CG26" s="85"/>
-      <c r="CH26" s="85"/>
-      <c r="CI26" s="85"/>
-      <c r="CJ26" s="85"/>
-      <c r="CK26" s="85"/>
-      <c r="CL26" s="85"/>
-      <c r="CM26" s="85"/>
-      <c r="CN26" s="85"/>
-      <c r="CO26" s="85"/>
-      <c r="CP26" s="85"/>
-      <c r="CQ26" s="85"/>
-      <c r="CR26" s="85"/>
-      <c r="CS26" s="85"/>
-      <c r="CT26" s="85"/>
-      <c r="CU26" s="85"/>
-      <c r="CV26" s="85"/>
-      <c r="CW26" s="85"/>
-      <c r="CX26" s="85"/>
-      <c r="CY26" s="85"/>
-      <c r="CZ26" s="85"/>
-      <c r="DA26" s="85"/>
-      <c r="DB26" s="85"/>
-      <c r="DC26" s="85"/>
-      <c r="DD26" s="85"/>
-      <c r="DE26" s="85"/>
-      <c r="DF26" s="85"/>
-      <c r="DG26" s="85"/>
-      <c r="DH26" s="85"/>
-      <c r="DI26" s="85"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="82"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="82"/>
+      <c r="AM26" s="82"/>
+      <c r="AN26" s="82"/>
+      <c r="AO26" s="82"/>
+      <c r="AP26" s="82"/>
+      <c r="AQ26" s="82"/>
+      <c r="AR26" s="82"/>
+      <c r="AS26" s="82"/>
+      <c r="AT26" s="82"/>
+      <c r="AU26" s="82"/>
+      <c r="AV26" s="82"/>
+      <c r="AW26" s="82"/>
+      <c r="AX26" s="82"/>
+      <c r="AY26" s="82"/>
+      <c r="AZ26" s="82"/>
+      <c r="BA26" s="82"/>
+      <c r="BB26" s="82"/>
+      <c r="BC26" s="82"/>
+      <c r="BD26" s="82"/>
+      <c r="BE26" s="82"/>
+      <c r="BF26" s="82"/>
+      <c r="BG26" s="82"/>
+      <c r="BH26" s="82"/>
+      <c r="BI26" s="82"/>
+      <c r="BJ26" s="82"/>
+      <c r="BK26" s="82"/>
+      <c r="BL26" s="82"/>
+      <c r="BM26" s="82"/>
+      <c r="BN26" s="82"/>
+      <c r="BO26" s="82"/>
+      <c r="BP26" s="82"/>
+      <c r="BQ26" s="82"/>
+      <c r="BR26" s="82"/>
+      <c r="BS26" s="82"/>
+      <c r="BT26" s="82"/>
+      <c r="BU26" s="82"/>
+      <c r="BV26" s="82"/>
+      <c r="BW26" s="82"/>
+      <c r="BX26" s="82"/>
+      <c r="BY26" s="82"/>
+      <c r="BZ26" s="82"/>
+      <c r="CA26" s="82"/>
+      <c r="CB26" s="82"/>
+      <c r="CC26" s="82"/>
+      <c r="CD26" s="82"/>
+      <c r="CE26" s="82"/>
+      <c r="CF26" s="82"/>
+      <c r="CG26" s="82"/>
+      <c r="CH26" s="82"/>
+      <c r="CI26" s="82"/>
+      <c r="CJ26" s="82"/>
+      <c r="CK26" s="82"/>
+      <c r="CL26" s="82"/>
+      <c r="CM26" s="82"/>
+      <c r="CN26" s="82"/>
+      <c r="CO26" s="82"/>
+      <c r="CP26" s="82"/>
+      <c r="CQ26" s="82"/>
+      <c r="CR26" s="82"/>
+      <c r="CS26" s="82"/>
+      <c r="CT26" s="82"/>
+      <c r="CU26" s="82"/>
+      <c r="CV26" s="82"/>
+      <c r="CW26" s="82"/>
+      <c r="CX26" s="82"/>
+      <c r="CY26" s="82"/>
+      <c r="CZ26" s="82"/>
+      <c r="DA26" s="82"/>
+      <c r="DB26" s="82"/>
+      <c r="DC26" s="82"/>
+      <c r="DD26" s="82"/>
+      <c r="DE26" s="82"/>
+      <c r="DF26" s="82"/>
+      <c r="DG26" s="82"/>
+      <c r="DH26" s="82"/>
+      <c r="DI26" s="82"/>
     </row>
     <row r="27" spans="1:113" s="20" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
@@ -5288,116 +5292,116 @@
       </c>
       <c r="B27" s="49"/>
       <c r="C27" s="48"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="86"/>
-      <c r="AE27" s="86"/>
-      <c r="AF27" s="86"/>
-      <c r="AG27" s="86"/>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="86"/>
-      <c r="AJ27" s="86"/>
-      <c r="AK27" s="86"/>
-      <c r="AL27" s="86"/>
-      <c r="AM27" s="86"/>
-      <c r="AN27" s="86"/>
-      <c r="AO27" s="86"/>
-      <c r="AP27" s="86"/>
-      <c r="AQ27" s="86"/>
-      <c r="AR27" s="86"/>
-      <c r="AS27" s="86"/>
-      <c r="AT27" s="86"/>
-      <c r="AU27" s="86"/>
-      <c r="AV27" s="86"/>
-      <c r="AW27" s="86"/>
-      <c r="AX27" s="86"/>
-      <c r="AY27" s="86"/>
-      <c r="AZ27" s="86"/>
-      <c r="BA27" s="86"/>
-      <c r="BB27" s="86"/>
-      <c r="BC27" s="86"/>
-      <c r="BD27" s="86"/>
-      <c r="BE27" s="86"/>
-      <c r="BF27" s="86"/>
-      <c r="BG27" s="86"/>
-      <c r="BH27" s="86"/>
-      <c r="BI27" s="86"/>
-      <c r="BJ27" s="86"/>
-      <c r="BK27" s="86"/>
-      <c r="BL27" s="86"/>
-      <c r="BM27" s="86"/>
-      <c r="BN27" s="86"/>
-      <c r="BO27" s="86"/>
-      <c r="BP27" s="86"/>
-      <c r="BQ27" s="86"/>
-      <c r="BR27" s="86"/>
-      <c r="BS27" s="86"/>
-      <c r="BT27" s="86"/>
-      <c r="BU27" s="86"/>
-      <c r="BV27" s="86"/>
-      <c r="BW27" s="86"/>
-      <c r="BX27" s="86"/>
-      <c r="BY27" s="86"/>
-      <c r="BZ27" s="86"/>
-      <c r="CA27" s="86"/>
-      <c r="CB27" s="86"/>
-      <c r="CC27" s="86"/>
-      <c r="CD27" s="86"/>
-      <c r="CE27" s="86"/>
-      <c r="CF27" s="86"/>
-      <c r="CG27" s="86"/>
-      <c r="CH27" s="86"/>
-      <c r="CI27" s="86"/>
-      <c r="CJ27" s="86"/>
-      <c r="CK27" s="86"/>
-      <c r="CL27" s="86"/>
-      <c r="CM27" s="86"/>
-      <c r="CN27" s="86"/>
-      <c r="CO27" s="86"/>
-      <c r="CP27" s="86"/>
-      <c r="CQ27" s="86"/>
-      <c r="CR27" s="86"/>
-      <c r="CS27" s="86"/>
-      <c r="CT27" s="86"/>
-      <c r="CU27" s="86"/>
-      <c r="CV27" s="86"/>
-      <c r="CW27" s="86"/>
-      <c r="CX27" s="86"/>
-      <c r="CY27" s="86"/>
-      <c r="CZ27" s="86"/>
-      <c r="DA27" s="86"/>
-      <c r="DB27" s="86"/>
-      <c r="DC27" s="86"/>
-      <c r="DD27" s="86"/>
-      <c r="DE27" s="86"/>
-      <c r="DF27" s="86"/>
-      <c r="DG27" s="86"/>
-      <c r="DH27" s="86"/>
-      <c r="DI27" s="86"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="83"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="83"/>
+      <c r="O27" s="83"/>
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83"/>
+      <c r="R27" s="83"/>
+      <c r="S27" s="83"/>
+      <c r="T27" s="83"/>
+      <c r="U27" s="83"/>
+      <c r="V27" s="83"/>
+      <c r="W27" s="83"/>
+      <c r="X27" s="83"/>
+      <c r="Y27" s="83"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="83"/>
+      <c r="AB27" s="83"/>
+      <c r="AC27" s="83"/>
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="83"/>
+      <c r="AF27" s="83"/>
+      <c r="AG27" s="83"/>
+      <c r="AH27" s="83"/>
+      <c r="AI27" s="83"/>
+      <c r="AJ27" s="83"/>
+      <c r="AK27" s="83"/>
+      <c r="AL27" s="83"/>
+      <c r="AM27" s="83"/>
+      <c r="AN27" s="83"/>
+      <c r="AO27" s="83"/>
+      <c r="AP27" s="83"/>
+      <c r="AQ27" s="83"/>
+      <c r="AR27" s="83"/>
+      <c r="AS27" s="83"/>
+      <c r="AT27" s="83"/>
+      <c r="AU27" s="83"/>
+      <c r="AV27" s="83"/>
+      <c r="AW27" s="83"/>
+      <c r="AX27" s="83"/>
+      <c r="AY27" s="83"/>
+      <c r="AZ27" s="83"/>
+      <c r="BA27" s="83"/>
+      <c r="BB27" s="83"/>
+      <c r="BC27" s="83"/>
+      <c r="BD27" s="83"/>
+      <c r="BE27" s="83"/>
+      <c r="BF27" s="83"/>
+      <c r="BG27" s="83"/>
+      <c r="BH27" s="83"/>
+      <c r="BI27" s="83"/>
+      <c r="BJ27" s="83"/>
+      <c r="BK27" s="83"/>
+      <c r="BL27" s="83"/>
+      <c r="BM27" s="83"/>
+      <c r="BN27" s="83"/>
+      <c r="BO27" s="83"/>
+      <c r="BP27" s="83"/>
+      <c r="BQ27" s="83"/>
+      <c r="BR27" s="83"/>
+      <c r="BS27" s="83"/>
+      <c r="BT27" s="83"/>
+      <c r="BU27" s="83"/>
+      <c r="BV27" s="83"/>
+      <c r="BW27" s="83"/>
+      <c r="BX27" s="83"/>
+      <c r="BY27" s="83"/>
+      <c r="BZ27" s="83"/>
+      <c r="CA27" s="83"/>
+      <c r="CB27" s="83"/>
+      <c r="CC27" s="83"/>
+      <c r="CD27" s="83"/>
+      <c r="CE27" s="83"/>
+      <c r="CF27" s="83"/>
+      <c r="CG27" s="83"/>
+      <c r="CH27" s="83"/>
+      <c r="CI27" s="83"/>
+      <c r="CJ27" s="83"/>
+      <c r="CK27" s="83"/>
+      <c r="CL27" s="83"/>
+      <c r="CM27" s="83"/>
+      <c r="CN27" s="83"/>
+      <c r="CO27" s="83"/>
+      <c r="CP27" s="83"/>
+      <c r="CQ27" s="83"/>
+      <c r="CR27" s="83"/>
+      <c r="CS27" s="83"/>
+      <c r="CT27" s="83"/>
+      <c r="CU27" s="83"/>
+      <c r="CV27" s="83"/>
+      <c r="CW27" s="83"/>
+      <c r="CX27" s="83"/>
+      <c r="CY27" s="83"/>
+      <c r="CZ27" s="83"/>
+      <c r="DA27" s="83"/>
+      <c r="DB27" s="83"/>
+      <c r="DC27" s="83"/>
+      <c r="DD27" s="83"/>
+      <c r="DE27" s="83"/>
+      <c r="DF27" s="83"/>
+      <c r="DG27" s="83"/>
+      <c r="DH27" s="83"/>
+      <c r="DI27" s="83"/>
     </row>
     <row r="28" spans="1:113" s="20" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
@@ -5407,116 +5411,116 @@
         <v>38</v>
       </c>
       <c r="C28" s="22"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="87"/>
-      <c r="AK28" s="87"/>
-      <c r="AL28" s="87"/>
-      <c r="AM28" s="87"/>
-      <c r="AN28" s="87"/>
-      <c r="AO28" s="87"/>
-      <c r="AP28" s="87"/>
-      <c r="AQ28" s="87"/>
-      <c r="AR28" s="87"/>
-      <c r="AS28" s="87"/>
-      <c r="AT28" s="87"/>
-      <c r="AU28" s="87"/>
-      <c r="AV28" s="87"/>
-      <c r="AW28" s="87"/>
-      <c r="AX28" s="87"/>
-      <c r="AY28" s="87"/>
-      <c r="AZ28" s="87"/>
-      <c r="BA28" s="87"/>
-      <c r="BB28" s="87"/>
-      <c r="BC28" s="87"/>
-      <c r="BD28" s="87"/>
-      <c r="BE28" s="87"/>
-      <c r="BF28" s="87"/>
-      <c r="BG28" s="87"/>
-      <c r="BH28" s="87"/>
-      <c r="BI28" s="87"/>
-      <c r="BJ28" s="87"/>
-      <c r="BK28" s="87"/>
-      <c r="BL28" s="87"/>
-      <c r="BM28" s="87"/>
-      <c r="BN28" s="87"/>
-      <c r="BO28" s="87"/>
-      <c r="BP28" s="87"/>
-      <c r="BQ28" s="87"/>
-      <c r="BR28" s="87"/>
-      <c r="BS28" s="87"/>
-      <c r="BT28" s="87"/>
-      <c r="BU28" s="87"/>
-      <c r="BV28" s="87"/>
-      <c r="BW28" s="87"/>
-      <c r="BX28" s="87"/>
-      <c r="BY28" s="87"/>
-      <c r="BZ28" s="87"/>
-      <c r="CA28" s="87"/>
-      <c r="CB28" s="87"/>
-      <c r="CC28" s="87"/>
-      <c r="CD28" s="87"/>
-      <c r="CE28" s="87"/>
-      <c r="CF28" s="87"/>
-      <c r="CG28" s="87"/>
-      <c r="CH28" s="87"/>
-      <c r="CI28" s="87"/>
-      <c r="CJ28" s="87"/>
-      <c r="CK28" s="87"/>
-      <c r="CL28" s="87"/>
-      <c r="CM28" s="87"/>
-      <c r="CN28" s="87"/>
-      <c r="CO28" s="87"/>
-      <c r="CP28" s="87"/>
-      <c r="CQ28" s="87"/>
-      <c r="CR28" s="87"/>
-      <c r="CS28" s="87"/>
-      <c r="CT28" s="87"/>
-      <c r="CU28" s="87"/>
-      <c r="CV28" s="87"/>
-      <c r="CW28" s="87"/>
-      <c r="CX28" s="87"/>
-      <c r="CY28" s="87"/>
-      <c r="CZ28" s="87"/>
-      <c r="DA28" s="87"/>
-      <c r="DB28" s="87"/>
-      <c r="DC28" s="87"/>
-      <c r="DD28" s="87"/>
-      <c r="DE28" s="87"/>
-      <c r="DF28" s="87"/>
-      <c r="DG28" s="87"/>
-      <c r="DH28" s="87"/>
-      <c r="DI28" s="87"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="84"/>
+      <c r="X28" s="84"/>
+      <c r="Y28" s="84"/>
+      <c r="Z28" s="84"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="84"/>
+      <c r="AF28" s="84"/>
+      <c r="AG28" s="84"/>
+      <c r="AH28" s="84"/>
+      <c r="AI28" s="84"/>
+      <c r="AJ28" s="84"/>
+      <c r="AK28" s="84"/>
+      <c r="AL28" s="84"/>
+      <c r="AM28" s="84"/>
+      <c r="AN28" s="84"/>
+      <c r="AO28" s="84"/>
+      <c r="AP28" s="84"/>
+      <c r="AQ28" s="84"/>
+      <c r="AR28" s="84"/>
+      <c r="AS28" s="84"/>
+      <c r="AT28" s="84"/>
+      <c r="AU28" s="84"/>
+      <c r="AV28" s="84"/>
+      <c r="AW28" s="84"/>
+      <c r="AX28" s="84"/>
+      <c r="AY28" s="84"/>
+      <c r="AZ28" s="84"/>
+      <c r="BA28" s="84"/>
+      <c r="BB28" s="84"/>
+      <c r="BC28" s="84"/>
+      <c r="BD28" s="84"/>
+      <c r="BE28" s="84"/>
+      <c r="BF28" s="84"/>
+      <c r="BG28" s="84"/>
+      <c r="BH28" s="84"/>
+      <c r="BI28" s="84"/>
+      <c r="BJ28" s="84"/>
+      <c r="BK28" s="84"/>
+      <c r="BL28" s="84"/>
+      <c r="BM28" s="84"/>
+      <c r="BN28" s="84"/>
+      <c r="BO28" s="84"/>
+      <c r="BP28" s="84"/>
+      <c r="BQ28" s="84"/>
+      <c r="BR28" s="84"/>
+      <c r="BS28" s="84"/>
+      <c r="BT28" s="84"/>
+      <c r="BU28" s="84"/>
+      <c r="BV28" s="84"/>
+      <c r="BW28" s="84"/>
+      <c r="BX28" s="84"/>
+      <c r="BY28" s="84"/>
+      <c r="BZ28" s="84"/>
+      <c r="CA28" s="84"/>
+      <c r="CB28" s="84"/>
+      <c r="CC28" s="84"/>
+      <c r="CD28" s="84"/>
+      <c r="CE28" s="84"/>
+      <c r="CF28" s="84"/>
+      <c r="CG28" s="84"/>
+      <c r="CH28" s="84"/>
+      <c r="CI28" s="84"/>
+      <c r="CJ28" s="84"/>
+      <c r="CK28" s="84"/>
+      <c r="CL28" s="84"/>
+      <c r="CM28" s="84"/>
+      <c r="CN28" s="84"/>
+      <c r="CO28" s="84"/>
+      <c r="CP28" s="84"/>
+      <c r="CQ28" s="84"/>
+      <c r="CR28" s="84"/>
+      <c r="CS28" s="84"/>
+      <c r="CT28" s="84"/>
+      <c r="CU28" s="84"/>
+      <c r="CV28" s="84"/>
+      <c r="CW28" s="84"/>
+      <c r="CX28" s="84"/>
+      <c r="CY28" s="84"/>
+      <c r="CZ28" s="84"/>
+      <c r="DA28" s="84"/>
+      <c r="DB28" s="84"/>
+      <c r="DC28" s="84"/>
+      <c r="DD28" s="84"/>
+      <c r="DE28" s="84"/>
+      <c r="DF28" s="84"/>
+      <c r="DG28" s="84"/>
+      <c r="DH28" s="84"/>
+      <c r="DI28" s="84"/>
     </row>
     <row r="29" spans="1:113" s="20" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
@@ -5526,350 +5530,350 @@
         <v>39</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="87"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="87"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="87"/>
-      <c r="AL29" s="87"/>
-      <c r="AM29" s="87"/>
-      <c r="AN29" s="87"/>
-      <c r="AO29" s="87"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="87"/>
-      <c r="AR29" s="87"/>
-      <c r="AS29" s="87"/>
-      <c r="AT29" s="87"/>
-      <c r="AU29" s="87"/>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="87"/>
-      <c r="AY29" s="87"/>
-      <c r="AZ29" s="87"/>
-      <c r="BA29" s="87"/>
-      <c r="BB29" s="87"/>
-      <c r="BC29" s="87"/>
-      <c r="BD29" s="87"/>
-      <c r="BE29" s="87"/>
-      <c r="BF29" s="87"/>
-      <c r="BG29" s="87"/>
-      <c r="BH29" s="87"/>
-      <c r="BI29" s="87"/>
-      <c r="BJ29" s="87"/>
-      <c r="BK29" s="87"/>
-      <c r="BL29" s="87"/>
-      <c r="BM29" s="87"/>
-      <c r="BN29" s="87"/>
-      <c r="BO29" s="87"/>
-      <c r="BP29" s="87"/>
-      <c r="BQ29" s="87"/>
-      <c r="BR29" s="87"/>
-      <c r="BS29" s="87"/>
-      <c r="BT29" s="87"/>
-      <c r="BU29" s="87"/>
-      <c r="BV29" s="87"/>
-      <c r="BW29" s="87"/>
-      <c r="BX29" s="87"/>
-      <c r="BY29" s="87"/>
-      <c r="BZ29" s="87"/>
-      <c r="CA29" s="87"/>
-      <c r="CB29" s="87"/>
-      <c r="CC29" s="87"/>
-      <c r="CD29" s="87"/>
-      <c r="CE29" s="87"/>
-      <c r="CF29" s="87"/>
-      <c r="CG29" s="87"/>
-      <c r="CH29" s="87"/>
-      <c r="CI29" s="87"/>
-      <c r="CJ29" s="87"/>
-      <c r="CK29" s="87"/>
-      <c r="CL29" s="87"/>
-      <c r="CM29" s="87"/>
-      <c r="CN29" s="87"/>
-      <c r="CO29" s="87"/>
-      <c r="CP29" s="87"/>
-      <c r="CQ29" s="87"/>
-      <c r="CR29" s="87"/>
-      <c r="CS29" s="87"/>
-      <c r="CT29" s="87"/>
-      <c r="CU29" s="87"/>
-      <c r="CV29" s="87"/>
-      <c r="CW29" s="87"/>
-      <c r="CX29" s="87"/>
-      <c r="CY29" s="87"/>
-      <c r="CZ29" s="87"/>
-      <c r="DA29" s="87"/>
-      <c r="DB29" s="87"/>
-      <c r="DC29" s="87"/>
-      <c r="DD29" s="87"/>
-      <c r="DE29" s="87"/>
-      <c r="DF29" s="87"/>
-      <c r="DG29" s="87"/>
-      <c r="DH29" s="87"/>
-      <c r="DI29" s="87"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="84"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="84"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="84"/>
+      <c r="AO29" s="84"/>
+      <c r="AP29" s="84"/>
+      <c r="AQ29" s="84"/>
+      <c r="AR29" s="84"/>
+      <c r="AS29" s="84"/>
+      <c r="AT29" s="84"/>
+      <c r="AU29" s="84"/>
+      <c r="AV29" s="84"/>
+      <c r="AW29" s="84"/>
+      <c r="AX29" s="84"/>
+      <c r="AY29" s="84"/>
+      <c r="AZ29" s="84"/>
+      <c r="BA29" s="84"/>
+      <c r="BB29" s="84"/>
+      <c r="BC29" s="84"/>
+      <c r="BD29" s="84"/>
+      <c r="BE29" s="84"/>
+      <c r="BF29" s="84"/>
+      <c r="BG29" s="84"/>
+      <c r="BH29" s="84"/>
+      <c r="BI29" s="84"/>
+      <c r="BJ29" s="84"/>
+      <c r="BK29" s="84"/>
+      <c r="BL29" s="84"/>
+      <c r="BM29" s="84"/>
+      <c r="BN29" s="84"/>
+      <c r="BO29" s="84"/>
+      <c r="BP29" s="84"/>
+      <c r="BQ29" s="84"/>
+      <c r="BR29" s="84"/>
+      <c r="BS29" s="84"/>
+      <c r="BT29" s="84"/>
+      <c r="BU29" s="84"/>
+      <c r="BV29" s="84"/>
+      <c r="BW29" s="84"/>
+      <c r="BX29" s="84"/>
+      <c r="BY29" s="84"/>
+      <c r="BZ29" s="84"/>
+      <c r="CA29" s="84"/>
+      <c r="CB29" s="84"/>
+      <c r="CC29" s="84"/>
+      <c r="CD29" s="84"/>
+      <c r="CE29" s="84"/>
+      <c r="CF29" s="84"/>
+      <c r="CG29" s="84"/>
+      <c r="CH29" s="84"/>
+      <c r="CI29" s="84"/>
+      <c r="CJ29" s="84"/>
+      <c r="CK29" s="84"/>
+      <c r="CL29" s="84"/>
+      <c r="CM29" s="84"/>
+      <c r="CN29" s="84"/>
+      <c r="CO29" s="84"/>
+      <c r="CP29" s="84"/>
+      <c r="CQ29" s="84"/>
+      <c r="CR29" s="84"/>
+      <c r="CS29" s="84"/>
+      <c r="CT29" s="84"/>
+      <c r="CU29" s="84"/>
+      <c r="CV29" s="84"/>
+      <c r="CW29" s="84"/>
+      <c r="CX29" s="84"/>
+      <c r="CY29" s="84"/>
+      <c r="CZ29" s="84"/>
+      <c r="DA29" s="84"/>
+      <c r="DB29" s="84"/>
+      <c r="DC29" s="84"/>
+      <c r="DD29" s="84"/>
+      <c r="DE29" s="84"/>
+      <c r="DF29" s="84"/>
+      <c r="DG29" s="84"/>
+      <c r="DH29" s="84"/>
+      <c r="DI29" s="84"/>
     </row>
-    <row r="30" spans="1:113" s="70" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="68" t="s">
+    <row r="30" spans="1:113" s="123" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-      <c r="W30" s="88"/>
-      <c r="X30" s="88"/>
-      <c r="Y30" s="88"/>
-      <c r="Z30" s="88"/>
-      <c r="AA30" s="88"/>
-      <c r="AB30" s="88"/>
-      <c r="AC30" s="88"/>
-      <c r="AD30" s="88"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="88"/>
-      <c r="AG30" s="88"/>
-      <c r="AH30" s="88"/>
-      <c r="AI30" s="88"/>
-      <c r="AJ30" s="88"/>
-      <c r="AK30" s="88"/>
-      <c r="AL30" s="88"/>
-      <c r="AM30" s="88"/>
-      <c r="AN30" s="88"/>
-      <c r="AO30" s="88"/>
-      <c r="AP30" s="88"/>
-      <c r="AQ30" s="88"/>
-      <c r="AR30" s="88"/>
-      <c r="AS30" s="88"/>
-      <c r="AT30" s="88"/>
-      <c r="AU30" s="88"/>
-      <c r="AV30" s="88"/>
-      <c r="AW30" s="88"/>
-      <c r="AX30" s="88"/>
-      <c r="AY30" s="88"/>
-      <c r="AZ30" s="88"/>
-      <c r="BA30" s="88"/>
-      <c r="BB30" s="88"/>
-      <c r="BC30" s="88"/>
-      <c r="BD30" s="88"/>
-      <c r="BE30" s="88"/>
-      <c r="BF30" s="88"/>
-      <c r="BG30" s="88"/>
-      <c r="BH30" s="88"/>
-      <c r="BI30" s="88"/>
-      <c r="BJ30" s="88"/>
-      <c r="BK30" s="88"/>
-      <c r="BL30" s="88"/>
-      <c r="BM30" s="88"/>
-      <c r="BN30" s="88"/>
-      <c r="BO30" s="88"/>
-      <c r="BP30" s="88"/>
-      <c r="BQ30" s="88"/>
-      <c r="BR30" s="88"/>
-      <c r="BS30" s="88"/>
-      <c r="BT30" s="88"/>
-      <c r="BU30" s="88"/>
-      <c r="BV30" s="88"/>
-      <c r="BW30" s="88"/>
-      <c r="BX30" s="88"/>
-      <c r="BY30" s="88"/>
-      <c r="BZ30" s="88"/>
-      <c r="CA30" s="88"/>
-      <c r="CB30" s="88"/>
-      <c r="CC30" s="88"/>
-      <c r="CD30" s="88"/>
-      <c r="CE30" s="88"/>
-      <c r="CF30" s="88"/>
-      <c r="CG30" s="88"/>
-      <c r="CH30" s="88"/>
-      <c r="CI30" s="88"/>
-      <c r="CJ30" s="88"/>
-      <c r="CK30" s="88"/>
-      <c r="CL30" s="88"/>
-      <c r="CM30" s="88"/>
-      <c r="CN30" s="88"/>
-      <c r="CO30" s="88"/>
-      <c r="CP30" s="88"/>
-      <c r="CQ30" s="88"/>
-      <c r="CR30" s="88"/>
-      <c r="CS30" s="88"/>
-      <c r="CT30" s="88"/>
-      <c r="CU30" s="88"/>
-      <c r="CV30" s="88"/>
-      <c r="CW30" s="88"/>
-      <c r="CX30" s="88"/>
-      <c r="CY30" s="88"/>
-      <c r="CZ30" s="88"/>
-      <c r="DA30" s="88"/>
-      <c r="DB30" s="88"/>
-      <c r="DC30" s="88"/>
-      <c r="DD30" s="88"/>
-      <c r="DE30" s="88"/>
-      <c r="DF30" s="88"/>
-      <c r="DG30" s="88"/>
-      <c r="DH30" s="88"/>
-      <c r="DI30" s="88"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="122"/>
+      <c r="X30" s="122"/>
+      <c r="Y30" s="122"/>
+      <c r="Z30" s="122"/>
+      <c r="AA30" s="122"/>
+      <c r="AB30" s="122"/>
+      <c r="AC30" s="122"/>
+      <c r="AD30" s="122"/>
+      <c r="AE30" s="122"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="122"/>
+      <c r="AH30" s="122"/>
+      <c r="AI30" s="122"/>
+      <c r="AJ30" s="122"/>
+      <c r="AK30" s="122"/>
+      <c r="AL30" s="122"/>
+      <c r="AM30" s="122"/>
+      <c r="AN30" s="122"/>
+      <c r="AO30" s="122"/>
+      <c r="AP30" s="122"/>
+      <c r="AQ30" s="122"/>
+      <c r="AR30" s="122"/>
+      <c r="AS30" s="122"/>
+      <c r="AT30" s="122"/>
+      <c r="AU30" s="122"/>
+      <c r="AV30" s="122"/>
+      <c r="AW30" s="122"/>
+      <c r="AX30" s="122"/>
+      <c r="AY30" s="122"/>
+      <c r="AZ30" s="122"/>
+      <c r="BA30" s="122"/>
+      <c r="BB30" s="122"/>
+      <c r="BC30" s="122"/>
+      <c r="BD30" s="122"/>
+      <c r="BE30" s="122"/>
+      <c r="BF30" s="122"/>
+      <c r="BG30" s="122"/>
+      <c r="BH30" s="122"/>
+      <c r="BI30" s="122"/>
+      <c r="BJ30" s="122"/>
+      <c r="BK30" s="122"/>
+      <c r="BL30" s="122"/>
+      <c r="BM30" s="122"/>
+      <c r="BN30" s="122"/>
+      <c r="BO30" s="122"/>
+      <c r="BP30" s="122"/>
+      <c r="BQ30" s="122"/>
+      <c r="BR30" s="122"/>
+      <c r="BS30" s="122"/>
+      <c r="BT30" s="122"/>
+      <c r="BU30" s="122"/>
+      <c r="BV30" s="122"/>
+      <c r="BW30" s="122"/>
+      <c r="BX30" s="122"/>
+      <c r="BY30" s="122"/>
+      <c r="BZ30" s="122"/>
+      <c r="CA30" s="122"/>
+      <c r="CB30" s="122"/>
+      <c r="CC30" s="122"/>
+      <c r="CD30" s="122"/>
+      <c r="CE30" s="122"/>
+      <c r="CF30" s="122"/>
+      <c r="CG30" s="122"/>
+      <c r="CH30" s="122"/>
+      <c r="CI30" s="122"/>
+      <c r="CJ30" s="122"/>
+      <c r="CK30" s="122"/>
+      <c r="CL30" s="122"/>
+      <c r="CM30" s="122"/>
+      <c r="CN30" s="122"/>
+      <c r="CO30" s="122"/>
+      <c r="CP30" s="122"/>
+      <c r="CQ30" s="122"/>
+      <c r="CR30" s="122"/>
+      <c r="CS30" s="122"/>
+      <c r="CT30" s="122"/>
+      <c r="CU30" s="122"/>
+      <c r="CV30" s="122"/>
+      <c r="CW30" s="122"/>
+      <c r="CX30" s="122"/>
+      <c r="CY30" s="122"/>
+      <c r="CZ30" s="122"/>
+      <c r="DA30" s="122"/>
+      <c r="DB30" s="122"/>
+      <c r="DC30" s="122"/>
+      <c r="DD30" s="122"/>
+      <c r="DE30" s="122"/>
+      <c r="DF30" s="122"/>
+      <c r="DG30" s="122"/>
+      <c r="DH30" s="122"/>
+      <c r="DI30" s="122"/>
     </row>
-    <row r="31" spans="1:113" s="74" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:113" s="71" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="89"/>
-      <c r="AE31" s="89"/>
-      <c r="AF31" s="89"/>
-      <c r="AG31" s="89"/>
-      <c r="AH31" s="89"/>
-      <c r="AI31" s="89"/>
-      <c r="AJ31" s="89"/>
-      <c r="AK31" s="89"/>
-      <c r="AL31" s="89"/>
-      <c r="AM31" s="89"/>
-      <c r="AN31" s="89"/>
-      <c r="AO31" s="89"/>
-      <c r="AP31" s="89"/>
-      <c r="AQ31" s="89"/>
-      <c r="AR31" s="89"/>
-      <c r="AS31" s="89"/>
-      <c r="AT31" s="89"/>
-      <c r="AU31" s="89"/>
-      <c r="AV31" s="89"/>
-      <c r="AW31" s="89"/>
-      <c r="AX31" s="89"/>
-      <c r="AY31" s="89"/>
-      <c r="AZ31" s="89"/>
-      <c r="BA31" s="89"/>
-      <c r="BB31" s="89"/>
-      <c r="BC31" s="89"/>
-      <c r="BD31" s="89"/>
-      <c r="BE31" s="89"/>
-      <c r="BF31" s="89"/>
-      <c r="BG31" s="89"/>
-      <c r="BH31" s="89"/>
-      <c r="BI31" s="89"/>
-      <c r="BJ31" s="89"/>
-      <c r="BK31" s="89"/>
-      <c r="BL31" s="89"/>
-      <c r="BM31" s="89"/>
-      <c r="BN31" s="89"/>
-      <c r="BO31" s="89"/>
-      <c r="BP31" s="89"/>
-      <c r="BQ31" s="89"/>
-      <c r="BR31" s="89"/>
-      <c r="BS31" s="89"/>
-      <c r="BT31" s="89"/>
-      <c r="BU31" s="89"/>
-      <c r="BV31" s="89"/>
-      <c r="BW31" s="89"/>
-      <c r="BX31" s="89"/>
-      <c r="BY31" s="89"/>
-      <c r="BZ31" s="89"/>
-      <c r="CA31" s="89"/>
-      <c r="CB31" s="89"/>
-      <c r="CC31" s="89"/>
-      <c r="CD31" s="89"/>
-      <c r="CE31" s="89"/>
-      <c r="CF31" s="89"/>
-      <c r="CG31" s="89"/>
-      <c r="CH31" s="89"/>
-      <c r="CI31" s="89"/>
-      <c r="CJ31" s="89"/>
-      <c r="CK31" s="89"/>
-      <c r="CL31" s="89"/>
-      <c r="CM31" s="89"/>
-      <c r="CN31" s="89"/>
-      <c r="CO31" s="89"/>
-      <c r="CP31" s="89"/>
-      <c r="CQ31" s="89"/>
-      <c r="CR31" s="89"/>
-      <c r="CS31" s="89"/>
-      <c r="CT31" s="89"/>
-      <c r="CU31" s="89"/>
-      <c r="CV31" s="89"/>
-      <c r="CW31" s="89"/>
-      <c r="CX31" s="89"/>
-      <c r="CY31" s="89"/>
-      <c r="CZ31" s="89"/>
-      <c r="DA31" s="89"/>
-      <c r="DB31" s="89"/>
-      <c r="DC31" s="89"/>
-      <c r="DD31" s="89"/>
-      <c r="DE31" s="89"/>
-      <c r="DF31" s="89"/>
-      <c r="DG31" s="89"/>
-      <c r="DH31" s="89"/>
-      <c r="DI31" s="89"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="85"/>
+      <c r="AE31" s="85"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="85"/>
+      <c r="AH31" s="85"/>
+      <c r="AI31" s="85"/>
+      <c r="AJ31" s="85"/>
+      <c r="AK31" s="85"/>
+      <c r="AL31" s="85"/>
+      <c r="AM31" s="85"/>
+      <c r="AN31" s="85"/>
+      <c r="AO31" s="85"/>
+      <c r="AP31" s="85"/>
+      <c r="AQ31" s="85"/>
+      <c r="AR31" s="85"/>
+      <c r="AS31" s="85"/>
+      <c r="AT31" s="85"/>
+      <c r="AU31" s="85"/>
+      <c r="AV31" s="85"/>
+      <c r="AW31" s="85"/>
+      <c r="AX31" s="85"/>
+      <c r="AY31" s="85"/>
+      <c r="AZ31" s="85"/>
+      <c r="BA31" s="85"/>
+      <c r="BB31" s="85"/>
+      <c r="BC31" s="85"/>
+      <c r="BD31" s="85"/>
+      <c r="BE31" s="85"/>
+      <c r="BF31" s="85"/>
+      <c r="BG31" s="85"/>
+      <c r="BH31" s="85"/>
+      <c r="BI31" s="85"/>
+      <c r="BJ31" s="85"/>
+      <c r="BK31" s="85"/>
+      <c r="BL31" s="85"/>
+      <c r="BM31" s="85"/>
+      <c r="BN31" s="85"/>
+      <c r="BO31" s="85"/>
+      <c r="BP31" s="85"/>
+      <c r="BQ31" s="85"/>
+      <c r="BR31" s="85"/>
+      <c r="BS31" s="85"/>
+      <c r="BT31" s="85"/>
+      <c r="BU31" s="85"/>
+      <c r="BV31" s="85"/>
+      <c r="BW31" s="85"/>
+      <c r="BX31" s="85"/>
+      <c r="BY31" s="85"/>
+      <c r="BZ31" s="85"/>
+      <c r="CA31" s="85"/>
+      <c r="CB31" s="85"/>
+      <c r="CC31" s="85"/>
+      <c r="CD31" s="85"/>
+      <c r="CE31" s="85"/>
+      <c r="CF31" s="85"/>
+      <c r="CG31" s="85"/>
+      <c r="CH31" s="85"/>
+      <c r="CI31" s="85"/>
+      <c r="CJ31" s="85"/>
+      <c r="CK31" s="85"/>
+      <c r="CL31" s="85"/>
+      <c r="CM31" s="85"/>
+      <c r="CN31" s="85"/>
+      <c r="CO31" s="85"/>
+      <c r="CP31" s="85"/>
+      <c r="CQ31" s="85"/>
+      <c r="CR31" s="85"/>
+      <c r="CS31" s="85"/>
+      <c r="CT31" s="85"/>
+      <c r="CU31" s="85"/>
+      <c r="CV31" s="85"/>
+      <c r="CW31" s="85"/>
+      <c r="CX31" s="85"/>
+      <c r="CY31" s="85"/>
+      <c r="CZ31" s="85"/>
+      <c r="DA31" s="85"/>
+      <c r="DB31" s="85"/>
+      <c r="DC31" s="85"/>
+      <c r="DD31" s="85"/>
+      <c r="DE31" s="85"/>
+      <c r="DF31" s="85"/>
+      <c r="DG31" s="85"/>
+      <c r="DH31" s="85"/>
+      <c r="DI31" s="85"/>
     </row>
     <row r="32" spans="1:113" s="59" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="56" t="s">
@@ -5879,116 +5883,116 @@
       <c r="C32" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="90"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
-      <c r="AC32" s="90"/>
-      <c r="AD32" s="90"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="90"/>
-      <c r="AG32" s="90"/>
-      <c r="AH32" s="90"/>
-      <c r="AI32" s="90"/>
-      <c r="AJ32" s="90"/>
-      <c r="AK32" s="90"/>
-      <c r="AL32" s="90"/>
-      <c r="AM32" s="90"/>
-      <c r="AN32" s="90"/>
-      <c r="AO32" s="90"/>
-      <c r="AP32" s="90"/>
-      <c r="AQ32" s="90"/>
-      <c r="AR32" s="90"/>
-      <c r="AS32" s="90"/>
-      <c r="AT32" s="90"/>
-      <c r="AU32" s="90"/>
-      <c r="AV32" s="90"/>
-      <c r="AW32" s="90"/>
-      <c r="AX32" s="90"/>
-      <c r="AY32" s="90"/>
-      <c r="AZ32" s="90"/>
-      <c r="BA32" s="90"/>
-      <c r="BB32" s="90"/>
-      <c r="BC32" s="90"/>
-      <c r="BD32" s="90"/>
-      <c r="BE32" s="90"/>
-      <c r="BF32" s="90"/>
-      <c r="BG32" s="90"/>
-      <c r="BH32" s="90"/>
-      <c r="BI32" s="90"/>
-      <c r="BJ32" s="90"/>
-      <c r="BK32" s="90"/>
-      <c r="BL32" s="90"/>
-      <c r="BM32" s="90"/>
-      <c r="BN32" s="90"/>
-      <c r="BO32" s="90"/>
-      <c r="BP32" s="90"/>
-      <c r="BQ32" s="90"/>
-      <c r="BR32" s="90"/>
-      <c r="BS32" s="90"/>
-      <c r="BT32" s="90"/>
-      <c r="BU32" s="90"/>
-      <c r="BV32" s="90"/>
-      <c r="BW32" s="90"/>
-      <c r="BX32" s="90"/>
-      <c r="BY32" s="90"/>
-      <c r="BZ32" s="90"/>
-      <c r="CA32" s="90"/>
-      <c r="CB32" s="90"/>
-      <c r="CC32" s="90"/>
-      <c r="CD32" s="90"/>
-      <c r="CE32" s="90"/>
-      <c r="CF32" s="90"/>
-      <c r="CG32" s="90"/>
-      <c r="CH32" s="90"/>
-      <c r="CI32" s="90"/>
-      <c r="CJ32" s="90"/>
-      <c r="CK32" s="90"/>
-      <c r="CL32" s="90"/>
-      <c r="CM32" s="90"/>
-      <c r="CN32" s="90"/>
-      <c r="CO32" s="90"/>
-      <c r="CP32" s="90"/>
-      <c r="CQ32" s="90"/>
-      <c r="CR32" s="90"/>
-      <c r="CS32" s="90"/>
-      <c r="CT32" s="90"/>
-      <c r="CU32" s="90"/>
-      <c r="CV32" s="90"/>
-      <c r="CW32" s="90"/>
-      <c r="CX32" s="90"/>
-      <c r="CY32" s="90"/>
-      <c r="CZ32" s="90"/>
-      <c r="DA32" s="90"/>
-      <c r="DB32" s="90"/>
-      <c r="DC32" s="90"/>
-      <c r="DD32" s="90"/>
-      <c r="DE32" s="90"/>
-      <c r="DF32" s="90"/>
-      <c r="DG32" s="90"/>
-      <c r="DH32" s="90"/>
-      <c r="DI32" s="90"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="86"/>
+      <c r="U32" s="86"/>
+      <c r="V32" s="86"/>
+      <c r="W32" s="86"/>
+      <c r="X32" s="86"/>
+      <c r="Y32" s="86"/>
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="86"/>
+      <c r="AB32" s="86"/>
+      <c r="AC32" s="86"/>
+      <c r="AD32" s="86"/>
+      <c r="AE32" s="86"/>
+      <c r="AF32" s="86"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="86"/>
+      <c r="AJ32" s="86"/>
+      <c r="AK32" s="86"/>
+      <c r="AL32" s="86"/>
+      <c r="AM32" s="86"/>
+      <c r="AN32" s="86"/>
+      <c r="AO32" s="86"/>
+      <c r="AP32" s="86"/>
+      <c r="AQ32" s="86"/>
+      <c r="AR32" s="86"/>
+      <c r="AS32" s="86"/>
+      <c r="AT32" s="86"/>
+      <c r="AU32" s="86"/>
+      <c r="AV32" s="86"/>
+      <c r="AW32" s="86"/>
+      <c r="AX32" s="86"/>
+      <c r="AY32" s="86"/>
+      <c r="AZ32" s="86"/>
+      <c r="BA32" s="86"/>
+      <c r="BB32" s="86"/>
+      <c r="BC32" s="86"/>
+      <c r="BD32" s="86"/>
+      <c r="BE32" s="86"/>
+      <c r="BF32" s="86"/>
+      <c r="BG32" s="86"/>
+      <c r="BH32" s="86"/>
+      <c r="BI32" s="86"/>
+      <c r="BJ32" s="86"/>
+      <c r="BK32" s="86"/>
+      <c r="BL32" s="86"/>
+      <c r="BM32" s="86"/>
+      <c r="BN32" s="86"/>
+      <c r="BO32" s="86"/>
+      <c r="BP32" s="86"/>
+      <c r="BQ32" s="86"/>
+      <c r="BR32" s="86"/>
+      <c r="BS32" s="86"/>
+      <c r="BT32" s="86"/>
+      <c r="BU32" s="86"/>
+      <c r="BV32" s="86"/>
+      <c r="BW32" s="86"/>
+      <c r="BX32" s="86"/>
+      <c r="BY32" s="86"/>
+      <c r="BZ32" s="86"/>
+      <c r="CA32" s="86"/>
+      <c r="CB32" s="86"/>
+      <c r="CC32" s="86"/>
+      <c r="CD32" s="86"/>
+      <c r="CE32" s="86"/>
+      <c r="CF32" s="86"/>
+      <c r="CG32" s="86"/>
+      <c r="CH32" s="86"/>
+      <c r="CI32" s="86"/>
+      <c r="CJ32" s="86"/>
+      <c r="CK32" s="86"/>
+      <c r="CL32" s="86"/>
+      <c r="CM32" s="86"/>
+      <c r="CN32" s="86"/>
+      <c r="CO32" s="86"/>
+      <c r="CP32" s="86"/>
+      <c r="CQ32" s="86"/>
+      <c r="CR32" s="86"/>
+      <c r="CS32" s="86"/>
+      <c r="CT32" s="86"/>
+      <c r="CU32" s="86"/>
+      <c r="CV32" s="86"/>
+      <c r="CW32" s="86"/>
+      <c r="CX32" s="86"/>
+      <c r="CY32" s="86"/>
+      <c r="CZ32" s="86"/>
+      <c r="DA32" s="86"/>
+      <c r="DB32" s="86"/>
+      <c r="DC32" s="86"/>
+      <c r="DD32" s="86"/>
+      <c r="DE32" s="86"/>
+      <c r="DF32" s="86"/>
+      <c r="DG32" s="86"/>
+      <c r="DH32" s="86"/>
+      <c r="DI32" s="86"/>
     </row>
     <row r="33" spans="1:113" s="17" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
@@ -5996,116 +6000,116 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="79"/>
-      <c r="R33" s="79"/>
-      <c r="S33" s="79"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="79"/>
-      <c r="AH33" s="79"/>
-      <c r="AI33" s="79"/>
-      <c r="AJ33" s="79"/>
-      <c r="AK33" s="79"/>
-      <c r="AL33" s="79"/>
-      <c r="AM33" s="79"/>
-      <c r="AN33" s="79"/>
-      <c r="AO33" s="79"/>
-      <c r="AP33" s="79"/>
-      <c r="AQ33" s="79"/>
-      <c r="AR33" s="79"/>
-      <c r="AS33" s="79"/>
-      <c r="AT33" s="79"/>
-      <c r="AU33" s="79"/>
-      <c r="AV33" s="79"/>
-      <c r="AW33" s="79"/>
-      <c r="AX33" s="79"/>
-      <c r="AY33" s="79"/>
-      <c r="AZ33" s="79"/>
-      <c r="BA33" s="79"/>
-      <c r="BB33" s="79"/>
-      <c r="BC33" s="79"/>
-      <c r="BD33" s="79"/>
-      <c r="BE33" s="79"/>
-      <c r="BF33" s="79"/>
-      <c r="BG33" s="79"/>
-      <c r="BH33" s="79"/>
-      <c r="BI33" s="79"/>
-      <c r="BJ33" s="79"/>
-      <c r="BK33" s="79"/>
-      <c r="BL33" s="79"/>
-      <c r="BM33" s="79"/>
-      <c r="BN33" s="79"/>
-      <c r="BO33" s="79"/>
-      <c r="BP33" s="79"/>
-      <c r="BQ33" s="79"/>
-      <c r="BR33" s="79"/>
-      <c r="BS33" s="79"/>
-      <c r="BT33" s="79"/>
-      <c r="BU33" s="79"/>
-      <c r="BV33" s="79"/>
-      <c r="BW33" s="79"/>
-      <c r="BX33" s="79"/>
-      <c r="BY33" s="79"/>
-      <c r="BZ33" s="79"/>
-      <c r="CA33" s="79"/>
-      <c r="CB33" s="79"/>
-      <c r="CC33" s="79"/>
-      <c r="CD33" s="79"/>
-      <c r="CE33" s="79"/>
-      <c r="CF33" s="79"/>
-      <c r="CG33" s="79"/>
-      <c r="CH33" s="79"/>
-      <c r="CI33" s="79"/>
-      <c r="CJ33" s="79"/>
-      <c r="CK33" s="79"/>
-      <c r="CL33" s="79"/>
-      <c r="CM33" s="79"/>
-      <c r="CN33" s="79"/>
-      <c r="CO33" s="79"/>
-      <c r="CP33" s="79"/>
-      <c r="CQ33" s="79"/>
-      <c r="CR33" s="79"/>
-      <c r="CS33" s="79"/>
-      <c r="CT33" s="79"/>
-      <c r="CU33" s="79"/>
-      <c r="CV33" s="79"/>
-      <c r="CW33" s="79"/>
-      <c r="CX33" s="79"/>
-      <c r="CY33" s="79"/>
-      <c r="CZ33" s="79"/>
-      <c r="DA33" s="79"/>
-      <c r="DB33" s="79"/>
-      <c r="DC33" s="79"/>
-      <c r="DD33" s="79"/>
-      <c r="DE33" s="79"/>
-      <c r="DF33" s="79"/>
-      <c r="DG33" s="79"/>
-      <c r="DH33" s="79"/>
-      <c r="DI33" s="79"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="76"/>
+      <c r="AJ33" s="76"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="76"/>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="76"/>
+      <c r="AP33" s="76"/>
+      <c r="AQ33" s="76"/>
+      <c r="AR33" s="76"/>
+      <c r="AS33" s="76"/>
+      <c r="AT33" s="76"/>
+      <c r="AU33" s="76"/>
+      <c r="AV33" s="76"/>
+      <c r="AW33" s="76"/>
+      <c r="AX33" s="76"/>
+      <c r="AY33" s="76"/>
+      <c r="AZ33" s="76"/>
+      <c r="BA33" s="76"/>
+      <c r="BB33" s="76"/>
+      <c r="BC33" s="76"/>
+      <c r="BD33" s="76"/>
+      <c r="BE33" s="76"/>
+      <c r="BF33" s="76"/>
+      <c r="BG33" s="76"/>
+      <c r="BH33" s="76"/>
+      <c r="BI33" s="76"/>
+      <c r="BJ33" s="76"/>
+      <c r="BK33" s="76"/>
+      <c r="BL33" s="76"/>
+      <c r="BM33" s="76"/>
+      <c r="BN33" s="76"/>
+      <c r="BO33" s="76"/>
+      <c r="BP33" s="76"/>
+      <c r="BQ33" s="76"/>
+      <c r="BR33" s="76"/>
+      <c r="BS33" s="76"/>
+      <c r="BT33" s="76"/>
+      <c r="BU33" s="76"/>
+      <c r="BV33" s="76"/>
+      <c r="BW33" s="76"/>
+      <c r="BX33" s="76"/>
+      <c r="BY33" s="76"/>
+      <c r="BZ33" s="76"/>
+      <c r="CA33" s="76"/>
+      <c r="CB33" s="76"/>
+      <c r="CC33" s="76"/>
+      <c r="CD33" s="76"/>
+      <c r="CE33" s="76"/>
+      <c r="CF33" s="76"/>
+      <c r="CG33" s="76"/>
+      <c r="CH33" s="76"/>
+      <c r="CI33" s="76"/>
+      <c r="CJ33" s="76"/>
+      <c r="CK33" s="76"/>
+      <c r="CL33" s="76"/>
+      <c r="CM33" s="76"/>
+      <c r="CN33" s="76"/>
+      <c r="CO33" s="76"/>
+      <c r="CP33" s="76"/>
+      <c r="CQ33" s="76"/>
+      <c r="CR33" s="76"/>
+      <c r="CS33" s="76"/>
+      <c r="CT33" s="76"/>
+      <c r="CU33" s="76"/>
+      <c r="CV33" s="76"/>
+      <c r="CW33" s="76"/>
+      <c r="CX33" s="76"/>
+      <c r="CY33" s="76"/>
+      <c r="CZ33" s="76"/>
+      <c r="DA33" s="76"/>
+      <c r="DB33" s="76"/>
+      <c r="DC33" s="76"/>
+      <c r="DD33" s="76"/>
+      <c r="DE33" s="76"/>
+      <c r="DF33" s="76"/>
+      <c r="DG33" s="76"/>
+      <c r="DH33" s="76"/>
+      <c r="DI33" s="76"/>
     </row>
     <row r="34" spans="1:113" s="63" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="s">
@@ -6115,116 +6119,116 @@
       <c r="C34" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="91"/>
-      <c r="X34" s="91"/>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="91"/>
-      <c r="AC34" s="91"/>
-      <c r="AD34" s="91"/>
-      <c r="AE34" s="91"/>
-      <c r="AF34" s="91"/>
-      <c r="AG34" s="91"/>
-      <c r="AH34" s="91"/>
-      <c r="AI34" s="91"/>
-      <c r="AJ34" s="91"/>
-      <c r="AK34" s="91"/>
-      <c r="AL34" s="91"/>
-      <c r="AM34" s="91"/>
-      <c r="AN34" s="91"/>
-      <c r="AO34" s="91"/>
-      <c r="AP34" s="91"/>
-      <c r="AQ34" s="91"/>
-      <c r="AR34" s="91"/>
-      <c r="AS34" s="91"/>
-      <c r="AT34" s="91"/>
-      <c r="AU34" s="91"/>
-      <c r="AV34" s="91"/>
-      <c r="AW34" s="91"/>
-      <c r="AX34" s="91"/>
-      <c r="AY34" s="91"/>
-      <c r="AZ34" s="91"/>
-      <c r="BA34" s="91"/>
-      <c r="BB34" s="91"/>
-      <c r="BC34" s="91"/>
-      <c r="BD34" s="91"/>
-      <c r="BE34" s="91"/>
-      <c r="BF34" s="91"/>
-      <c r="BG34" s="91"/>
-      <c r="BH34" s="91"/>
-      <c r="BI34" s="91"/>
-      <c r="BJ34" s="91"/>
-      <c r="BK34" s="91"/>
-      <c r="BL34" s="91"/>
-      <c r="BM34" s="91"/>
-      <c r="BN34" s="91"/>
-      <c r="BO34" s="91"/>
-      <c r="BP34" s="91"/>
-      <c r="BQ34" s="91"/>
-      <c r="BR34" s="91"/>
-      <c r="BS34" s="91"/>
-      <c r="BT34" s="91"/>
-      <c r="BU34" s="91"/>
-      <c r="BV34" s="91"/>
-      <c r="BW34" s="91"/>
-      <c r="BX34" s="91"/>
-      <c r="BY34" s="91"/>
-      <c r="BZ34" s="91"/>
-      <c r="CA34" s="91"/>
-      <c r="CB34" s="91"/>
-      <c r="CC34" s="91"/>
-      <c r="CD34" s="91"/>
-      <c r="CE34" s="91"/>
-      <c r="CF34" s="91"/>
-      <c r="CG34" s="91"/>
-      <c r="CH34" s="91"/>
-      <c r="CI34" s="91"/>
-      <c r="CJ34" s="91"/>
-      <c r="CK34" s="91"/>
-      <c r="CL34" s="91"/>
-      <c r="CM34" s="91"/>
-      <c r="CN34" s="91"/>
-      <c r="CO34" s="91"/>
-      <c r="CP34" s="91"/>
-      <c r="CQ34" s="91"/>
-      <c r="CR34" s="91"/>
-      <c r="CS34" s="91"/>
-      <c r="CT34" s="91"/>
-      <c r="CU34" s="91"/>
-      <c r="CV34" s="91"/>
-      <c r="CW34" s="91"/>
-      <c r="CX34" s="91"/>
-      <c r="CY34" s="91"/>
-      <c r="CZ34" s="91"/>
-      <c r="DA34" s="91"/>
-      <c r="DB34" s="91"/>
-      <c r="DC34" s="91"/>
-      <c r="DD34" s="91"/>
-      <c r="DE34" s="91"/>
-      <c r="DF34" s="91"/>
-      <c r="DG34" s="91"/>
-      <c r="DH34" s="91"/>
-      <c r="DI34" s="91"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="87"/>
+      <c r="AC34" s="87"/>
+      <c r="AD34" s="87"/>
+      <c r="AE34" s="87"/>
+      <c r="AF34" s="87"/>
+      <c r="AG34" s="87"/>
+      <c r="AH34" s="87"/>
+      <c r="AI34" s="87"/>
+      <c r="AJ34" s="87"/>
+      <c r="AK34" s="87"/>
+      <c r="AL34" s="87"/>
+      <c r="AM34" s="87"/>
+      <c r="AN34" s="87"/>
+      <c r="AO34" s="87"/>
+      <c r="AP34" s="87"/>
+      <c r="AQ34" s="87"/>
+      <c r="AR34" s="87"/>
+      <c r="AS34" s="87"/>
+      <c r="AT34" s="87"/>
+      <c r="AU34" s="87"/>
+      <c r="AV34" s="87"/>
+      <c r="AW34" s="87"/>
+      <c r="AX34" s="87"/>
+      <c r="AY34" s="87"/>
+      <c r="AZ34" s="87"/>
+      <c r="BA34" s="87"/>
+      <c r="BB34" s="87"/>
+      <c r="BC34" s="87"/>
+      <c r="BD34" s="87"/>
+      <c r="BE34" s="87"/>
+      <c r="BF34" s="87"/>
+      <c r="BG34" s="87"/>
+      <c r="BH34" s="87"/>
+      <c r="BI34" s="87"/>
+      <c r="BJ34" s="87"/>
+      <c r="BK34" s="87"/>
+      <c r="BL34" s="87"/>
+      <c r="BM34" s="87"/>
+      <c r="BN34" s="87"/>
+      <c r="BO34" s="87"/>
+      <c r="BP34" s="87"/>
+      <c r="BQ34" s="87"/>
+      <c r="BR34" s="87"/>
+      <c r="BS34" s="87"/>
+      <c r="BT34" s="87"/>
+      <c r="BU34" s="87"/>
+      <c r="BV34" s="87"/>
+      <c r="BW34" s="87"/>
+      <c r="BX34" s="87"/>
+      <c r="BY34" s="87"/>
+      <c r="BZ34" s="87"/>
+      <c r="CA34" s="87"/>
+      <c r="CB34" s="87"/>
+      <c r="CC34" s="87"/>
+      <c r="CD34" s="87"/>
+      <c r="CE34" s="87"/>
+      <c r="CF34" s="87"/>
+      <c r="CG34" s="87"/>
+      <c r="CH34" s="87"/>
+      <c r="CI34" s="87"/>
+      <c r="CJ34" s="87"/>
+      <c r="CK34" s="87"/>
+      <c r="CL34" s="87"/>
+      <c r="CM34" s="87"/>
+      <c r="CN34" s="87"/>
+      <c r="CO34" s="87"/>
+      <c r="CP34" s="87"/>
+      <c r="CQ34" s="87"/>
+      <c r="CR34" s="87"/>
+      <c r="CS34" s="87"/>
+      <c r="CT34" s="87"/>
+      <c r="CU34" s="87"/>
+      <c r="CV34" s="87"/>
+      <c r="CW34" s="87"/>
+      <c r="CX34" s="87"/>
+      <c r="CY34" s="87"/>
+      <c r="CZ34" s="87"/>
+      <c r="DA34" s="87"/>
+      <c r="DB34" s="87"/>
+      <c r="DC34" s="87"/>
+      <c r="DD34" s="87"/>
+      <c r="DE34" s="87"/>
+      <c r="DF34" s="87"/>
+      <c r="DG34" s="87"/>
+      <c r="DH34" s="87"/>
+      <c r="DI34" s="87"/>
     </row>
     <row r="35" spans="1:113" s="59" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="56" t="s">
@@ -6234,116 +6238,116 @@
       <c r="C35" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="90"/>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="90"/>
-      <c r="AE35" s="90"/>
-      <c r="AF35" s="90"/>
-      <c r="AG35" s="90"/>
-      <c r="AH35" s="90"/>
-      <c r="AI35" s="90"/>
-      <c r="AJ35" s="90"/>
-      <c r="AK35" s="90"/>
-      <c r="AL35" s="90"/>
-      <c r="AM35" s="90"/>
-      <c r="AN35" s="90"/>
-      <c r="AO35" s="90"/>
-      <c r="AP35" s="90"/>
-      <c r="AQ35" s="90"/>
-      <c r="AR35" s="90"/>
-      <c r="AS35" s="90"/>
-      <c r="AT35" s="90"/>
-      <c r="AU35" s="90"/>
-      <c r="AV35" s="90"/>
-      <c r="AW35" s="90"/>
-      <c r="AX35" s="90"/>
-      <c r="AY35" s="90"/>
-      <c r="AZ35" s="90"/>
-      <c r="BA35" s="90"/>
-      <c r="BB35" s="90"/>
-      <c r="BC35" s="90"/>
-      <c r="BD35" s="90"/>
-      <c r="BE35" s="90"/>
-      <c r="BF35" s="90"/>
-      <c r="BG35" s="90"/>
-      <c r="BH35" s="90"/>
-      <c r="BI35" s="90"/>
-      <c r="BJ35" s="90"/>
-      <c r="BK35" s="90"/>
-      <c r="BL35" s="90"/>
-      <c r="BM35" s="90"/>
-      <c r="BN35" s="90"/>
-      <c r="BO35" s="90"/>
-      <c r="BP35" s="90"/>
-      <c r="BQ35" s="90"/>
-      <c r="BR35" s="90"/>
-      <c r="BS35" s="90"/>
-      <c r="BT35" s="90"/>
-      <c r="BU35" s="90"/>
-      <c r="BV35" s="90"/>
-      <c r="BW35" s="90"/>
-      <c r="BX35" s="90"/>
-      <c r="BY35" s="90"/>
-      <c r="BZ35" s="90"/>
-      <c r="CA35" s="90"/>
-      <c r="CB35" s="90"/>
-      <c r="CC35" s="90"/>
-      <c r="CD35" s="90"/>
-      <c r="CE35" s="90"/>
-      <c r="CF35" s="90"/>
-      <c r="CG35" s="90"/>
-      <c r="CH35" s="90"/>
-      <c r="CI35" s="90"/>
-      <c r="CJ35" s="90"/>
-      <c r="CK35" s="90"/>
-      <c r="CL35" s="90"/>
-      <c r="CM35" s="90"/>
-      <c r="CN35" s="90"/>
-      <c r="CO35" s="90"/>
-      <c r="CP35" s="90"/>
-      <c r="CQ35" s="90"/>
-      <c r="CR35" s="90"/>
-      <c r="CS35" s="90"/>
-      <c r="CT35" s="90"/>
-      <c r="CU35" s="90"/>
-      <c r="CV35" s="90"/>
-      <c r="CW35" s="90"/>
-      <c r="CX35" s="90"/>
-      <c r="CY35" s="90"/>
-      <c r="CZ35" s="90"/>
-      <c r="DA35" s="90"/>
-      <c r="DB35" s="90"/>
-      <c r="DC35" s="90"/>
-      <c r="DD35" s="90"/>
-      <c r="DE35" s="90"/>
-      <c r="DF35" s="90"/>
-      <c r="DG35" s="90"/>
-      <c r="DH35" s="90"/>
-      <c r="DI35" s="90"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="86"/>
+      <c r="U35" s="86"/>
+      <c r="V35" s="86"/>
+      <c r="W35" s="86"/>
+      <c r="X35" s="86"/>
+      <c r="Y35" s="86"/>
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="86"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="86"/>
+      <c r="AG35" s="86"/>
+      <c r="AH35" s="86"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="86"/>
+      <c r="AK35" s="86"/>
+      <c r="AL35" s="86"/>
+      <c r="AM35" s="86"/>
+      <c r="AN35" s="86"/>
+      <c r="AO35" s="86"/>
+      <c r="AP35" s="86"/>
+      <c r="AQ35" s="86"/>
+      <c r="AR35" s="86"/>
+      <c r="AS35" s="86"/>
+      <c r="AT35" s="86"/>
+      <c r="AU35" s="86"/>
+      <c r="AV35" s="86"/>
+      <c r="AW35" s="86"/>
+      <c r="AX35" s="86"/>
+      <c r="AY35" s="86"/>
+      <c r="AZ35" s="86"/>
+      <c r="BA35" s="86"/>
+      <c r="BB35" s="86"/>
+      <c r="BC35" s="86"/>
+      <c r="BD35" s="86"/>
+      <c r="BE35" s="86"/>
+      <c r="BF35" s="86"/>
+      <c r="BG35" s="86"/>
+      <c r="BH35" s="86"/>
+      <c r="BI35" s="86"/>
+      <c r="BJ35" s="86"/>
+      <c r="BK35" s="86"/>
+      <c r="BL35" s="86"/>
+      <c r="BM35" s="86"/>
+      <c r="BN35" s="86"/>
+      <c r="BO35" s="86"/>
+      <c r="BP35" s="86"/>
+      <c r="BQ35" s="86"/>
+      <c r="BR35" s="86"/>
+      <c r="BS35" s="86"/>
+      <c r="BT35" s="86"/>
+      <c r="BU35" s="86"/>
+      <c r="BV35" s="86"/>
+      <c r="BW35" s="86"/>
+      <c r="BX35" s="86"/>
+      <c r="BY35" s="86"/>
+      <c r="BZ35" s="86"/>
+      <c r="CA35" s="86"/>
+      <c r="CB35" s="86"/>
+      <c r="CC35" s="86"/>
+      <c r="CD35" s="86"/>
+      <c r="CE35" s="86"/>
+      <c r="CF35" s="86"/>
+      <c r="CG35" s="86"/>
+      <c r="CH35" s="86"/>
+      <c r="CI35" s="86"/>
+      <c r="CJ35" s="86"/>
+      <c r="CK35" s="86"/>
+      <c r="CL35" s="86"/>
+      <c r="CM35" s="86"/>
+      <c r="CN35" s="86"/>
+      <c r="CO35" s="86"/>
+      <c r="CP35" s="86"/>
+      <c r="CQ35" s="86"/>
+      <c r="CR35" s="86"/>
+      <c r="CS35" s="86"/>
+      <c r="CT35" s="86"/>
+      <c r="CU35" s="86"/>
+      <c r="CV35" s="86"/>
+      <c r="CW35" s="86"/>
+      <c r="CX35" s="86"/>
+      <c r="CY35" s="86"/>
+      <c r="CZ35" s="86"/>
+      <c r="DA35" s="86"/>
+      <c r="DB35" s="86"/>
+      <c r="DC35" s="86"/>
+      <c r="DD35" s="86"/>
+      <c r="DE35" s="86"/>
+      <c r="DF35" s="86"/>
+      <c r="DG35" s="86"/>
+      <c r="DH35" s="86"/>
+      <c r="DI35" s="86"/>
     </row>
     <row r="36" spans="1:113" s="17" customFormat="1" ht="21.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
@@ -6351,116 +6355,116 @@
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
-      <c r="V36" s="79"/>
-      <c r="W36" s="79"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="79"/>
-      <c r="Z36" s="79"/>
-      <c r="AA36" s="79"/>
-      <c r="AB36" s="79"/>
-      <c r="AC36" s="79"/>
-      <c r="AD36" s="79"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="79"/>
-      <c r="AH36" s="79"/>
-      <c r="AI36" s="79"/>
-      <c r="AJ36" s="79"/>
-      <c r="AK36" s="79"/>
-      <c r="AL36" s="79"/>
-      <c r="AM36" s="79"/>
-      <c r="AN36" s="79"/>
-      <c r="AO36" s="79"/>
-      <c r="AP36" s="79"/>
-      <c r="AQ36" s="79"/>
-      <c r="AR36" s="79"/>
-      <c r="AS36" s="79"/>
-      <c r="AT36" s="79"/>
-      <c r="AU36" s="79"/>
-      <c r="AV36" s="79"/>
-      <c r="AW36" s="79"/>
-      <c r="AX36" s="79"/>
-      <c r="AY36" s="79"/>
-      <c r="AZ36" s="79"/>
-      <c r="BA36" s="79"/>
-      <c r="BB36" s="79"/>
-      <c r="BC36" s="79"/>
-      <c r="BD36" s="79"/>
-      <c r="BE36" s="79"/>
-      <c r="BF36" s="79"/>
-      <c r="BG36" s="79"/>
-      <c r="BH36" s="79"/>
-      <c r="BI36" s="79"/>
-      <c r="BJ36" s="79"/>
-      <c r="BK36" s="79"/>
-      <c r="BL36" s="79"/>
-      <c r="BM36" s="79"/>
-      <c r="BN36" s="79"/>
-      <c r="BO36" s="79"/>
-      <c r="BP36" s="79"/>
-      <c r="BQ36" s="79"/>
-      <c r="BR36" s="79"/>
-      <c r="BS36" s="79"/>
-      <c r="BT36" s="79"/>
-      <c r="BU36" s="79"/>
-      <c r="BV36" s="79"/>
-      <c r="BW36" s="79"/>
-      <c r="BX36" s="79"/>
-      <c r="BY36" s="79"/>
-      <c r="BZ36" s="79"/>
-      <c r="CA36" s="79"/>
-      <c r="CB36" s="79"/>
-      <c r="CC36" s="79"/>
-      <c r="CD36" s="79"/>
-      <c r="CE36" s="79"/>
-      <c r="CF36" s="79"/>
-      <c r="CG36" s="79"/>
-      <c r="CH36" s="79"/>
-      <c r="CI36" s="79"/>
-      <c r="CJ36" s="79"/>
-      <c r="CK36" s="79"/>
-      <c r="CL36" s="79"/>
-      <c r="CM36" s="79"/>
-      <c r="CN36" s="79"/>
-      <c r="CO36" s="79"/>
-      <c r="CP36" s="79"/>
-      <c r="CQ36" s="79"/>
-      <c r="CR36" s="79"/>
-      <c r="CS36" s="79"/>
-      <c r="CT36" s="79"/>
-      <c r="CU36" s="79"/>
-      <c r="CV36" s="79"/>
-      <c r="CW36" s="79"/>
-      <c r="CX36" s="79"/>
-      <c r="CY36" s="79"/>
-      <c r="CZ36" s="79"/>
-      <c r="DA36" s="79"/>
-      <c r="DB36" s="79"/>
-      <c r="DC36" s="79"/>
-      <c r="DD36" s="79"/>
-      <c r="DE36" s="79"/>
-      <c r="DF36" s="79"/>
-      <c r="DG36" s="79"/>
-      <c r="DH36" s="79"/>
-      <c r="DI36" s="79"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="76"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="76"/>
+      <c r="AZ36" s="76"/>
+      <c r="BA36" s="76"/>
+      <c r="BB36" s="76"/>
+      <c r="BC36" s="76"/>
+      <c r="BD36" s="76"/>
+      <c r="BE36" s="76"/>
+      <c r="BF36" s="76"/>
+      <c r="BG36" s="76"/>
+      <c r="BH36" s="76"/>
+      <c r="BI36" s="76"/>
+      <c r="BJ36" s="76"/>
+      <c r="BK36" s="76"/>
+      <c r="BL36" s="76"/>
+      <c r="BM36" s="76"/>
+      <c r="BN36" s="76"/>
+      <c r="BO36" s="76"/>
+      <c r="BP36" s="76"/>
+      <c r="BQ36" s="76"/>
+      <c r="BR36" s="76"/>
+      <c r="BS36" s="76"/>
+      <c r="BT36" s="76"/>
+      <c r="BU36" s="76"/>
+      <c r="BV36" s="76"/>
+      <c r="BW36" s="76"/>
+      <c r="BX36" s="76"/>
+      <c r="BY36" s="76"/>
+      <c r="BZ36" s="76"/>
+      <c r="CA36" s="76"/>
+      <c r="CB36" s="76"/>
+      <c r="CC36" s="76"/>
+      <c r="CD36" s="76"/>
+      <c r="CE36" s="76"/>
+      <c r="CF36" s="76"/>
+      <c r="CG36" s="76"/>
+      <c r="CH36" s="76"/>
+      <c r="CI36" s="76"/>
+      <c r="CJ36" s="76"/>
+      <c r="CK36" s="76"/>
+      <c r="CL36" s="76"/>
+      <c r="CM36" s="76"/>
+      <c r="CN36" s="76"/>
+      <c r="CO36" s="76"/>
+      <c r="CP36" s="76"/>
+      <c r="CQ36" s="76"/>
+      <c r="CR36" s="76"/>
+      <c r="CS36" s="76"/>
+      <c r="CT36" s="76"/>
+      <c r="CU36" s="76"/>
+      <c r="CV36" s="76"/>
+      <c r="CW36" s="76"/>
+      <c r="CX36" s="76"/>
+      <c r="CY36" s="76"/>
+      <c r="CZ36" s="76"/>
+      <c r="DA36" s="76"/>
+      <c r="DB36" s="76"/>
+      <c r="DC36" s="76"/>
+      <c r="DD36" s="76"/>
+      <c r="DE36" s="76"/>
+      <c r="DF36" s="76"/>
+      <c r="DG36" s="76"/>
+      <c r="DH36" s="76"/>
+      <c r="DI36" s="76"/>
     </row>
     <row r="37" spans="1:113" s="63" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="s">
@@ -6470,123 +6474,123 @@
       <c r="C37" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="91"/>
-      <c r="U37" s="91"/>
-      <c r="V37" s="91"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="91"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="91"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="91"/>
-      <c r="AC37" s="91"/>
-      <c r="AD37" s="91"/>
-      <c r="AE37" s="91"/>
-      <c r="AF37" s="91"/>
-      <c r="AG37" s="91"/>
-      <c r="AH37" s="91"/>
-      <c r="AI37" s="91"/>
-      <c r="AJ37" s="91"/>
-      <c r="AK37" s="91"/>
-      <c r="AL37" s="91"/>
-      <c r="AM37" s="91"/>
-      <c r="AN37" s="91"/>
-      <c r="AO37" s="91"/>
-      <c r="AP37" s="91"/>
-      <c r="AQ37" s="91"/>
-      <c r="AR37" s="91"/>
-      <c r="AS37" s="91"/>
-      <c r="AT37" s="91"/>
-      <c r="AU37" s="91"/>
-      <c r="AV37" s="91"/>
-      <c r="AW37" s="91"/>
-      <c r="AX37" s="91"/>
-      <c r="AY37" s="91"/>
-      <c r="AZ37" s="91"/>
-      <c r="BA37" s="91"/>
-      <c r="BB37" s="91"/>
-      <c r="BC37" s="91"/>
-      <c r="BD37" s="91"/>
-      <c r="BE37" s="91"/>
-      <c r="BF37" s="91"/>
-      <c r="BG37" s="91"/>
-      <c r="BH37" s="91"/>
-      <c r="BI37" s="91"/>
-      <c r="BJ37" s="91"/>
-      <c r="BK37" s="91"/>
-      <c r="BL37" s="91"/>
-      <c r="BM37" s="91"/>
-      <c r="BN37" s="91"/>
-      <c r="BO37" s="91"/>
-      <c r="BP37" s="91"/>
-      <c r="BQ37" s="91"/>
-      <c r="BR37" s="91"/>
-      <c r="BS37" s="91"/>
-      <c r="BT37" s="91"/>
-      <c r="BU37" s="91"/>
-      <c r="BV37" s="91"/>
-      <c r="BW37" s="91"/>
-      <c r="BX37" s="91"/>
-      <c r="BY37" s="91"/>
-      <c r="BZ37" s="91"/>
-      <c r="CA37" s="91"/>
-      <c r="CB37" s="91"/>
-      <c r="CC37" s="91"/>
-      <c r="CD37" s="91"/>
-      <c r="CE37" s="91"/>
-      <c r="CF37" s="91"/>
-      <c r="CG37" s="91"/>
-      <c r="CH37" s="91"/>
-      <c r="CI37" s="91"/>
-      <c r="CJ37" s="91"/>
-      <c r="CK37" s="91"/>
-      <c r="CL37" s="91"/>
-      <c r="CM37" s="91"/>
-      <c r="CN37" s="91"/>
-      <c r="CO37" s="91"/>
-      <c r="CP37" s="91"/>
-      <c r="CQ37" s="91"/>
-      <c r="CR37" s="91"/>
-      <c r="CS37" s="91"/>
-      <c r="CT37" s="91"/>
-      <c r="CU37" s="91"/>
-      <c r="CV37" s="91"/>
-      <c r="CW37" s="91"/>
-      <c r="CX37" s="91"/>
-      <c r="CY37" s="91"/>
-      <c r="CZ37" s="91"/>
-      <c r="DA37" s="91"/>
-      <c r="DB37" s="91"/>
-      <c r="DC37" s="91"/>
-      <c r="DD37" s="91"/>
-      <c r="DE37" s="91"/>
-      <c r="DF37" s="91"/>
-      <c r="DG37" s="91"/>
-      <c r="DH37" s="91"/>
-      <c r="DI37" s="91"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="87"/>
+      <c r="AB37" s="87"/>
+      <c r="AC37" s="87"/>
+      <c r="AD37" s="87"/>
+      <c r="AE37" s="87"/>
+      <c r="AF37" s="87"/>
+      <c r="AG37" s="87"/>
+      <c r="AH37" s="87"/>
+      <c r="AI37" s="87"/>
+      <c r="AJ37" s="87"/>
+      <c r="AK37" s="87"/>
+      <c r="AL37" s="87"/>
+      <c r="AM37" s="87"/>
+      <c r="AN37" s="87"/>
+      <c r="AO37" s="87"/>
+      <c r="AP37" s="87"/>
+      <c r="AQ37" s="87"/>
+      <c r="AR37" s="87"/>
+      <c r="AS37" s="87"/>
+      <c r="AT37" s="87"/>
+      <c r="AU37" s="87"/>
+      <c r="AV37" s="87"/>
+      <c r="AW37" s="87"/>
+      <c r="AX37" s="87"/>
+      <c r="AY37" s="87"/>
+      <c r="AZ37" s="87"/>
+      <c r="BA37" s="87"/>
+      <c r="BB37" s="87"/>
+      <c r="BC37" s="87"/>
+      <c r="BD37" s="87"/>
+      <c r="BE37" s="87"/>
+      <c r="BF37" s="87"/>
+      <c r="BG37" s="87"/>
+      <c r="BH37" s="87"/>
+      <c r="BI37" s="87"/>
+      <c r="BJ37" s="87"/>
+      <c r="BK37" s="87"/>
+      <c r="BL37" s="87"/>
+      <c r="BM37" s="87"/>
+      <c r="BN37" s="87"/>
+      <c r="BO37" s="87"/>
+      <c r="BP37" s="87"/>
+      <c r="BQ37" s="87"/>
+      <c r="BR37" s="87"/>
+      <c r="BS37" s="87"/>
+      <c r="BT37" s="87"/>
+      <c r="BU37" s="87"/>
+      <c r="BV37" s="87"/>
+      <c r="BW37" s="87"/>
+      <c r="BX37" s="87"/>
+      <c r="BY37" s="87"/>
+      <c r="BZ37" s="87"/>
+      <c r="CA37" s="87"/>
+      <c r="CB37" s="87"/>
+      <c r="CC37" s="87"/>
+      <c r="CD37" s="87"/>
+      <c r="CE37" s="87"/>
+      <c r="CF37" s="87"/>
+      <c r="CG37" s="87"/>
+      <c r="CH37" s="87"/>
+      <c r="CI37" s="87"/>
+      <c r="CJ37" s="87"/>
+      <c r="CK37" s="87"/>
+      <c r="CL37" s="87"/>
+      <c r="CM37" s="87"/>
+      <c r="CN37" s="87"/>
+      <c r="CO37" s="87"/>
+      <c r="CP37" s="87"/>
+      <c r="CQ37" s="87"/>
+      <c r="CR37" s="87"/>
+      <c r="CS37" s="87"/>
+      <c r="CT37" s="87"/>
+      <c r="CU37" s="87"/>
+      <c r="CV37" s="87"/>
+      <c r="CW37" s="87"/>
+      <c r="CX37" s="87"/>
+      <c r="CY37" s="87"/>
+      <c r="CZ37" s="87"/>
+      <c r="DA37" s="87"/>
+      <c r="DB37" s="87"/>
+      <c r="DC37" s="87"/>
+      <c r="DD37" s="87"/>
+      <c r="DE37" s="87"/>
+      <c r="DF37" s="87"/>
+      <c r="DG37" s="87"/>
+      <c r="DH37" s="87"/>
+      <c r="DI37" s="87"/>
     </row>
     <row r="38" spans="1:113" s="20" customFormat="1" ht="119.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="55"/>
@@ -7321,7 +7325,7 @@
         <v/>
       </c>
       <c r="CV41" s="35" t="str">
-        <f t="shared" ref="CV41:EA41" si="33">IF(ISBLANK(CV40),"",IF((CV40&lt;CV21),(CV40/(3600*CV20)),((CV40-CV21)/CV22+CV21/CV20)/3600))</f>
+        <f t="shared" ref="CV41:DI41" si="33">IF(ISBLANK(CV40),"",IF((CV40&lt;CV21),(CV40/(3600*CV20)),((CV40-CV21)/CV22+CV21/CV20)/3600))</f>
         <v/>
       </c>
       <c r="CW41" s="35" t="str">
@@ -7615,146 +7619,146 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="119"/>
-      <c r="E47" s="119"/>
-      <c r="F47" s="119"/>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119" t="str">
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100" t="str">
         <f>IF(ISBLANK(D47),"",D47)</f>
         <v/>
       </c>
-      <c r="O47" s="119"/>
-      <c r="P47" s="119"/>
-      <c r="Q47" s="119"/>
-      <c r="R47" s="119"/>
-      <c r="S47" s="119"/>
-      <c r="T47" s="119"/>
-      <c r="U47" s="119"/>
-      <c r="V47" s="119"/>
-      <c r="W47" s="119"/>
-      <c r="X47" s="119" t="str">
+      <c r="O47" s="100"/>
+      <c r="P47" s="100"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="100"/>
+      <c r="S47" s="100"/>
+      <c r="T47" s="100"/>
+      <c r="U47" s="100"/>
+      <c r="V47" s="100"/>
+      <c r="W47" s="100"/>
+      <c r="X47" s="100" t="str">
         <f t="shared" ref="X47" si="35">IF(ISBLANK(N47),"",N47)</f>
         <v/>
       </c>
-      <c r="Y47" s="119"/>
-      <c r="Z47" s="119"/>
-      <c r="AA47" s="119"/>
-      <c r="AB47" s="119"/>
-      <c r="AC47" s="119"/>
-      <c r="AD47" s="119"/>
-      <c r="AE47" s="119"/>
-      <c r="AF47" s="119"/>
-      <c r="AG47" s="119"/>
-      <c r="AH47" s="119" t="str">
+      <c r="Y47" s="100"/>
+      <c r="Z47" s="100"/>
+      <c r="AA47" s="100"/>
+      <c r="AB47" s="100"/>
+      <c r="AC47" s="100"/>
+      <c r="AD47" s="100"/>
+      <c r="AE47" s="100"/>
+      <c r="AF47" s="100"/>
+      <c r="AG47" s="100"/>
+      <c r="AH47" s="100" t="str">
         <f t="shared" ref="AH47" si="36">IF(ISBLANK(X47),"",X47)</f>
         <v/>
       </c>
-      <c r="AI47" s="119"/>
-      <c r="AJ47" s="119"/>
-      <c r="AK47" s="119"/>
-      <c r="AL47" s="119"/>
-      <c r="AM47" s="119"/>
-      <c r="AN47" s="119"/>
-      <c r="AO47" s="119"/>
-      <c r="AP47" s="119"/>
-      <c r="AQ47" s="119"/>
-      <c r="AR47" s="119" t="str">
+      <c r="AI47" s="100"/>
+      <c r="AJ47" s="100"/>
+      <c r="AK47" s="100"/>
+      <c r="AL47" s="100"/>
+      <c r="AM47" s="100"/>
+      <c r="AN47" s="100"/>
+      <c r="AO47" s="100"/>
+      <c r="AP47" s="100"/>
+      <c r="AQ47" s="100"/>
+      <c r="AR47" s="100" t="str">
         <f t="shared" ref="AR47" si="37">IF(ISBLANK(AH47),"",AH47)</f>
         <v/>
       </c>
-      <c r="AS47" s="119"/>
-      <c r="AT47" s="119"/>
-      <c r="AU47" s="119"/>
-      <c r="AV47" s="119"/>
-      <c r="AW47" s="119"/>
-      <c r="AX47" s="119"/>
-      <c r="AY47" s="119"/>
-      <c r="AZ47" s="119"/>
-      <c r="BA47" s="119"/>
-      <c r="BB47" s="119" t="str">
+      <c r="AS47" s="100"/>
+      <c r="AT47" s="100"/>
+      <c r="AU47" s="100"/>
+      <c r="AV47" s="100"/>
+      <c r="AW47" s="100"/>
+      <c r="AX47" s="100"/>
+      <c r="AY47" s="100"/>
+      <c r="AZ47" s="100"/>
+      <c r="BA47" s="100"/>
+      <c r="BB47" s="100" t="str">
         <f t="shared" ref="BB47" si="38">IF(ISBLANK(AR47),"",AR47)</f>
         <v/>
       </c>
-      <c r="BC47" s="119"/>
-      <c r="BD47" s="119"/>
-      <c r="BE47" s="119"/>
-      <c r="BF47" s="119"/>
-      <c r="BG47" s="119"/>
-      <c r="BH47" s="119"/>
-      <c r="BI47" s="119"/>
-      <c r="BJ47" s="119"/>
-      <c r="BK47" s="119"/>
-      <c r="BL47" s="119" t="str">
+      <c r="BC47" s="100"/>
+      <c r="BD47" s="100"/>
+      <c r="BE47" s="100"/>
+      <c r="BF47" s="100"/>
+      <c r="BG47" s="100"/>
+      <c r="BH47" s="100"/>
+      <c r="BI47" s="100"/>
+      <c r="BJ47" s="100"/>
+      <c r="BK47" s="100"/>
+      <c r="BL47" s="100" t="str">
         <f t="shared" ref="BL47" si="39">IF(ISBLANK(BB47),"",BB47)</f>
         <v/>
       </c>
-      <c r="BM47" s="119"/>
-      <c r="BN47" s="119"/>
-      <c r="BO47" s="119"/>
-      <c r="BP47" s="119"/>
-      <c r="BQ47" s="119"/>
-      <c r="BR47" s="119"/>
-      <c r="BS47" s="119"/>
-      <c r="BT47" s="119"/>
-      <c r="BU47" s="119"/>
-      <c r="BV47" s="119" t="str">
+      <c r="BM47" s="100"/>
+      <c r="BN47" s="100"/>
+      <c r="BO47" s="100"/>
+      <c r="BP47" s="100"/>
+      <c r="BQ47" s="100"/>
+      <c r="BR47" s="100"/>
+      <c r="BS47" s="100"/>
+      <c r="BT47" s="100"/>
+      <c r="BU47" s="100"/>
+      <c r="BV47" s="100" t="str">
         <f t="shared" ref="BV47" si="40">IF(ISBLANK(BL47),"",BL47)</f>
         <v/>
       </c>
-      <c r="BW47" s="119"/>
-      <c r="BX47" s="119"/>
-      <c r="BY47" s="119"/>
-      <c r="BZ47" s="119"/>
-      <c r="CA47" s="119"/>
-      <c r="CB47" s="119"/>
-      <c r="CC47" s="119"/>
-      <c r="CD47" s="119"/>
-      <c r="CE47" s="119"/>
-      <c r="CF47" s="119" t="str">
+      <c r="BW47" s="100"/>
+      <c r="BX47" s="100"/>
+      <c r="BY47" s="100"/>
+      <c r="BZ47" s="100"/>
+      <c r="CA47" s="100"/>
+      <c r="CB47" s="100"/>
+      <c r="CC47" s="100"/>
+      <c r="CD47" s="100"/>
+      <c r="CE47" s="100"/>
+      <c r="CF47" s="100" t="str">
         <f t="shared" ref="CF47" si="41">IF(ISBLANK(BV47),"",BV47)</f>
         <v/>
       </c>
-      <c r="CG47" s="119"/>
-      <c r="CH47" s="119"/>
-      <c r="CI47" s="119"/>
-      <c r="CJ47" s="119"/>
-      <c r="CK47" s="119"/>
-      <c r="CL47" s="119"/>
-      <c r="CM47" s="119"/>
-      <c r="CN47" s="119"/>
-      <c r="CO47" s="119"/>
-      <c r="CP47" s="119" t="str">
+      <c r="CG47" s="100"/>
+      <c r="CH47" s="100"/>
+      <c r="CI47" s="100"/>
+      <c r="CJ47" s="100"/>
+      <c r="CK47" s="100"/>
+      <c r="CL47" s="100"/>
+      <c r="CM47" s="100"/>
+      <c r="CN47" s="100"/>
+      <c r="CO47" s="100"/>
+      <c r="CP47" s="100" t="str">
         <f t="shared" ref="CP47" si="42">IF(ISBLANK(CF47),"",CF47)</f>
         <v/>
       </c>
-      <c r="CQ47" s="119"/>
-      <c r="CR47" s="119"/>
-      <c r="CS47" s="119"/>
-      <c r="CT47" s="119"/>
-      <c r="CU47" s="119"/>
-      <c r="CV47" s="119"/>
-      <c r="CW47" s="119"/>
-      <c r="CX47" s="119"/>
-      <c r="CY47" s="119"/>
-      <c r="CZ47" s="119" t="str">
+      <c r="CQ47" s="100"/>
+      <c r="CR47" s="100"/>
+      <c r="CS47" s="100"/>
+      <c r="CT47" s="100"/>
+      <c r="CU47" s="100"/>
+      <c r="CV47" s="100"/>
+      <c r="CW47" s="100"/>
+      <c r="CX47" s="100"/>
+      <c r="CY47" s="100"/>
+      <c r="CZ47" s="100" t="str">
         <f>IF(ISBLANK(CP47),"",CP47)</f>
         <v/>
       </c>
-      <c r="DA47" s="119"/>
-      <c r="DB47" s="119"/>
-      <c r="DC47" s="119"/>
-      <c r="DD47" s="119"/>
-      <c r="DE47" s="119"/>
-      <c r="DF47" s="119"/>
-      <c r="DG47" s="119"/>
-      <c r="DH47" s="119"/>
-      <c r="DI47" s="119"/>
+      <c r="DA47" s="100"/>
+      <c r="DB47" s="100"/>
+      <c r="DC47" s="100"/>
+      <c r="DD47" s="100"/>
+      <c r="DE47" s="100"/>
+      <c r="DF47" s="100"/>
+      <c r="DG47" s="100"/>
+      <c r="DH47" s="100"/>
+      <c r="DI47" s="100"/>
     </row>
     <row r="48" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -7762,461 +7766,461 @@
         <v>36</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="119"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="119"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="119"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="119"/>
-      <c r="M48" s="119"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="119"/>
-      <c r="P48" s="119"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="119"/>
-      <c r="S48" s="119"/>
-      <c r="T48" s="119"/>
-      <c r="U48" s="119"/>
-      <c r="V48" s="119"/>
-      <c r="W48" s="119"/>
-      <c r="X48" s="119"/>
-      <c r="Y48" s="119"/>
-      <c r="Z48" s="119"/>
-      <c r="AA48" s="119"/>
-      <c r="AB48" s="119"/>
-      <c r="AC48" s="119"/>
-      <c r="AD48" s="119"/>
-      <c r="AE48" s="119"/>
-      <c r="AF48" s="119"/>
-      <c r="AG48" s="119"/>
-      <c r="AH48" s="119"/>
-      <c r="AI48" s="119"/>
-      <c r="AJ48" s="119"/>
-      <c r="AK48" s="119"/>
-      <c r="AL48" s="119"/>
-      <c r="AM48" s="119"/>
-      <c r="AN48" s="119"/>
-      <c r="AO48" s="119"/>
-      <c r="AP48" s="119"/>
-      <c r="AQ48" s="119"/>
-      <c r="AR48" s="119"/>
-      <c r="AS48" s="119"/>
-      <c r="AT48" s="119"/>
-      <c r="AU48" s="119"/>
-      <c r="AV48" s="119"/>
-      <c r="AW48" s="119"/>
-      <c r="AX48" s="119"/>
-      <c r="AY48" s="119"/>
-      <c r="AZ48" s="119"/>
-      <c r="BA48" s="119"/>
-      <c r="BB48" s="119"/>
-      <c r="BC48" s="119"/>
-      <c r="BD48" s="119"/>
-      <c r="BE48" s="119"/>
-      <c r="BF48" s="119"/>
-      <c r="BG48" s="119"/>
-      <c r="BH48" s="119"/>
-      <c r="BI48" s="119"/>
-      <c r="BJ48" s="119"/>
-      <c r="BK48" s="119"/>
-      <c r="BL48" s="119"/>
-      <c r="BM48" s="119"/>
-      <c r="BN48" s="119"/>
-      <c r="BO48" s="119"/>
-      <c r="BP48" s="119"/>
-      <c r="BQ48" s="119"/>
-      <c r="BR48" s="119"/>
-      <c r="BS48" s="119"/>
-      <c r="BT48" s="119"/>
-      <c r="BU48" s="119"/>
-      <c r="BV48" s="119"/>
-      <c r="BW48" s="119"/>
-      <c r="BX48" s="119"/>
-      <c r="BY48" s="119"/>
-      <c r="BZ48" s="119"/>
-      <c r="CA48" s="119"/>
-      <c r="CB48" s="119"/>
-      <c r="CC48" s="119"/>
-      <c r="CD48" s="119"/>
-      <c r="CE48" s="119"/>
-      <c r="CF48" s="119"/>
-      <c r="CG48" s="119"/>
-      <c r="CH48" s="119"/>
-      <c r="CI48" s="119"/>
-      <c r="CJ48" s="119"/>
-      <c r="CK48" s="119"/>
-      <c r="CL48" s="119"/>
-      <c r="CM48" s="119"/>
-      <c r="CN48" s="119"/>
-      <c r="CO48" s="119"/>
-      <c r="CP48" s="119"/>
-      <c r="CQ48" s="119"/>
-      <c r="CR48" s="119"/>
-      <c r="CS48" s="119"/>
-      <c r="CT48" s="119"/>
-      <c r="CU48" s="119"/>
-      <c r="CV48" s="119"/>
-      <c r="CW48" s="119"/>
-      <c r="CX48" s="119"/>
-      <c r="CY48" s="119"/>
-      <c r="CZ48" s="119"/>
-      <c r="DA48" s="119"/>
-      <c r="DB48" s="119"/>
-      <c r="DC48" s="119"/>
-      <c r="DD48" s="119"/>
-      <c r="DE48" s="119"/>
-      <c r="DF48" s="119"/>
-      <c r="DG48" s="119"/>
-      <c r="DH48" s="119"/>
-      <c r="DI48" s="119"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="100"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="100"/>
+      <c r="W48" s="100"/>
+      <c r="X48" s="100"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="100"/>
+      <c r="AB48" s="100"/>
+      <c r="AC48" s="100"/>
+      <c r="AD48" s="100"/>
+      <c r="AE48" s="100"/>
+      <c r="AF48" s="100"/>
+      <c r="AG48" s="100"/>
+      <c r="AH48" s="100"/>
+      <c r="AI48" s="100"/>
+      <c r="AJ48" s="100"/>
+      <c r="AK48" s="100"/>
+      <c r="AL48" s="100"/>
+      <c r="AM48" s="100"/>
+      <c r="AN48" s="100"/>
+      <c r="AO48" s="100"/>
+      <c r="AP48" s="100"/>
+      <c r="AQ48" s="100"/>
+      <c r="AR48" s="100"/>
+      <c r="AS48" s="100"/>
+      <c r="AT48" s="100"/>
+      <c r="AU48" s="100"/>
+      <c r="AV48" s="100"/>
+      <c r="AW48" s="100"/>
+      <c r="AX48" s="100"/>
+      <c r="AY48" s="100"/>
+      <c r="AZ48" s="100"/>
+      <c r="BA48" s="100"/>
+      <c r="BB48" s="100"/>
+      <c r="BC48" s="100"/>
+      <c r="BD48" s="100"/>
+      <c r="BE48" s="100"/>
+      <c r="BF48" s="100"/>
+      <c r="BG48" s="100"/>
+      <c r="BH48" s="100"/>
+      <c r="BI48" s="100"/>
+      <c r="BJ48" s="100"/>
+      <c r="BK48" s="100"/>
+      <c r="BL48" s="100"/>
+      <c r="BM48" s="100"/>
+      <c r="BN48" s="100"/>
+      <c r="BO48" s="100"/>
+      <c r="BP48" s="100"/>
+      <c r="BQ48" s="100"/>
+      <c r="BR48" s="100"/>
+      <c r="BS48" s="100"/>
+      <c r="BT48" s="100"/>
+      <c r="BU48" s="100"/>
+      <c r="BV48" s="100"/>
+      <c r="BW48" s="100"/>
+      <c r="BX48" s="100"/>
+      <c r="BY48" s="100"/>
+      <c r="BZ48" s="100"/>
+      <c r="CA48" s="100"/>
+      <c r="CB48" s="100"/>
+      <c r="CC48" s="100"/>
+      <c r="CD48" s="100"/>
+      <c r="CE48" s="100"/>
+      <c r="CF48" s="100"/>
+      <c r="CG48" s="100"/>
+      <c r="CH48" s="100"/>
+      <c r="CI48" s="100"/>
+      <c r="CJ48" s="100"/>
+      <c r="CK48" s="100"/>
+      <c r="CL48" s="100"/>
+      <c r="CM48" s="100"/>
+      <c r="CN48" s="100"/>
+      <c r="CO48" s="100"/>
+      <c r="CP48" s="100"/>
+      <c r="CQ48" s="100"/>
+      <c r="CR48" s="100"/>
+      <c r="CS48" s="100"/>
+      <c r="CT48" s="100"/>
+      <c r="CU48" s="100"/>
+      <c r="CV48" s="100"/>
+      <c r="CW48" s="100"/>
+      <c r="CX48" s="100"/>
+      <c r="CY48" s="100"/>
+      <c r="CZ48" s="100"/>
+      <c r="DA48" s="100"/>
+      <c r="DB48" s="100"/>
+      <c r="DC48" s="100"/>
+      <c r="DD48" s="100"/>
+      <c r="DE48" s="100"/>
+      <c r="DF48" s="100"/>
+      <c r="DG48" s="100"/>
+      <c r="DH48" s="100"/>
+      <c r="DI48" s="100"/>
     </row>
     <row r="49" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="119"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="119"/>
-      <c r="S49" s="119"/>
-      <c r="T49" s="119"/>
-      <c r="U49" s="119"/>
-      <c r="V49" s="119"/>
-      <c r="W49" s="119"/>
-      <c r="X49" s="119"/>
-      <c r="Y49" s="119"/>
-      <c r="Z49" s="119"/>
-      <c r="AA49" s="119"/>
-      <c r="AB49" s="119"/>
-      <c r="AC49" s="119"/>
-      <c r="AD49" s="119"/>
-      <c r="AE49" s="119"/>
-      <c r="AF49" s="119"/>
-      <c r="AG49" s="119"/>
-      <c r="AH49" s="119"/>
-      <c r="AI49" s="119"/>
-      <c r="AJ49" s="119"/>
-      <c r="AK49" s="119"/>
-      <c r="AL49" s="119"/>
-      <c r="AM49" s="119"/>
-      <c r="AN49" s="119"/>
-      <c r="AO49" s="119"/>
-      <c r="AP49" s="119"/>
-      <c r="AQ49" s="119"/>
-      <c r="AR49" s="119"/>
-      <c r="AS49" s="119"/>
-      <c r="AT49" s="119"/>
-      <c r="AU49" s="119"/>
-      <c r="AV49" s="119"/>
-      <c r="AW49" s="119"/>
-      <c r="AX49" s="119"/>
-      <c r="AY49" s="119"/>
-      <c r="AZ49" s="119"/>
-      <c r="BA49" s="119"/>
-      <c r="BB49" s="119"/>
-      <c r="BC49" s="119"/>
-      <c r="BD49" s="119"/>
-      <c r="BE49" s="119"/>
-      <c r="BF49" s="119"/>
-      <c r="BG49" s="119"/>
-      <c r="BH49" s="119"/>
-      <c r="BI49" s="119"/>
-      <c r="BJ49" s="119"/>
-      <c r="BK49" s="119"/>
-      <c r="BL49" s="119"/>
-      <c r="BM49" s="119"/>
-      <c r="BN49" s="119"/>
-      <c r="BO49" s="119"/>
-      <c r="BP49" s="119"/>
-      <c r="BQ49" s="119"/>
-      <c r="BR49" s="119"/>
-      <c r="BS49" s="119"/>
-      <c r="BT49" s="119"/>
-      <c r="BU49" s="119"/>
-      <c r="BV49" s="119"/>
-      <c r="BW49" s="119"/>
-      <c r="BX49" s="119"/>
-      <c r="BY49" s="119"/>
-      <c r="BZ49" s="119"/>
-      <c r="CA49" s="119"/>
-      <c r="CB49" s="119"/>
-      <c r="CC49" s="119"/>
-      <c r="CD49" s="119"/>
-      <c r="CE49" s="119"/>
-      <c r="CF49" s="119"/>
-      <c r="CG49" s="119"/>
-      <c r="CH49" s="119"/>
-      <c r="CI49" s="119"/>
-      <c r="CJ49" s="119"/>
-      <c r="CK49" s="119"/>
-      <c r="CL49" s="119"/>
-      <c r="CM49" s="119"/>
-      <c r="CN49" s="119"/>
-      <c r="CO49" s="119"/>
-      <c r="CP49" s="119"/>
-      <c r="CQ49" s="119"/>
-      <c r="CR49" s="119"/>
-      <c r="CS49" s="119"/>
-      <c r="CT49" s="119"/>
-      <c r="CU49" s="119"/>
-      <c r="CV49" s="119"/>
-      <c r="CW49" s="119"/>
-      <c r="CX49" s="119"/>
-      <c r="CY49" s="119"/>
-      <c r="CZ49" s="119"/>
-      <c r="DA49" s="119"/>
-      <c r="DB49" s="119"/>
-      <c r="DC49" s="119"/>
-      <c r="DD49" s="119"/>
-      <c r="DE49" s="119"/>
-      <c r="DF49" s="119"/>
-      <c r="DG49" s="119"/>
-      <c r="DH49" s="119"/>
-      <c r="DI49" s="119"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="100"/>
+      <c r="K49" s="100"/>
+      <c r="L49" s="100"/>
+      <c r="M49" s="100"/>
+      <c r="N49" s="100"/>
+      <c r="O49" s="100"/>
+      <c r="P49" s="100"/>
+      <c r="Q49" s="100"/>
+      <c r="R49" s="100"/>
+      <c r="S49" s="100"/>
+      <c r="T49" s="100"/>
+      <c r="U49" s="100"/>
+      <c r="V49" s="100"/>
+      <c r="W49" s="100"/>
+      <c r="X49" s="100"/>
+      <c r="Y49" s="100"/>
+      <c r="Z49" s="100"/>
+      <c r="AA49" s="100"/>
+      <c r="AB49" s="100"/>
+      <c r="AC49" s="100"/>
+      <c r="AD49" s="100"/>
+      <c r="AE49" s="100"/>
+      <c r="AF49" s="100"/>
+      <c r="AG49" s="100"/>
+      <c r="AH49" s="100"/>
+      <c r="AI49" s="100"/>
+      <c r="AJ49" s="100"/>
+      <c r="AK49" s="100"/>
+      <c r="AL49" s="100"/>
+      <c r="AM49" s="100"/>
+      <c r="AN49" s="100"/>
+      <c r="AO49" s="100"/>
+      <c r="AP49" s="100"/>
+      <c r="AQ49" s="100"/>
+      <c r="AR49" s="100"/>
+      <c r="AS49" s="100"/>
+      <c r="AT49" s="100"/>
+      <c r="AU49" s="100"/>
+      <c r="AV49" s="100"/>
+      <c r="AW49" s="100"/>
+      <c r="AX49" s="100"/>
+      <c r="AY49" s="100"/>
+      <c r="AZ49" s="100"/>
+      <c r="BA49" s="100"/>
+      <c r="BB49" s="100"/>
+      <c r="BC49" s="100"/>
+      <c r="BD49" s="100"/>
+      <c r="BE49" s="100"/>
+      <c r="BF49" s="100"/>
+      <c r="BG49" s="100"/>
+      <c r="BH49" s="100"/>
+      <c r="BI49" s="100"/>
+      <c r="BJ49" s="100"/>
+      <c r="BK49" s="100"/>
+      <c r="BL49" s="100"/>
+      <c r="BM49" s="100"/>
+      <c r="BN49" s="100"/>
+      <c r="BO49" s="100"/>
+      <c r="BP49" s="100"/>
+      <c r="BQ49" s="100"/>
+      <c r="BR49" s="100"/>
+      <c r="BS49" s="100"/>
+      <c r="BT49" s="100"/>
+      <c r="BU49" s="100"/>
+      <c r="BV49" s="100"/>
+      <c r="BW49" s="100"/>
+      <c r="BX49" s="100"/>
+      <c r="BY49" s="100"/>
+      <c r="BZ49" s="100"/>
+      <c r="CA49" s="100"/>
+      <c r="CB49" s="100"/>
+      <c r="CC49" s="100"/>
+      <c r="CD49" s="100"/>
+      <c r="CE49" s="100"/>
+      <c r="CF49" s="100"/>
+      <c r="CG49" s="100"/>
+      <c r="CH49" s="100"/>
+      <c r="CI49" s="100"/>
+      <c r="CJ49" s="100"/>
+      <c r="CK49" s="100"/>
+      <c r="CL49" s="100"/>
+      <c r="CM49" s="100"/>
+      <c r="CN49" s="100"/>
+      <c r="CO49" s="100"/>
+      <c r="CP49" s="100"/>
+      <c r="CQ49" s="100"/>
+      <c r="CR49" s="100"/>
+      <c r="CS49" s="100"/>
+      <c r="CT49" s="100"/>
+      <c r="CU49" s="100"/>
+      <c r="CV49" s="100"/>
+      <c r="CW49" s="100"/>
+      <c r="CX49" s="100"/>
+      <c r="CY49" s="100"/>
+      <c r="CZ49" s="100"/>
+      <c r="DA49" s="100"/>
+      <c r="DB49" s="100"/>
+      <c r="DC49" s="100"/>
+      <c r="DD49" s="100"/>
+      <c r="DE49" s="100"/>
+      <c r="DF49" s="100"/>
+      <c r="DG49" s="100"/>
+      <c r="DH49" s="100"/>
+      <c r="DI49" s="100"/>
     </row>
     <row r="50" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-      <c r="L50" s="119"/>
-      <c r="M50" s="119"/>
-      <c r="N50" s="119"/>
-      <c r="O50" s="119"/>
-      <c r="P50" s="119"/>
-      <c r="Q50" s="119"/>
-      <c r="R50" s="119"/>
-      <c r="S50" s="119"/>
-      <c r="T50" s="119"/>
-      <c r="U50" s="119"/>
-      <c r="V50" s="119"/>
-      <c r="W50" s="119"/>
-      <c r="X50" s="119"/>
-      <c r="Y50" s="119"/>
-      <c r="Z50" s="119"/>
-      <c r="AA50" s="119"/>
-      <c r="AB50" s="119"/>
-      <c r="AC50" s="119"/>
-      <c r="AD50" s="119"/>
-      <c r="AE50" s="119"/>
-      <c r="AF50" s="119"/>
-      <c r="AG50" s="119"/>
-      <c r="AH50" s="119"/>
-      <c r="AI50" s="119"/>
-      <c r="AJ50" s="119"/>
-      <c r="AK50" s="119"/>
-      <c r="AL50" s="119"/>
-      <c r="AM50" s="119"/>
-      <c r="AN50" s="119"/>
-      <c r="AO50" s="119"/>
-      <c r="AP50" s="119"/>
-      <c r="AQ50" s="119"/>
-      <c r="AR50" s="119"/>
-      <c r="AS50" s="119"/>
-      <c r="AT50" s="119"/>
-      <c r="AU50" s="119"/>
-      <c r="AV50" s="119"/>
-      <c r="AW50" s="119"/>
-      <c r="AX50" s="119"/>
-      <c r="AY50" s="119"/>
-      <c r="AZ50" s="119"/>
-      <c r="BA50" s="119"/>
-      <c r="BB50" s="119"/>
-      <c r="BC50" s="119"/>
-      <c r="BD50" s="119"/>
-      <c r="BE50" s="119"/>
-      <c r="BF50" s="119"/>
-      <c r="BG50" s="119"/>
-      <c r="BH50" s="119"/>
-      <c r="BI50" s="119"/>
-      <c r="BJ50" s="119"/>
-      <c r="BK50" s="119"/>
-      <c r="BL50" s="119"/>
-      <c r="BM50" s="119"/>
-      <c r="BN50" s="119"/>
-      <c r="BO50" s="119"/>
-      <c r="BP50" s="119"/>
-      <c r="BQ50" s="119"/>
-      <c r="BR50" s="119"/>
-      <c r="BS50" s="119"/>
-      <c r="BT50" s="119"/>
-      <c r="BU50" s="119"/>
-      <c r="BV50" s="119"/>
-      <c r="BW50" s="119"/>
-      <c r="BX50" s="119"/>
-      <c r="BY50" s="119"/>
-      <c r="BZ50" s="119"/>
-      <c r="CA50" s="119"/>
-      <c r="CB50" s="119"/>
-      <c r="CC50" s="119"/>
-      <c r="CD50" s="119"/>
-      <c r="CE50" s="119"/>
-      <c r="CF50" s="119"/>
-      <c r="CG50" s="119"/>
-      <c r="CH50" s="119"/>
-      <c r="CI50" s="119"/>
-      <c r="CJ50" s="119"/>
-      <c r="CK50" s="119"/>
-      <c r="CL50" s="119"/>
-      <c r="CM50" s="119"/>
-      <c r="CN50" s="119"/>
-      <c r="CO50" s="119"/>
-      <c r="CP50" s="119"/>
-      <c r="CQ50" s="119"/>
-      <c r="CR50" s="119"/>
-      <c r="CS50" s="119"/>
-      <c r="CT50" s="119"/>
-      <c r="CU50" s="119"/>
-      <c r="CV50" s="119"/>
-      <c r="CW50" s="119"/>
-      <c r="CX50" s="119"/>
-      <c r="CY50" s="119"/>
-      <c r="CZ50" s="119"/>
-      <c r="DA50" s="119"/>
-      <c r="DB50" s="119"/>
-      <c r="DC50" s="119"/>
-      <c r="DD50" s="119"/>
-      <c r="DE50" s="119"/>
-      <c r="DF50" s="119"/>
-      <c r="DG50" s="119"/>
-      <c r="DH50" s="119"/>
-      <c r="DI50" s="119"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="100"/>
+      <c r="K50" s="100"/>
+      <c r="L50" s="100"/>
+      <c r="M50" s="100"/>
+      <c r="N50" s="100"/>
+      <c r="O50" s="100"/>
+      <c r="P50" s="100"/>
+      <c r="Q50" s="100"/>
+      <c r="R50" s="100"/>
+      <c r="S50" s="100"/>
+      <c r="T50" s="100"/>
+      <c r="U50" s="100"/>
+      <c r="V50" s="100"/>
+      <c r="W50" s="100"/>
+      <c r="X50" s="100"/>
+      <c r="Y50" s="100"/>
+      <c r="Z50" s="100"/>
+      <c r="AA50" s="100"/>
+      <c r="AB50" s="100"/>
+      <c r="AC50" s="100"/>
+      <c r="AD50" s="100"/>
+      <c r="AE50" s="100"/>
+      <c r="AF50" s="100"/>
+      <c r="AG50" s="100"/>
+      <c r="AH50" s="100"/>
+      <c r="AI50" s="100"/>
+      <c r="AJ50" s="100"/>
+      <c r="AK50" s="100"/>
+      <c r="AL50" s="100"/>
+      <c r="AM50" s="100"/>
+      <c r="AN50" s="100"/>
+      <c r="AO50" s="100"/>
+      <c r="AP50" s="100"/>
+      <c r="AQ50" s="100"/>
+      <c r="AR50" s="100"/>
+      <c r="AS50" s="100"/>
+      <c r="AT50" s="100"/>
+      <c r="AU50" s="100"/>
+      <c r="AV50" s="100"/>
+      <c r="AW50" s="100"/>
+      <c r="AX50" s="100"/>
+      <c r="AY50" s="100"/>
+      <c r="AZ50" s="100"/>
+      <c r="BA50" s="100"/>
+      <c r="BB50" s="100"/>
+      <c r="BC50" s="100"/>
+      <c r="BD50" s="100"/>
+      <c r="BE50" s="100"/>
+      <c r="BF50" s="100"/>
+      <c r="BG50" s="100"/>
+      <c r="BH50" s="100"/>
+      <c r="BI50" s="100"/>
+      <c r="BJ50" s="100"/>
+      <c r="BK50" s="100"/>
+      <c r="BL50" s="100"/>
+      <c r="BM50" s="100"/>
+      <c r="BN50" s="100"/>
+      <c r="BO50" s="100"/>
+      <c r="BP50" s="100"/>
+      <c r="BQ50" s="100"/>
+      <c r="BR50" s="100"/>
+      <c r="BS50" s="100"/>
+      <c r="BT50" s="100"/>
+      <c r="BU50" s="100"/>
+      <c r="BV50" s="100"/>
+      <c r="BW50" s="100"/>
+      <c r="BX50" s="100"/>
+      <c r="BY50" s="100"/>
+      <c r="BZ50" s="100"/>
+      <c r="CA50" s="100"/>
+      <c r="CB50" s="100"/>
+      <c r="CC50" s="100"/>
+      <c r="CD50" s="100"/>
+      <c r="CE50" s="100"/>
+      <c r="CF50" s="100"/>
+      <c r="CG50" s="100"/>
+      <c r="CH50" s="100"/>
+      <c r="CI50" s="100"/>
+      <c r="CJ50" s="100"/>
+      <c r="CK50" s="100"/>
+      <c r="CL50" s="100"/>
+      <c r="CM50" s="100"/>
+      <c r="CN50" s="100"/>
+      <c r="CO50" s="100"/>
+      <c r="CP50" s="100"/>
+      <c r="CQ50" s="100"/>
+      <c r="CR50" s="100"/>
+      <c r="CS50" s="100"/>
+      <c r="CT50" s="100"/>
+      <c r="CU50" s="100"/>
+      <c r="CV50" s="100"/>
+      <c r="CW50" s="100"/>
+      <c r="CX50" s="100"/>
+      <c r="CY50" s="100"/>
+      <c r="CZ50" s="100"/>
+      <c r="DA50" s="100"/>
+      <c r="DB50" s="100"/>
+      <c r="DC50" s="100"/>
+      <c r="DD50" s="100"/>
+      <c r="DE50" s="100"/>
+      <c r="DF50" s="100"/>
+      <c r="DG50" s="100"/>
+      <c r="DH50" s="100"/>
+      <c r="DI50" s="100"/>
     </row>
     <row r="51" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="119"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="119"/>
-      <c r="S51" s="119"/>
-      <c r="T51" s="119"/>
-      <c r="U51" s="119"/>
-      <c r="V51" s="119"/>
-      <c r="W51" s="119"/>
-      <c r="X51" s="119"/>
-      <c r="Y51" s="119"/>
-      <c r="Z51" s="119"/>
-      <c r="AA51" s="119"/>
-      <c r="AB51" s="119"/>
-      <c r="AC51" s="119"/>
-      <c r="AD51" s="119"/>
-      <c r="AE51" s="119"/>
-      <c r="AF51" s="119"/>
-      <c r="AG51" s="119"/>
-      <c r="AH51" s="119"/>
-      <c r="AI51" s="119"/>
-      <c r="AJ51" s="119"/>
-      <c r="AK51" s="119"/>
-      <c r="AL51" s="119"/>
-      <c r="AM51" s="119"/>
-      <c r="AN51" s="119"/>
-      <c r="AO51" s="119"/>
-      <c r="AP51" s="119"/>
-      <c r="AQ51" s="119"/>
-      <c r="AR51" s="119"/>
-      <c r="AS51" s="119"/>
-      <c r="AT51" s="119"/>
-      <c r="AU51" s="119"/>
-      <c r="AV51" s="119"/>
-      <c r="AW51" s="119"/>
-      <c r="AX51" s="119"/>
-      <c r="AY51" s="119"/>
-      <c r="AZ51" s="119"/>
-      <c r="BA51" s="119"/>
-      <c r="BB51" s="119"/>
-      <c r="BC51" s="119"/>
-      <c r="BD51" s="119"/>
-      <c r="BE51" s="119"/>
-      <c r="BF51" s="119"/>
-      <c r="BG51" s="119"/>
-      <c r="BH51" s="119"/>
-      <c r="BI51" s="119"/>
-      <c r="BJ51" s="119"/>
-      <c r="BK51" s="119"/>
-      <c r="BL51" s="119"/>
-      <c r="BM51" s="119"/>
-      <c r="BN51" s="119"/>
-      <c r="BO51" s="119"/>
-      <c r="BP51" s="119"/>
-      <c r="BQ51" s="119"/>
-      <c r="BR51" s="119"/>
-      <c r="BS51" s="119"/>
-      <c r="BT51" s="119"/>
-      <c r="BU51" s="119"/>
-      <c r="BV51" s="119"/>
-      <c r="BW51" s="119"/>
-      <c r="BX51" s="119"/>
-      <c r="BY51" s="119"/>
-      <c r="BZ51" s="119"/>
-      <c r="CA51" s="119"/>
-      <c r="CB51" s="119"/>
-      <c r="CC51" s="119"/>
-      <c r="CD51" s="119"/>
-      <c r="CE51" s="119"/>
-      <c r="CF51" s="119"/>
-      <c r="CG51" s="119"/>
-      <c r="CH51" s="119"/>
-      <c r="CI51" s="119"/>
-      <c r="CJ51" s="119"/>
-      <c r="CK51" s="119"/>
-      <c r="CL51" s="119"/>
-      <c r="CM51" s="119"/>
-      <c r="CN51" s="119"/>
-      <c r="CO51" s="119"/>
-      <c r="CP51" s="119"/>
-      <c r="CQ51" s="119"/>
-      <c r="CR51" s="119"/>
-      <c r="CS51" s="119"/>
-      <c r="CT51" s="119"/>
-      <c r="CU51" s="119"/>
-      <c r="CV51" s="119"/>
-      <c r="CW51" s="119"/>
-      <c r="CX51" s="119"/>
-      <c r="CY51" s="119"/>
-      <c r="CZ51" s="119"/>
-      <c r="DA51" s="119"/>
-      <c r="DB51" s="119"/>
-      <c r="DC51" s="119"/>
-      <c r="DD51" s="119"/>
-      <c r="DE51" s="119"/>
-      <c r="DF51" s="119"/>
-      <c r="DG51" s="119"/>
-      <c r="DH51" s="119"/>
-      <c r="DI51" s="119"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="100"/>
+      <c r="K51" s="100"/>
+      <c r="L51" s="100"/>
+      <c r="M51" s="100"/>
+      <c r="N51" s="100"/>
+      <c r="O51" s="100"/>
+      <c r="P51" s="100"/>
+      <c r="Q51" s="100"/>
+      <c r="R51" s="100"/>
+      <c r="S51" s="100"/>
+      <c r="T51" s="100"/>
+      <c r="U51" s="100"/>
+      <c r="V51" s="100"/>
+      <c r="W51" s="100"/>
+      <c r="X51" s="100"/>
+      <c r="Y51" s="100"/>
+      <c r="Z51" s="100"/>
+      <c r="AA51" s="100"/>
+      <c r="AB51" s="100"/>
+      <c r="AC51" s="100"/>
+      <c r="AD51" s="100"/>
+      <c r="AE51" s="100"/>
+      <c r="AF51" s="100"/>
+      <c r="AG51" s="100"/>
+      <c r="AH51" s="100"/>
+      <c r="AI51" s="100"/>
+      <c r="AJ51" s="100"/>
+      <c r="AK51" s="100"/>
+      <c r="AL51" s="100"/>
+      <c r="AM51" s="100"/>
+      <c r="AN51" s="100"/>
+      <c r="AO51" s="100"/>
+      <c r="AP51" s="100"/>
+      <c r="AQ51" s="100"/>
+      <c r="AR51" s="100"/>
+      <c r="AS51" s="100"/>
+      <c r="AT51" s="100"/>
+      <c r="AU51" s="100"/>
+      <c r="AV51" s="100"/>
+      <c r="AW51" s="100"/>
+      <c r="AX51" s="100"/>
+      <c r="AY51" s="100"/>
+      <c r="AZ51" s="100"/>
+      <c r="BA51" s="100"/>
+      <c r="BB51" s="100"/>
+      <c r="BC51" s="100"/>
+      <c r="BD51" s="100"/>
+      <c r="BE51" s="100"/>
+      <c r="BF51" s="100"/>
+      <c r="BG51" s="100"/>
+      <c r="BH51" s="100"/>
+      <c r="BI51" s="100"/>
+      <c r="BJ51" s="100"/>
+      <c r="BK51" s="100"/>
+      <c r="BL51" s="100"/>
+      <c r="BM51" s="100"/>
+      <c r="BN51" s="100"/>
+      <c r="BO51" s="100"/>
+      <c r="BP51" s="100"/>
+      <c r="BQ51" s="100"/>
+      <c r="BR51" s="100"/>
+      <c r="BS51" s="100"/>
+      <c r="BT51" s="100"/>
+      <c r="BU51" s="100"/>
+      <c r="BV51" s="100"/>
+      <c r="BW51" s="100"/>
+      <c r="BX51" s="100"/>
+      <c r="BY51" s="100"/>
+      <c r="BZ51" s="100"/>
+      <c r="CA51" s="100"/>
+      <c r="CB51" s="100"/>
+      <c r="CC51" s="100"/>
+      <c r="CD51" s="100"/>
+      <c r="CE51" s="100"/>
+      <c r="CF51" s="100"/>
+      <c r="CG51" s="100"/>
+      <c r="CH51" s="100"/>
+      <c r="CI51" s="100"/>
+      <c r="CJ51" s="100"/>
+      <c r="CK51" s="100"/>
+      <c r="CL51" s="100"/>
+      <c r="CM51" s="100"/>
+      <c r="CN51" s="100"/>
+      <c r="CO51" s="100"/>
+      <c r="CP51" s="100"/>
+      <c r="CQ51" s="100"/>
+      <c r="CR51" s="100"/>
+      <c r="CS51" s="100"/>
+      <c r="CT51" s="100"/>
+      <c r="CU51" s="100"/>
+      <c r="CV51" s="100"/>
+      <c r="CW51" s="100"/>
+      <c r="CX51" s="100"/>
+      <c r="CY51" s="100"/>
+      <c r="CZ51" s="100"/>
+      <c r="DA51" s="100"/>
+      <c r="DB51" s="100"/>
+      <c r="DC51" s="100"/>
+      <c r="DD51" s="100"/>
+      <c r="DE51" s="100"/>
+      <c r="DF51" s="100"/>
+      <c r="DG51" s="100"/>
+      <c r="DH51" s="100"/>
+      <c r="DI51" s="100"/>
     </row>
     <row r="52" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -8224,146 +8228,146 @@
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119" t="str">
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="100"/>
+      <c r="J52" s="100"/>
+      <c r="K52" s="100"/>
+      <c r="L52" s="100"/>
+      <c r="M52" s="100"/>
+      <c r="N52" s="100" t="str">
         <f>IF(ISBLANK(D52),"",D52)</f>
         <v/>
       </c>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="119"/>
-      <c r="T52" s="119"/>
-      <c r="U52" s="119"/>
-      <c r="V52" s="119"/>
-      <c r="W52" s="119"/>
-      <c r="X52" s="119" t="str">
+      <c r="O52" s="100"/>
+      <c r="P52" s="100"/>
+      <c r="Q52" s="100"/>
+      <c r="R52" s="100"/>
+      <c r="S52" s="100"/>
+      <c r="T52" s="100"/>
+      <c r="U52" s="100"/>
+      <c r="V52" s="100"/>
+      <c r="W52" s="100"/>
+      <c r="X52" s="100" t="str">
         <f t="shared" ref="X52" si="43">IF(ISBLANK(N52),"",N52)</f>
         <v/>
       </c>
-      <c r="Y52" s="119"/>
-      <c r="Z52" s="119"/>
-      <c r="AA52" s="119"/>
-      <c r="AB52" s="119"/>
-      <c r="AC52" s="119"/>
-      <c r="AD52" s="119"/>
-      <c r="AE52" s="119"/>
-      <c r="AF52" s="119"/>
-      <c r="AG52" s="119"/>
-      <c r="AH52" s="119" t="str">
+      <c r="Y52" s="100"/>
+      <c r="Z52" s="100"/>
+      <c r="AA52" s="100"/>
+      <c r="AB52" s="100"/>
+      <c r="AC52" s="100"/>
+      <c r="AD52" s="100"/>
+      <c r="AE52" s="100"/>
+      <c r="AF52" s="100"/>
+      <c r="AG52" s="100"/>
+      <c r="AH52" s="100" t="str">
         <f t="shared" ref="AH52" si="44">IF(ISBLANK(X52),"",X52)</f>
         <v/>
       </c>
-      <c r="AI52" s="119"/>
-      <c r="AJ52" s="119"/>
-      <c r="AK52" s="119"/>
-      <c r="AL52" s="119"/>
-      <c r="AM52" s="119"/>
-      <c r="AN52" s="119"/>
-      <c r="AO52" s="119"/>
-      <c r="AP52" s="119"/>
-      <c r="AQ52" s="119"/>
-      <c r="AR52" s="119" t="str">
+      <c r="AI52" s="100"/>
+      <c r="AJ52" s="100"/>
+      <c r="AK52" s="100"/>
+      <c r="AL52" s="100"/>
+      <c r="AM52" s="100"/>
+      <c r="AN52" s="100"/>
+      <c r="AO52" s="100"/>
+      <c r="AP52" s="100"/>
+      <c r="AQ52" s="100"/>
+      <c r="AR52" s="100" t="str">
         <f t="shared" ref="AR52" si="45">IF(ISBLANK(AH52),"",AH52)</f>
         <v/>
       </c>
-      <c r="AS52" s="119"/>
-      <c r="AT52" s="119"/>
-      <c r="AU52" s="119"/>
-      <c r="AV52" s="119"/>
-      <c r="AW52" s="119"/>
-      <c r="AX52" s="119"/>
-      <c r="AY52" s="119"/>
-      <c r="AZ52" s="119"/>
-      <c r="BA52" s="119"/>
-      <c r="BB52" s="119" t="str">
+      <c r="AS52" s="100"/>
+      <c r="AT52" s="100"/>
+      <c r="AU52" s="100"/>
+      <c r="AV52" s="100"/>
+      <c r="AW52" s="100"/>
+      <c r="AX52" s="100"/>
+      <c r="AY52" s="100"/>
+      <c r="AZ52" s="100"/>
+      <c r="BA52" s="100"/>
+      <c r="BB52" s="100" t="str">
         <f t="shared" ref="BB52" si="46">IF(ISBLANK(AR52),"",AR52)</f>
         <v/>
       </c>
-      <c r="BC52" s="119"/>
-      <c r="BD52" s="119"/>
-      <c r="BE52" s="119"/>
-      <c r="BF52" s="119"/>
-      <c r="BG52" s="119"/>
-      <c r="BH52" s="119"/>
-      <c r="BI52" s="119"/>
-      <c r="BJ52" s="119"/>
-      <c r="BK52" s="119"/>
-      <c r="BL52" s="119" t="str">
+      <c r="BC52" s="100"/>
+      <c r="BD52" s="100"/>
+      <c r="BE52" s="100"/>
+      <c r="BF52" s="100"/>
+      <c r="BG52" s="100"/>
+      <c r="BH52" s="100"/>
+      <c r="BI52" s="100"/>
+      <c r="BJ52" s="100"/>
+      <c r="BK52" s="100"/>
+      <c r="BL52" s="100" t="str">
         <f t="shared" ref="BL52" si="47">IF(ISBLANK(BB52),"",BB52)</f>
         <v/>
       </c>
-      <c r="BM52" s="119"/>
-      <c r="BN52" s="119"/>
-      <c r="BO52" s="119"/>
-      <c r="BP52" s="119"/>
-      <c r="BQ52" s="119"/>
-      <c r="BR52" s="119"/>
-      <c r="BS52" s="119"/>
-      <c r="BT52" s="119"/>
-      <c r="BU52" s="119"/>
-      <c r="BV52" s="119" t="str">
+      <c r="BM52" s="100"/>
+      <c r="BN52" s="100"/>
+      <c r="BO52" s="100"/>
+      <c r="BP52" s="100"/>
+      <c r="BQ52" s="100"/>
+      <c r="BR52" s="100"/>
+      <c r="BS52" s="100"/>
+      <c r="BT52" s="100"/>
+      <c r="BU52" s="100"/>
+      <c r="BV52" s="100" t="str">
         <f t="shared" ref="BV52" si="48">IF(ISBLANK(BL52),"",BL52)</f>
         <v/>
       </c>
-      <c r="BW52" s="119"/>
-      <c r="BX52" s="119"/>
-      <c r="BY52" s="119"/>
-      <c r="BZ52" s="119"/>
-      <c r="CA52" s="119"/>
-      <c r="CB52" s="119"/>
-      <c r="CC52" s="119"/>
-      <c r="CD52" s="119"/>
-      <c r="CE52" s="119"/>
-      <c r="CF52" s="119" t="str">
+      <c r="BW52" s="100"/>
+      <c r="BX52" s="100"/>
+      <c r="BY52" s="100"/>
+      <c r="BZ52" s="100"/>
+      <c r="CA52" s="100"/>
+      <c r="CB52" s="100"/>
+      <c r="CC52" s="100"/>
+      <c r="CD52" s="100"/>
+      <c r="CE52" s="100"/>
+      <c r="CF52" s="100" t="str">
         <f t="shared" ref="CF52" si="49">IF(ISBLANK(BV52),"",BV52)</f>
         <v/>
       </c>
-      <c r="CG52" s="119"/>
-      <c r="CH52" s="119"/>
-      <c r="CI52" s="119"/>
-      <c r="CJ52" s="119"/>
-      <c r="CK52" s="119"/>
-      <c r="CL52" s="119"/>
-      <c r="CM52" s="119"/>
-      <c r="CN52" s="119"/>
-      <c r="CO52" s="119"/>
-      <c r="CP52" s="119" t="str">
+      <c r="CG52" s="100"/>
+      <c r="CH52" s="100"/>
+      <c r="CI52" s="100"/>
+      <c r="CJ52" s="100"/>
+      <c r="CK52" s="100"/>
+      <c r="CL52" s="100"/>
+      <c r="CM52" s="100"/>
+      <c r="CN52" s="100"/>
+      <c r="CO52" s="100"/>
+      <c r="CP52" s="100" t="str">
         <f t="shared" ref="CP52" si="50">IF(ISBLANK(CF52),"",CF52)</f>
         <v/>
       </c>
-      <c r="CQ52" s="119"/>
-      <c r="CR52" s="119"/>
-      <c r="CS52" s="119"/>
-      <c r="CT52" s="119"/>
-      <c r="CU52" s="119"/>
-      <c r="CV52" s="119"/>
-      <c r="CW52" s="119"/>
-      <c r="CX52" s="119"/>
-      <c r="CY52" s="119"/>
-      <c r="CZ52" s="119" t="str">
+      <c r="CQ52" s="100"/>
+      <c r="CR52" s="100"/>
+      <c r="CS52" s="100"/>
+      <c r="CT52" s="100"/>
+      <c r="CU52" s="100"/>
+      <c r="CV52" s="100"/>
+      <c r="CW52" s="100"/>
+      <c r="CX52" s="100"/>
+      <c r="CY52" s="100"/>
+      <c r="CZ52" s="100" t="str">
         <f t="shared" ref="CZ52" si="51">IF(ISBLANK(CP52),"",CP52)</f>
         <v/>
       </c>
-      <c r="DA52" s="119"/>
-      <c r="DB52" s="119"/>
-      <c r="DC52" s="119"/>
-      <c r="DD52" s="119"/>
-      <c r="DE52" s="119"/>
-      <c r="DF52" s="119"/>
-      <c r="DG52" s="119"/>
-      <c r="DH52" s="119"/>
-      <c r="DI52" s="119"/>
+      <c r="DA52" s="100"/>
+      <c r="DB52" s="100"/>
+      <c r="DC52" s="100"/>
+      <c r="DD52" s="100"/>
+      <c r="DE52" s="100"/>
+      <c r="DF52" s="100"/>
+      <c r="DG52" s="100"/>
+      <c r="DH52" s="100"/>
+      <c r="DI52" s="100"/>
     </row>
     <row r="53" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -8371,516 +8375,512 @@
         <v>37</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="119"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="119"/>
-      <c r="G53" s="119"/>
-      <c r="H53" s="119"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="119"/>
-      <c r="S53" s="119"/>
-      <c r="T53" s="119"/>
-      <c r="U53" s="119"/>
-      <c r="V53" s="119"/>
-      <c r="W53" s="119"/>
-      <c r="X53" s="119"/>
-      <c r="Y53" s="119"/>
-      <c r="Z53" s="119"/>
-      <c r="AA53" s="119"/>
-      <c r="AB53" s="119"/>
-      <c r="AC53" s="119"/>
-      <c r="AD53" s="119"/>
-      <c r="AE53" s="119"/>
-      <c r="AF53" s="119"/>
-      <c r="AG53" s="119"/>
-      <c r="AH53" s="119"/>
-      <c r="AI53" s="119"/>
-      <c r="AJ53" s="119"/>
-      <c r="AK53" s="119"/>
-      <c r="AL53" s="119"/>
-      <c r="AM53" s="119"/>
-      <c r="AN53" s="119"/>
-      <c r="AO53" s="119"/>
-      <c r="AP53" s="119"/>
-      <c r="AQ53" s="119"/>
-      <c r="AR53" s="119"/>
-      <c r="AS53" s="119"/>
-      <c r="AT53" s="119"/>
-      <c r="AU53" s="119"/>
-      <c r="AV53" s="119"/>
-      <c r="AW53" s="119"/>
-      <c r="AX53" s="119"/>
-      <c r="AY53" s="119"/>
-      <c r="AZ53" s="119"/>
-      <c r="BA53" s="119"/>
-      <c r="BB53" s="119"/>
-      <c r="BC53" s="119"/>
-      <c r="BD53" s="119"/>
-      <c r="BE53" s="119"/>
-      <c r="BF53" s="119"/>
-      <c r="BG53" s="119"/>
-      <c r="BH53" s="119"/>
-      <c r="BI53" s="119"/>
-      <c r="BJ53" s="119"/>
-      <c r="BK53" s="119"/>
-      <c r="BL53" s="119"/>
-      <c r="BM53" s="119"/>
-      <c r="BN53" s="119"/>
-      <c r="BO53" s="119"/>
-      <c r="BP53" s="119"/>
-      <c r="BQ53" s="119"/>
-      <c r="BR53" s="119"/>
-      <c r="BS53" s="119"/>
-      <c r="BT53" s="119"/>
-      <c r="BU53" s="119"/>
-      <c r="BV53" s="119"/>
-      <c r="BW53" s="119"/>
-      <c r="BX53" s="119"/>
-      <c r="BY53" s="119"/>
-      <c r="BZ53" s="119"/>
-      <c r="CA53" s="119"/>
-      <c r="CB53" s="119"/>
-      <c r="CC53" s="119"/>
-      <c r="CD53" s="119"/>
-      <c r="CE53" s="119"/>
-      <c r="CF53" s="119"/>
-      <c r="CG53" s="119"/>
-      <c r="CH53" s="119"/>
-      <c r="CI53" s="119"/>
-      <c r="CJ53" s="119"/>
-      <c r="CK53" s="119"/>
-      <c r="CL53" s="119"/>
-      <c r="CM53" s="119"/>
-      <c r="CN53" s="119"/>
-      <c r="CO53" s="119"/>
-      <c r="CP53" s="119"/>
-      <c r="CQ53" s="119"/>
-      <c r="CR53" s="119"/>
-      <c r="CS53" s="119"/>
-      <c r="CT53" s="119"/>
-      <c r="CU53" s="119"/>
-      <c r="CV53" s="119"/>
-      <c r="CW53" s="119"/>
-      <c r="CX53" s="119"/>
-      <c r="CY53" s="119"/>
-      <c r="CZ53" s="119"/>
-      <c r="DA53" s="119"/>
-      <c r="DB53" s="119"/>
-      <c r="DC53" s="119"/>
-      <c r="DD53" s="119"/>
-      <c r="DE53" s="119"/>
-      <c r="DF53" s="119"/>
-      <c r="DG53" s="119"/>
-      <c r="DH53" s="119"/>
-      <c r="DI53" s="119"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="100"/>
+      <c r="J53" s="100"/>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100"/>
+      <c r="N53" s="100"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="100"/>
+      <c r="Q53" s="100"/>
+      <c r="R53" s="100"/>
+      <c r="S53" s="100"/>
+      <c r="T53" s="100"/>
+      <c r="U53" s="100"/>
+      <c r="V53" s="100"/>
+      <c r="W53" s="100"/>
+      <c r="X53" s="100"/>
+      <c r="Y53" s="100"/>
+      <c r="Z53" s="100"/>
+      <c r="AA53" s="100"/>
+      <c r="AB53" s="100"/>
+      <c r="AC53" s="100"/>
+      <c r="AD53" s="100"/>
+      <c r="AE53" s="100"/>
+      <c r="AF53" s="100"/>
+      <c r="AG53" s="100"/>
+      <c r="AH53" s="100"/>
+      <c r="AI53" s="100"/>
+      <c r="AJ53" s="100"/>
+      <c r="AK53" s="100"/>
+      <c r="AL53" s="100"/>
+      <c r="AM53" s="100"/>
+      <c r="AN53" s="100"/>
+      <c r="AO53" s="100"/>
+      <c r="AP53" s="100"/>
+      <c r="AQ53" s="100"/>
+      <c r="AR53" s="100"/>
+      <c r="AS53" s="100"/>
+      <c r="AT53" s="100"/>
+      <c r="AU53" s="100"/>
+      <c r="AV53" s="100"/>
+      <c r="AW53" s="100"/>
+      <c r="AX53" s="100"/>
+      <c r="AY53" s="100"/>
+      <c r="AZ53" s="100"/>
+      <c r="BA53" s="100"/>
+      <c r="BB53" s="100"/>
+      <c r="BC53" s="100"/>
+      <c r="BD53" s="100"/>
+      <c r="BE53" s="100"/>
+      <c r="BF53" s="100"/>
+      <c r="BG53" s="100"/>
+      <c r="BH53" s="100"/>
+      <c r="BI53" s="100"/>
+      <c r="BJ53" s="100"/>
+      <c r="BK53" s="100"/>
+      <c r="BL53" s="100"/>
+      <c r="BM53" s="100"/>
+      <c r="BN53" s="100"/>
+      <c r="BO53" s="100"/>
+      <c r="BP53" s="100"/>
+      <c r="BQ53" s="100"/>
+      <c r="BR53" s="100"/>
+      <c r="BS53" s="100"/>
+      <c r="BT53" s="100"/>
+      <c r="BU53" s="100"/>
+      <c r="BV53" s="100"/>
+      <c r="BW53" s="100"/>
+      <c r="BX53" s="100"/>
+      <c r="BY53" s="100"/>
+      <c r="BZ53" s="100"/>
+      <c r="CA53" s="100"/>
+      <c r="CB53" s="100"/>
+      <c r="CC53" s="100"/>
+      <c r="CD53" s="100"/>
+      <c r="CE53" s="100"/>
+      <c r="CF53" s="100"/>
+      <c r="CG53" s="100"/>
+      <c r="CH53" s="100"/>
+      <c r="CI53" s="100"/>
+      <c r="CJ53" s="100"/>
+      <c r="CK53" s="100"/>
+      <c r="CL53" s="100"/>
+      <c r="CM53" s="100"/>
+      <c r="CN53" s="100"/>
+      <c r="CO53" s="100"/>
+      <c r="CP53" s="100"/>
+      <c r="CQ53" s="100"/>
+      <c r="CR53" s="100"/>
+      <c r="CS53" s="100"/>
+      <c r="CT53" s="100"/>
+      <c r="CU53" s="100"/>
+      <c r="CV53" s="100"/>
+      <c r="CW53" s="100"/>
+      <c r="CX53" s="100"/>
+      <c r="CY53" s="100"/>
+      <c r="CZ53" s="100"/>
+      <c r="DA53" s="100"/>
+      <c r="DB53" s="100"/>
+      <c r="DC53" s="100"/>
+      <c r="DD53" s="100"/>
+      <c r="DE53" s="100"/>
+      <c r="DF53" s="100"/>
+      <c r="DG53" s="100"/>
+      <c r="DH53" s="100"/>
+      <c r="DI53" s="100"/>
     </row>
     <row r="54" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="119"/>
-      <c r="S54" s="119"/>
-      <c r="T54" s="119"/>
-      <c r="U54" s="119"/>
-      <c r="V54" s="119"/>
-      <c r="W54" s="119"/>
-      <c r="X54" s="119"/>
-      <c r="Y54" s="119"/>
-      <c r="Z54" s="119"/>
-      <c r="AA54" s="119"/>
-      <c r="AB54" s="119"/>
-      <c r="AC54" s="119"/>
-      <c r="AD54" s="119"/>
-      <c r="AE54" s="119"/>
-      <c r="AF54" s="119"/>
-      <c r="AG54" s="119"/>
-      <c r="AH54" s="119"/>
-      <c r="AI54" s="119"/>
-      <c r="AJ54" s="119"/>
-      <c r="AK54" s="119"/>
-      <c r="AL54" s="119"/>
-      <c r="AM54" s="119"/>
-      <c r="AN54" s="119"/>
-      <c r="AO54" s="119"/>
-      <c r="AP54" s="119"/>
-      <c r="AQ54" s="119"/>
-      <c r="AR54" s="119"/>
-      <c r="AS54" s="119"/>
-      <c r="AT54" s="119"/>
-      <c r="AU54" s="119"/>
-      <c r="AV54" s="119"/>
-      <c r="AW54" s="119"/>
-      <c r="AX54" s="119"/>
-      <c r="AY54" s="119"/>
-      <c r="AZ54" s="119"/>
-      <c r="BA54" s="119"/>
-      <c r="BB54" s="119"/>
-      <c r="BC54" s="119"/>
-      <c r="BD54" s="119"/>
-      <c r="BE54" s="119"/>
-      <c r="BF54" s="119"/>
-      <c r="BG54" s="119"/>
-      <c r="BH54" s="119"/>
-      <c r="BI54" s="119"/>
-      <c r="BJ54" s="119"/>
-      <c r="BK54" s="119"/>
-      <c r="BL54" s="119"/>
-      <c r="BM54" s="119"/>
-      <c r="BN54" s="119"/>
-      <c r="BO54" s="119"/>
-      <c r="BP54" s="119"/>
-      <c r="BQ54" s="119"/>
-      <c r="BR54" s="119"/>
-      <c r="BS54" s="119"/>
-      <c r="BT54" s="119"/>
-      <c r="BU54" s="119"/>
-      <c r="BV54" s="119"/>
-      <c r="BW54" s="119"/>
-      <c r="BX54" s="119"/>
-      <c r="BY54" s="119"/>
-      <c r="BZ54" s="119"/>
-      <c r="CA54" s="119"/>
-      <c r="CB54" s="119"/>
-      <c r="CC54" s="119"/>
-      <c r="CD54" s="119"/>
-      <c r="CE54" s="119"/>
-      <c r="CF54" s="119"/>
-      <c r="CG54" s="119"/>
-      <c r="CH54" s="119"/>
-      <c r="CI54" s="119"/>
-      <c r="CJ54" s="119"/>
-      <c r="CK54" s="119"/>
-      <c r="CL54" s="119"/>
-      <c r="CM54" s="119"/>
-      <c r="CN54" s="119"/>
-      <c r="CO54" s="119"/>
-      <c r="CP54" s="119"/>
-      <c r="CQ54" s="119"/>
-      <c r="CR54" s="119"/>
-      <c r="CS54" s="119"/>
-      <c r="CT54" s="119"/>
-      <c r="CU54" s="119"/>
-      <c r="CV54" s="119"/>
-      <c r="CW54" s="119"/>
-      <c r="CX54" s="119"/>
-      <c r="CY54" s="119"/>
-      <c r="CZ54" s="119"/>
-      <c r="DA54" s="119"/>
-      <c r="DB54" s="119"/>
-      <c r="DC54" s="119"/>
-      <c r="DD54" s="119"/>
-      <c r="DE54" s="119"/>
-      <c r="DF54" s="119"/>
-      <c r="DG54" s="119"/>
-      <c r="DH54" s="119"/>
-      <c r="DI54" s="119"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
+      <c r="J54" s="100"/>
+      <c r="K54" s="100"/>
+      <c r="L54" s="100"/>
+      <c r="M54" s="100"/>
+      <c r="N54" s="100"/>
+      <c r="O54" s="100"/>
+      <c r="P54" s="100"/>
+      <c r="Q54" s="100"/>
+      <c r="R54" s="100"/>
+      <c r="S54" s="100"/>
+      <c r="T54" s="100"/>
+      <c r="U54" s="100"/>
+      <c r="V54" s="100"/>
+      <c r="W54" s="100"/>
+      <c r="X54" s="100"/>
+      <c r="Y54" s="100"/>
+      <c r="Z54" s="100"/>
+      <c r="AA54" s="100"/>
+      <c r="AB54" s="100"/>
+      <c r="AC54" s="100"/>
+      <c r="AD54" s="100"/>
+      <c r="AE54" s="100"/>
+      <c r="AF54" s="100"/>
+      <c r="AG54" s="100"/>
+      <c r="AH54" s="100"/>
+      <c r="AI54" s="100"/>
+      <c r="AJ54" s="100"/>
+      <c r="AK54" s="100"/>
+      <c r="AL54" s="100"/>
+      <c r="AM54" s="100"/>
+      <c r="AN54" s="100"/>
+      <c r="AO54" s="100"/>
+      <c r="AP54" s="100"/>
+      <c r="AQ54" s="100"/>
+      <c r="AR54" s="100"/>
+      <c r="AS54" s="100"/>
+      <c r="AT54" s="100"/>
+      <c r="AU54" s="100"/>
+      <c r="AV54" s="100"/>
+      <c r="AW54" s="100"/>
+      <c r="AX54" s="100"/>
+      <c r="AY54" s="100"/>
+      <c r="AZ54" s="100"/>
+      <c r="BA54" s="100"/>
+      <c r="BB54" s="100"/>
+      <c r="BC54" s="100"/>
+      <c r="BD54" s="100"/>
+      <c r="BE54" s="100"/>
+      <c r="BF54" s="100"/>
+      <c r="BG54" s="100"/>
+      <c r="BH54" s="100"/>
+      <c r="BI54" s="100"/>
+      <c r="BJ54" s="100"/>
+      <c r="BK54" s="100"/>
+      <c r="BL54" s="100"/>
+      <c r="BM54" s="100"/>
+      <c r="BN54" s="100"/>
+      <c r="BO54" s="100"/>
+      <c r="BP54" s="100"/>
+      <c r="BQ54" s="100"/>
+      <c r="BR54" s="100"/>
+      <c r="BS54" s="100"/>
+      <c r="BT54" s="100"/>
+      <c r="BU54" s="100"/>
+      <c r="BV54" s="100"/>
+      <c r="BW54" s="100"/>
+      <c r="BX54" s="100"/>
+      <c r="BY54" s="100"/>
+      <c r="BZ54" s="100"/>
+      <c r="CA54" s="100"/>
+      <c r="CB54" s="100"/>
+      <c r="CC54" s="100"/>
+      <c r="CD54" s="100"/>
+      <c r="CE54" s="100"/>
+      <c r="CF54" s="100"/>
+      <c r="CG54" s="100"/>
+      <c r="CH54" s="100"/>
+      <c r="CI54" s="100"/>
+      <c r="CJ54" s="100"/>
+      <c r="CK54" s="100"/>
+      <c r="CL54" s="100"/>
+      <c r="CM54" s="100"/>
+      <c r="CN54" s="100"/>
+      <c r="CO54" s="100"/>
+      <c r="CP54" s="100"/>
+      <c r="CQ54" s="100"/>
+      <c r="CR54" s="100"/>
+      <c r="CS54" s="100"/>
+      <c r="CT54" s="100"/>
+      <c r="CU54" s="100"/>
+      <c r="CV54" s="100"/>
+      <c r="CW54" s="100"/>
+      <c r="CX54" s="100"/>
+      <c r="CY54" s="100"/>
+      <c r="CZ54" s="100"/>
+      <c r="DA54" s="100"/>
+      <c r="DB54" s="100"/>
+      <c r="DC54" s="100"/>
+      <c r="DD54" s="100"/>
+      <c r="DE54" s="100"/>
+      <c r="DF54" s="100"/>
+      <c r="DG54" s="100"/>
+      <c r="DH54" s="100"/>
+      <c r="DI54" s="100"/>
     </row>
     <row r="55" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="119"/>
-      <c r="G55" s="119"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="119"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="119"/>
-      <c r="M55" s="119"/>
-      <c r="N55" s="119"/>
-      <c r="O55" s="119"/>
-      <c r="P55" s="119"/>
-      <c r="Q55" s="119"/>
-      <c r="R55" s="119"/>
-      <c r="S55" s="119"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="119"/>
-      <c r="V55" s="119"/>
-      <c r="W55" s="119"/>
-      <c r="X55" s="119"/>
-      <c r="Y55" s="119"/>
-      <c r="Z55" s="119"/>
-      <c r="AA55" s="119"/>
-      <c r="AB55" s="119"/>
-      <c r="AC55" s="119"/>
-      <c r="AD55" s="119"/>
-      <c r="AE55" s="119"/>
-      <c r="AF55" s="119"/>
-      <c r="AG55" s="119"/>
-      <c r="AH55" s="119"/>
-      <c r="AI55" s="119"/>
-      <c r="AJ55" s="119"/>
-      <c r="AK55" s="119"/>
-      <c r="AL55" s="119"/>
-      <c r="AM55" s="119"/>
-      <c r="AN55" s="119"/>
-      <c r="AO55" s="119"/>
-      <c r="AP55" s="119"/>
-      <c r="AQ55" s="119"/>
-      <c r="AR55" s="119"/>
-      <c r="AS55" s="119"/>
-      <c r="AT55" s="119"/>
-      <c r="AU55" s="119"/>
-      <c r="AV55" s="119"/>
-      <c r="AW55" s="119"/>
-      <c r="AX55" s="119"/>
-      <c r="AY55" s="119"/>
-      <c r="AZ55" s="119"/>
-      <c r="BA55" s="119"/>
-      <c r="BB55" s="119"/>
-      <c r="BC55" s="119"/>
-      <c r="BD55" s="119"/>
-      <c r="BE55" s="119"/>
-      <c r="BF55" s="119"/>
-      <c r="BG55" s="119"/>
-      <c r="BH55" s="119"/>
-      <c r="BI55" s="119"/>
-      <c r="BJ55" s="119"/>
-      <c r="BK55" s="119"/>
-      <c r="BL55" s="119"/>
-      <c r="BM55" s="119"/>
-      <c r="BN55" s="119"/>
-      <c r="BO55" s="119"/>
-      <c r="BP55" s="119"/>
-      <c r="BQ55" s="119"/>
-      <c r="BR55" s="119"/>
-      <c r="BS55" s="119"/>
-      <c r="BT55" s="119"/>
-      <c r="BU55" s="119"/>
-      <c r="BV55" s="119"/>
-      <c r="BW55" s="119"/>
-      <c r="BX55" s="119"/>
-      <c r="BY55" s="119"/>
-      <c r="BZ55" s="119"/>
-      <c r="CA55" s="119"/>
-      <c r="CB55" s="119"/>
-      <c r="CC55" s="119"/>
-      <c r="CD55" s="119"/>
-      <c r="CE55" s="119"/>
-      <c r="CF55" s="119"/>
-      <c r="CG55" s="119"/>
-      <c r="CH55" s="119"/>
-      <c r="CI55" s="119"/>
-      <c r="CJ55" s="119"/>
-      <c r="CK55" s="119"/>
-      <c r="CL55" s="119"/>
-      <c r="CM55" s="119"/>
-      <c r="CN55" s="119"/>
-      <c r="CO55" s="119"/>
-      <c r="CP55" s="119"/>
-      <c r="CQ55" s="119"/>
-      <c r="CR55" s="119"/>
-      <c r="CS55" s="119"/>
-      <c r="CT55" s="119"/>
-      <c r="CU55" s="119"/>
-      <c r="CV55" s="119"/>
-      <c r="CW55" s="119"/>
-      <c r="CX55" s="119"/>
-      <c r="CY55" s="119"/>
-      <c r="CZ55" s="119"/>
-      <c r="DA55" s="119"/>
-      <c r="DB55" s="119"/>
-      <c r="DC55" s="119"/>
-      <c r="DD55" s="119"/>
-      <c r="DE55" s="119"/>
-      <c r="DF55" s="119"/>
-      <c r="DG55" s="119"/>
-      <c r="DH55" s="119"/>
-      <c r="DI55" s="119"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="100"/>
+      <c r="P55" s="100"/>
+      <c r="Q55" s="100"/>
+      <c r="R55" s="100"/>
+      <c r="S55" s="100"/>
+      <c r="T55" s="100"/>
+      <c r="U55" s="100"/>
+      <c r="V55" s="100"/>
+      <c r="W55" s="100"/>
+      <c r="X55" s="100"/>
+      <c r="Y55" s="100"/>
+      <c r="Z55" s="100"/>
+      <c r="AA55" s="100"/>
+      <c r="AB55" s="100"/>
+      <c r="AC55" s="100"/>
+      <c r="AD55" s="100"/>
+      <c r="AE55" s="100"/>
+      <c r="AF55" s="100"/>
+      <c r="AG55" s="100"/>
+      <c r="AH55" s="100"/>
+      <c r="AI55" s="100"/>
+      <c r="AJ55" s="100"/>
+      <c r="AK55" s="100"/>
+      <c r="AL55" s="100"/>
+      <c r="AM55" s="100"/>
+      <c r="AN55" s="100"/>
+      <c r="AO55" s="100"/>
+      <c r="AP55" s="100"/>
+      <c r="AQ55" s="100"/>
+      <c r="AR55" s="100"/>
+      <c r="AS55" s="100"/>
+      <c r="AT55" s="100"/>
+      <c r="AU55" s="100"/>
+      <c r="AV55" s="100"/>
+      <c r="AW55" s="100"/>
+      <c r="AX55" s="100"/>
+      <c r="AY55" s="100"/>
+      <c r="AZ55" s="100"/>
+      <c r="BA55" s="100"/>
+      <c r="BB55" s="100"/>
+      <c r="BC55" s="100"/>
+      <c r="BD55" s="100"/>
+      <c r="BE55" s="100"/>
+      <c r="BF55" s="100"/>
+      <c r="BG55" s="100"/>
+      <c r="BH55" s="100"/>
+      <c r="BI55" s="100"/>
+      <c r="BJ55" s="100"/>
+      <c r="BK55" s="100"/>
+      <c r="BL55" s="100"/>
+      <c r="BM55" s="100"/>
+      <c r="BN55" s="100"/>
+      <c r="BO55" s="100"/>
+      <c r="BP55" s="100"/>
+      <c r="BQ55" s="100"/>
+      <c r="BR55" s="100"/>
+      <c r="BS55" s="100"/>
+      <c r="BT55" s="100"/>
+      <c r="BU55" s="100"/>
+      <c r="BV55" s="100"/>
+      <c r="BW55" s="100"/>
+      <c r="BX55" s="100"/>
+      <c r="BY55" s="100"/>
+      <c r="BZ55" s="100"/>
+      <c r="CA55" s="100"/>
+      <c r="CB55" s="100"/>
+      <c r="CC55" s="100"/>
+      <c r="CD55" s="100"/>
+      <c r="CE55" s="100"/>
+      <c r="CF55" s="100"/>
+      <c r="CG55" s="100"/>
+      <c r="CH55" s="100"/>
+      <c r="CI55" s="100"/>
+      <c r="CJ55" s="100"/>
+      <c r="CK55" s="100"/>
+      <c r="CL55" s="100"/>
+      <c r="CM55" s="100"/>
+      <c r="CN55" s="100"/>
+      <c r="CO55" s="100"/>
+      <c r="CP55" s="100"/>
+      <c r="CQ55" s="100"/>
+      <c r="CR55" s="100"/>
+      <c r="CS55" s="100"/>
+      <c r="CT55" s="100"/>
+      <c r="CU55" s="100"/>
+      <c r="CV55" s="100"/>
+      <c r="CW55" s="100"/>
+      <c r="CX55" s="100"/>
+      <c r="CY55" s="100"/>
+      <c r="CZ55" s="100"/>
+      <c r="DA55" s="100"/>
+      <c r="DB55" s="100"/>
+      <c r="DC55" s="100"/>
+      <c r="DD55" s="100"/>
+      <c r="DE55" s="100"/>
+      <c r="DF55" s="100"/>
+      <c r="DG55" s="100"/>
+      <c r="DH55" s="100"/>
+      <c r="DI55" s="100"/>
     </row>
     <row r="56" spans="1:113" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="119"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
-      <c r="L56" s="119"/>
-      <c r="M56" s="119"/>
-      <c r="N56" s="119"/>
-      <c r="O56" s="119"/>
-      <c r="P56" s="119"/>
-      <c r="Q56" s="119"/>
-      <c r="R56" s="119"/>
-      <c r="S56" s="119"/>
-      <c r="T56" s="119"/>
-      <c r="U56" s="119"/>
-      <c r="V56" s="119"/>
-      <c r="W56" s="119"/>
-      <c r="X56" s="119"/>
-      <c r="Y56" s="119"/>
-      <c r="Z56" s="119"/>
-      <c r="AA56" s="119"/>
-      <c r="AB56" s="119"/>
-      <c r="AC56" s="119"/>
-      <c r="AD56" s="119"/>
-      <c r="AE56" s="119"/>
-      <c r="AF56" s="119"/>
-      <c r="AG56" s="119"/>
-      <c r="AH56" s="119"/>
-      <c r="AI56" s="119"/>
-      <c r="AJ56" s="119"/>
-      <c r="AK56" s="119"/>
-      <c r="AL56" s="119"/>
-      <c r="AM56" s="119"/>
-      <c r="AN56" s="119"/>
-      <c r="AO56" s="119"/>
-      <c r="AP56" s="119"/>
-      <c r="AQ56" s="119"/>
-      <c r="AR56" s="119"/>
-      <c r="AS56" s="119"/>
-      <c r="AT56" s="119"/>
-      <c r="AU56" s="119"/>
-      <c r="AV56" s="119"/>
-      <c r="AW56" s="119"/>
-      <c r="AX56" s="119"/>
-      <c r="AY56" s="119"/>
-      <c r="AZ56" s="119"/>
-      <c r="BA56" s="119"/>
-      <c r="BB56" s="119"/>
-      <c r="BC56" s="119"/>
-      <c r="BD56" s="119"/>
-      <c r="BE56" s="119"/>
-      <c r="BF56" s="119"/>
-      <c r="BG56" s="119"/>
-      <c r="BH56" s="119"/>
-      <c r="BI56" s="119"/>
-      <c r="BJ56" s="119"/>
-      <c r="BK56" s="119"/>
-      <c r="BL56" s="119"/>
-      <c r="BM56" s="119"/>
-      <c r="BN56" s="119"/>
-      <c r="BO56" s="119"/>
-      <c r="BP56" s="119"/>
-      <c r="BQ56" s="119"/>
-      <c r="BR56" s="119"/>
-      <c r="BS56" s="119"/>
-      <c r="BT56" s="119"/>
-      <c r="BU56" s="119"/>
-      <c r="BV56" s="119"/>
-      <c r="BW56" s="119"/>
-      <c r="BX56" s="119"/>
-      <c r="BY56" s="119"/>
-      <c r="BZ56" s="119"/>
-      <c r="CA56" s="119"/>
-      <c r="CB56" s="119"/>
-      <c r="CC56" s="119"/>
-      <c r="CD56" s="119"/>
-      <c r="CE56" s="119"/>
-      <c r="CF56" s="119"/>
-      <c r="CG56" s="119"/>
-      <c r="CH56" s="119"/>
-      <c r="CI56" s="119"/>
-      <c r="CJ56" s="119"/>
-      <c r="CK56" s="119"/>
-      <c r="CL56" s="119"/>
-      <c r="CM56" s="119"/>
-      <c r="CN56" s="119"/>
-      <c r="CO56" s="119"/>
-      <c r="CP56" s="119"/>
-      <c r="CQ56" s="119"/>
-      <c r="CR56" s="119"/>
-      <c r="CS56" s="119"/>
-      <c r="CT56" s="119"/>
-      <c r="CU56" s="119"/>
-      <c r="CV56" s="119"/>
-      <c r="CW56" s="119"/>
-      <c r="CX56" s="119"/>
-      <c r="CY56" s="119"/>
-      <c r="CZ56" s="119"/>
-      <c r="DA56" s="119"/>
-      <c r="DB56" s="119"/>
-      <c r="DC56" s="119"/>
-      <c r="DD56" s="119"/>
-      <c r="DE56" s="119"/>
-      <c r="DF56" s="119"/>
-      <c r="DG56" s="119"/>
-      <c r="DH56" s="119"/>
-      <c r="DI56" s="119"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
+      <c r="N56" s="100"/>
+      <c r="O56" s="100"/>
+      <c r="P56" s="100"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="100"/>
+      <c r="T56" s="100"/>
+      <c r="U56" s="100"/>
+      <c r="V56" s="100"/>
+      <c r="W56" s="100"/>
+      <c r="X56" s="100"/>
+      <c r="Y56" s="100"/>
+      <c r="Z56" s="100"/>
+      <c r="AA56" s="100"/>
+      <c r="AB56" s="100"/>
+      <c r="AC56" s="100"/>
+      <c r="AD56" s="100"/>
+      <c r="AE56" s="100"/>
+      <c r="AF56" s="100"/>
+      <c r="AG56" s="100"/>
+      <c r="AH56" s="100"/>
+      <c r="AI56" s="100"/>
+      <c r="AJ56" s="100"/>
+      <c r="AK56" s="100"/>
+      <c r="AL56" s="100"/>
+      <c r="AM56" s="100"/>
+      <c r="AN56" s="100"/>
+      <c r="AO56" s="100"/>
+      <c r="AP56" s="100"/>
+      <c r="AQ56" s="100"/>
+      <c r="AR56" s="100"/>
+      <c r="AS56" s="100"/>
+      <c r="AT56" s="100"/>
+      <c r="AU56" s="100"/>
+      <c r="AV56" s="100"/>
+      <c r="AW56" s="100"/>
+      <c r="AX56" s="100"/>
+      <c r="AY56" s="100"/>
+      <c r="AZ56" s="100"/>
+      <c r="BA56" s="100"/>
+      <c r="BB56" s="100"/>
+      <c r="BC56" s="100"/>
+      <c r="BD56" s="100"/>
+      <c r="BE56" s="100"/>
+      <c r="BF56" s="100"/>
+      <c r="BG56" s="100"/>
+      <c r="BH56" s="100"/>
+      <c r="BI56" s="100"/>
+      <c r="BJ56" s="100"/>
+      <c r="BK56" s="100"/>
+      <c r="BL56" s="100"/>
+      <c r="BM56" s="100"/>
+      <c r="BN56" s="100"/>
+      <c r="BO56" s="100"/>
+      <c r="BP56" s="100"/>
+      <c r="BQ56" s="100"/>
+      <c r="BR56" s="100"/>
+      <c r="BS56" s="100"/>
+      <c r="BT56" s="100"/>
+      <c r="BU56" s="100"/>
+      <c r="BV56" s="100"/>
+      <c r="BW56" s="100"/>
+      <c r="BX56" s="100"/>
+      <c r="BY56" s="100"/>
+      <c r="BZ56" s="100"/>
+      <c r="CA56" s="100"/>
+      <c r="CB56" s="100"/>
+      <c r="CC56" s="100"/>
+      <c r="CD56" s="100"/>
+      <c r="CE56" s="100"/>
+      <c r="CF56" s="100"/>
+      <c r="CG56" s="100"/>
+      <c r="CH56" s="100"/>
+      <c r="CI56" s="100"/>
+      <c r="CJ56" s="100"/>
+      <c r="CK56" s="100"/>
+      <c r="CL56" s="100"/>
+      <c r="CM56" s="100"/>
+      <c r="CN56" s="100"/>
+      <c r="CO56" s="100"/>
+      <c r="CP56" s="100"/>
+      <c r="CQ56" s="100"/>
+      <c r="CR56" s="100"/>
+      <c r="CS56" s="100"/>
+      <c r="CT56" s="100"/>
+      <c r="CU56" s="100"/>
+      <c r="CV56" s="100"/>
+      <c r="CW56" s="100"/>
+      <c r="CX56" s="100"/>
+      <c r="CY56" s="100"/>
+      <c r="CZ56" s="100"/>
+      <c r="DA56" s="100"/>
+      <c r="DB56" s="100"/>
+      <c r="DC56" s="100"/>
+      <c r="DD56" s="100"/>
+      <c r="DE56" s="100"/>
+      <c r="DF56" s="100"/>
+      <c r="DG56" s="100"/>
+      <c r="DH56" s="100"/>
+      <c r="DI56" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="AN9:AQ9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BH9:BK9"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="CB9:CE9"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CV9:CY9"/>
-    <mergeCell ref="DF9:DI9"/>
-    <mergeCell ref="CZ47:DI51"/>
-    <mergeCell ref="D52:M56"/>
-    <mergeCell ref="N52:W56"/>
-    <mergeCell ref="X52:AG56"/>
-    <mergeCell ref="AH52:AQ56"/>
-    <mergeCell ref="AR52:BA56"/>
-    <mergeCell ref="BB52:BK56"/>
-    <mergeCell ref="BL52:BU56"/>
-    <mergeCell ref="BV52:CE56"/>
-    <mergeCell ref="CF52:CO56"/>
-    <mergeCell ref="CP52:CY56"/>
-    <mergeCell ref="CZ52:DI56"/>
-    <mergeCell ref="D47:M51"/>
-    <mergeCell ref="N47:W51"/>
-    <mergeCell ref="X47:AG51"/>
-    <mergeCell ref="AH47:AQ51"/>
-    <mergeCell ref="AR47:BA51"/>
-    <mergeCell ref="BB47:BK51"/>
-    <mergeCell ref="BL47:BU51"/>
-    <mergeCell ref="BV47:CE51"/>
-    <mergeCell ref="CF47:CO51"/>
-    <mergeCell ref="CP47:CY51"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="T2:U3"/>
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="CS6:CT6"/>
+    <mergeCell ref="CW6:CX6"/>
+    <mergeCell ref="DF2:DG3"/>
+    <mergeCell ref="DC6:DD6"/>
+    <mergeCell ref="DG6:DH6"/>
+    <mergeCell ref="CV2:CW3"/>
+    <mergeCell ref="CX2:CY3"/>
+    <mergeCell ref="CS4:CT4"/>
+    <mergeCell ref="CW4:CX4"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CW5:CX5"/>
+    <mergeCell ref="DH2:DI3"/>
+    <mergeCell ref="DC4:DD4"/>
+    <mergeCell ref="DG4:DH4"/>
+    <mergeCell ref="DC5:DD5"/>
+    <mergeCell ref="DG5:DH5"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CC6:CD6"/>
+    <mergeCell ref="CL2:CM3"/>
+    <mergeCell ref="CN2:CO3"/>
+    <mergeCell ref="CI4:CJ4"/>
+    <mergeCell ref="CM4:CN4"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CI6:CJ6"/>
+    <mergeCell ref="CM6:CN6"/>
+    <mergeCell ref="CB2:CC3"/>
+    <mergeCell ref="CD2:CE3"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CC4:CD4"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BR2:BS3"/>
+    <mergeCell ref="BT2:BU3"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BH2:BI3"/>
+    <mergeCell ref="BJ2:BK3"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BI5:BJ5"/>
     <mergeCell ref="AO5:AP5"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AE4:AF4"/>
@@ -8903,54 +8903,58 @@
     <mergeCell ref="AK6:AL6"/>
     <mergeCell ref="AD2:AE3"/>
     <mergeCell ref="AF2:AG3"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BR2:BS3"/>
-    <mergeCell ref="BT2:BU3"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BH2:BI3"/>
-    <mergeCell ref="BJ2:BK3"/>
-    <mergeCell ref="BE4:BF4"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CC6:CD6"/>
-    <mergeCell ref="CL2:CM3"/>
-    <mergeCell ref="CN2:CO3"/>
-    <mergeCell ref="CI4:CJ4"/>
-    <mergeCell ref="CM4:CN4"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CI6:CJ6"/>
-    <mergeCell ref="CM6:CN6"/>
-    <mergeCell ref="CB2:CC3"/>
-    <mergeCell ref="CD2:CE3"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CC4:CD4"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="CS6:CT6"/>
-    <mergeCell ref="CW6:CX6"/>
-    <mergeCell ref="DF2:DG3"/>
-    <mergeCell ref="DC6:DD6"/>
-    <mergeCell ref="DG6:DH6"/>
-    <mergeCell ref="CV2:CW3"/>
-    <mergeCell ref="CX2:CY3"/>
-    <mergeCell ref="CS4:CT4"/>
-    <mergeCell ref="CW4:CX4"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="DH2:DI3"/>
-    <mergeCell ref="DC4:DD4"/>
-    <mergeCell ref="DG4:DH4"/>
-    <mergeCell ref="DC5:DD5"/>
-    <mergeCell ref="DG5:DH5"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="T2:U3"/>
+    <mergeCell ref="V2:W3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="CP52:CY56"/>
+    <mergeCell ref="CZ52:DI56"/>
+    <mergeCell ref="D47:M51"/>
+    <mergeCell ref="N47:W51"/>
+    <mergeCell ref="X47:AG51"/>
+    <mergeCell ref="AH47:AQ51"/>
+    <mergeCell ref="AR47:BA51"/>
+    <mergeCell ref="BB47:BK51"/>
+    <mergeCell ref="BL47:BU51"/>
+    <mergeCell ref="BV47:CE51"/>
+    <mergeCell ref="CF47:CO51"/>
+    <mergeCell ref="CP47:CY51"/>
+    <mergeCell ref="D52:M56"/>
+    <mergeCell ref="N52:W56"/>
+    <mergeCell ref="X52:AG56"/>
+    <mergeCell ref="AH52:AQ56"/>
+    <mergeCell ref="AR52:BA56"/>
+    <mergeCell ref="BB52:BK56"/>
+    <mergeCell ref="BL52:BU56"/>
+    <mergeCell ref="BV52:CE56"/>
+    <mergeCell ref="CF52:CO56"/>
+    <mergeCell ref="AN9:AQ9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BH9:BK9"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="CB9:CE9"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CV9:CY9"/>
+    <mergeCell ref="DF9:DI9"/>
+    <mergeCell ref="CZ47:DI51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8974,15 +8978,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000AD9CF6C18809D409E0B63A8FF3E1B41" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="217b736c962d345a1faef7cef7b5d759">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a77f6bfd898681e5a12a068144fab656" ns2:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -9144,6 +9139,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101401F0-266B-4560-B9EB-92F0EC712594}">
   <ds:schemaRefs>
@@ -9161,14 +9165,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A48B95A3-8CBE-4085-A074-1D1F0B8C67A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9184,4 +9180,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F065B-0021-4075-B51C-3CCB86F83471}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>